--- a/term_1/Assignment_Planner.xlsx
+++ b/term_1/Assignment_Planner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\GitHub\Winter_2021-2022\2021-2022\term_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\GitHub\UBCO_21-22\term_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF26D20-E79D-44E7-856F-6FB963D29497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BEBED3-B085-48BE-894C-EC8638DF9927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="1800" windowWidth="14400" windowHeight="7495" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
   </bookViews>
@@ -873,6 +873,51 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -917,51 +962,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142951BD-74E4-471E-868A-88909E17C9B2}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1916,11 +1916,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -1992,10 +1992,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="105" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2011,8 +2011,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2026,8 +2026,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2041,8 +2041,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2056,7 +2056,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2071,7 +2071,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2086,15 +2086,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="111" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="105" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2107,11 +2107,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="106"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2122,11 +2122,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2137,7 +2137,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2152,7 +2152,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2167,7 +2167,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2182,16 +2182,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="117" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2205,10 +2205,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2220,10 +2220,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2236,11 +2236,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="126" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2255,9 +2255,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="124"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2270,9 +2270,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="128"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2372,6 +2372,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2379,12 +2385,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2438,11 +2438,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -2514,10 +2514,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="105" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2533,8 +2533,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2548,8 +2548,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2563,8 +2563,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2578,7 +2578,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2593,7 +2593,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2608,15 +2608,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="111" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="105" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2629,11 +2629,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="106"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2644,11 +2644,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2659,7 +2659,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2674,7 +2674,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2689,7 +2689,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2704,16 +2704,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="117" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2727,10 +2727,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2742,10 +2742,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2758,11 +2758,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="126" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2777,9 +2777,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="124"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2792,9 +2792,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="128"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2894,6 +2894,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2901,12 +2907,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2960,11 +2960,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -3036,10 +3036,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="105" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3055,8 +3055,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3070,8 +3070,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3085,8 +3085,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3100,7 +3100,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3115,7 +3115,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3130,15 +3130,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="111" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="105" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3151,11 +3151,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="106"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3166,11 +3166,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3181,7 +3181,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3196,7 +3196,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3211,7 +3211,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3226,16 +3226,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="117" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3249,10 +3249,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3264,10 +3264,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3280,11 +3280,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="126" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3299,9 +3299,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="124"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3314,9 +3314,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="128"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3416,6 +3416,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3423,12 +3429,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3482,11 +3482,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -3558,10 +3558,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="105" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3577,8 +3577,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3592,8 +3592,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3607,8 +3607,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3622,7 +3622,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3637,7 +3637,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3652,15 +3652,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="111" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="105" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3673,11 +3673,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="106"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3688,11 +3688,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3703,7 +3703,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3718,7 +3718,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3733,7 +3733,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3748,16 +3748,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="117" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3771,10 +3771,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3786,10 +3786,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3802,11 +3802,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="126" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3821,9 +3821,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="124"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3836,9 +3836,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="128"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3938,6 +3938,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3945,12 +3951,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4004,11 +4004,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -4080,10 +4080,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="105" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4099,8 +4099,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4114,8 +4114,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4129,8 +4129,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4144,7 +4144,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4159,7 +4159,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4174,15 +4174,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="111" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="105" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4195,11 +4195,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="106"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4210,11 +4210,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4225,7 +4225,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4240,7 +4240,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4255,7 +4255,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4270,16 +4270,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="117" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4293,10 +4293,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4308,10 +4308,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4324,11 +4324,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="126" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4343,9 +4343,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="124"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4358,9 +4358,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="128"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4460,6 +4460,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4467,12 +4473,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4526,11 +4526,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -4602,10 +4602,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="105" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4621,8 +4621,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4636,8 +4636,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4651,8 +4651,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4666,7 +4666,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4681,7 +4681,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4696,15 +4696,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="111" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="105" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4717,11 +4717,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="106"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4732,11 +4732,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4747,7 +4747,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4762,7 +4762,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4777,7 +4777,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4792,16 +4792,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="117" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4815,10 +4815,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4830,10 +4830,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4846,11 +4846,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="126" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4865,9 +4865,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="124"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4880,9 +4880,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="128"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4982,6 +4982,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4989,12 +4995,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5517,6 +5517,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5524,12 +5530,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6048,6 +6048,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6055,12 +6061,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6579,6 +6579,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6586,12 +6592,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7101,6 +7101,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7108,12 +7114,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7167,11 +7167,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -7243,10 +7243,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="105" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7262,8 +7262,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7277,8 +7277,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7292,8 +7292,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7307,7 +7307,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7322,7 +7322,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7337,15 +7337,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="111" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="105" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7358,11 +7358,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="106"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -7373,11 +7373,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -7388,7 +7388,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7403,7 +7403,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7418,7 +7418,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7433,16 +7433,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="117" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7456,10 +7456,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7471,10 +7471,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -7487,11 +7487,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="126" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -7506,9 +7506,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="124"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7521,9 +7521,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="128"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7623,6 +7623,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7630,12 +7636,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7689,11 +7689,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -7765,10 +7765,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="105" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7784,8 +7784,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7799,8 +7799,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7814,8 +7814,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7829,7 +7829,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7844,7 +7844,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7859,15 +7859,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="111" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="105" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7880,11 +7880,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="106"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -7895,11 +7895,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -7910,7 +7910,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7925,7 +7925,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7940,7 +7940,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7955,16 +7955,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="117" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7978,10 +7978,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7993,10 +7993,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8009,11 +8009,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="126" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8028,9 +8028,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="124"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8043,9 +8043,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="128"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8145,6 +8145,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8152,12 +8158,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8211,11 +8211,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -8287,10 +8287,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="105" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8306,8 +8306,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8321,8 +8321,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8336,8 +8336,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8351,7 +8351,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8366,7 +8366,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8381,15 +8381,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="111" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="105" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8402,11 +8402,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="106"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8417,11 +8417,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8432,7 +8432,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8447,7 +8447,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8462,7 +8462,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8477,16 +8477,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="117" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8500,10 +8500,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8515,10 +8515,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8531,11 +8531,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="126" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8550,9 +8550,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="124"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8565,9 +8565,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="128"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8667,6 +8667,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8674,12 +8680,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8733,11 +8733,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="101"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -8809,10 +8809,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="105" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8828,8 +8828,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="106"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8843,8 +8843,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8858,8 +8858,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8873,7 +8873,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8888,7 +8888,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8903,15 +8903,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="111" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="105" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8924,11 +8924,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="112"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="106"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8939,11 +8939,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="107"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8954,7 +8954,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="109"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8969,7 +8969,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="109"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8984,7 +8984,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="110"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8999,16 +8999,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="117" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -9022,10 +9022,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -9037,10 +9037,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="119"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -9053,11 +9053,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="126" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -9072,9 +9072,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="124"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="127"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -9087,9 +9087,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="128"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -9189,6 +9189,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -9196,12 +9202,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/term_1/Assignment_Planner.xlsx
+++ b/term_1/Assignment_Planner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\GitHub\Winter_2021-2022\2021-2022\term_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\UBCO_21-22\term_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF26D20-E79D-44E7-856F-6FB963D29497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7326954E-7AEE-45C9-AA32-4D033C6D6FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1800" windowWidth="14400" windowHeight="7495" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +280,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -771,9 +777,6 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -787,6 +790,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -873,6 +894,51 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -917,51 +983,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1293,38 +1314,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142951BD-74E4-471E-868A-88909E17C9B2}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="26.40625" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="19.1328125" customWidth="1"/>
-    <col min="7" max="7" width="12.86328125" customWidth="1"/>
-    <col min="9" max="9" width="13.40625" style="69" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-    </row>
-    <row r="2" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -1347,16 +1368,16 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="3" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -1380,7 +1401,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="30.25" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -1391,20 +1412,20 @@
       <c r="F4" s="3"/>
       <c r="G4" s="6"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="75">
         <v>44450</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -1415,20 +1436,20 @@
       <c r="F5" s="3"/>
       <c r="G5" s="6"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="65" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="70">
+      <c r="K5" s="69">
         <v>44456</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="30.25" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -1439,27 +1460,27 @@
       <c r="F6" s="48"/>
       <c r="G6" s="6"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="65" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="70">
+      <c r="K6" s="69">
         <v>44456</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="30.25" x14ac:dyDescent="0.9">
+    <row r="7" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="89" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -1467,296 +1488,296 @@
       <c r="F7" s="53"/>
       <c r="G7" s="6"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="70">
+      <c r="K7" s="72">
         <v>44449</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
       <c r="G8" s="6"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="66"/>
+      <c r="I8" s="65"/>
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
       <c r="G9" s="6"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="67"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="86"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
       <c r="G10" s="6"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="67"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
       <c r="F11" s="53"/>
       <c r="G11" s="6"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="67"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
       <c r="F12" s="57"/>
       <c r="G12" s="6"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="67"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="89" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="89" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="67"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="85"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="85"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="67"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="86"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="67"/>
+      <c r="I15" s="66"/>
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="94"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
       <c r="F16" s="58"/>
       <c r="G16" s="6"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="67"/>
+      <c r="I16" s="66"/>
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
       <c r="F17" s="53"/>
       <c r="G17" s="6"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="67"/>
+      <c r="I17" s="66"/>
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="95"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
       <c r="F18" s="53"/>
       <c r="G18" s="6"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="67"/>
+      <c r="I18" s="66"/>
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
       <c r="G19" s="6"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="67"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="79"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="67"/>
+      <c r="I20" s="66"/>
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="67"/>
+      <c r="I21" s="66"/>
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="77" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="86" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="6"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="67"/>
+      <c r="I22" s="66"/>
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="73"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="82"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="67"/>
+      <c r="I23" s="66"/>
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="74"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="83"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="67"/>
+      <c r="I24" s="66"/>
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -1767,11 +1788,11 @@
       <c r="F25" s="53"/>
       <c r="G25" s="6"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="67"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -1782,11 +1803,11 @@
       <c r="F26" s="3"/>
       <c r="G26" s="6"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="67"/>
+      <c r="I26" s="66"/>
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -1797,11 +1818,11 @@
       <c r="F27" s="3"/>
       <c r="G27" s="6"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="67"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -1812,11 +1833,11 @@
       <c r="F28" s="3"/>
       <c r="G28" s="6"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="67"/>
+      <c r="I28" s="66"/>
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -1827,11 +1848,11 @@
       <c r="F29" s="3"/>
       <c r="G29" s="6"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="67"/>
+      <c r="I29" s="66"/>
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -1842,7 +1863,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="18"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="68"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="42"/>
       <c r="K30" s="34"/>
     </row>
@@ -1876,24 +1897,24 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -1916,13 +1937,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -1943,7 +1964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -1958,7 +1979,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -1973,7 +1994,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -1988,14 +2009,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2007,12 +2028,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2022,12 +2043,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2037,12 +2058,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2052,11 +2073,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2067,11 +2088,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2082,19 +2103,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2103,41 +2124,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2148,11 +2169,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2163,11 +2184,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2178,20 +2199,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2201,14 +2222,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2216,14 +2237,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2231,16 +2252,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2250,14 +2271,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2265,14 +2286,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2280,7 +2301,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -2295,7 +2316,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -2310,7 +2331,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -2325,7 +2346,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -2340,7 +2361,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -2355,7 +2376,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -2372,6 +2393,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2379,12 +2406,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2398,24 +2419,24 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -2438,13 +2459,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -2465,7 +2486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -2480,7 +2501,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -2495,7 +2516,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -2510,14 +2531,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2529,12 +2550,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2544,12 +2565,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2559,12 +2580,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2574,11 +2595,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2589,11 +2610,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2604,19 +2625,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2625,41 +2646,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2670,11 +2691,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2685,11 +2706,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2700,20 +2721,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2723,14 +2744,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2738,14 +2759,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2753,16 +2774,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2772,14 +2793,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2787,14 +2808,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2802,7 +2823,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -2817,7 +2838,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -2832,7 +2853,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -2847,7 +2868,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -2862,7 +2883,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -2877,7 +2898,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -2894,6 +2915,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2901,12 +2928,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2920,24 +2941,24 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -2960,13 +2981,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -2987,7 +3008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -3002,7 +3023,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -3017,7 +3038,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -3032,14 +3053,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3051,12 +3072,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3066,12 +3087,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3081,12 +3102,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3096,11 +3117,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3111,11 +3132,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3126,19 +3147,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3147,41 +3168,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3192,11 +3213,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3207,11 +3228,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3222,20 +3243,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3245,14 +3266,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3260,14 +3281,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3275,16 +3296,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3294,14 +3315,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3309,14 +3330,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3324,7 +3345,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -3339,7 +3360,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -3354,7 +3375,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -3369,7 +3390,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -3384,7 +3405,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -3399,7 +3420,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -3416,6 +3437,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3423,12 +3450,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3442,24 +3463,24 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -3482,13 +3503,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -3509,7 +3530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -3524,7 +3545,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -3539,7 +3560,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -3554,14 +3575,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3573,12 +3594,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3588,12 +3609,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3603,12 +3624,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3618,11 +3639,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3633,11 +3654,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3648,19 +3669,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3669,41 +3690,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3714,11 +3735,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3729,11 +3750,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3744,20 +3765,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3767,14 +3788,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3782,14 +3803,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3797,16 +3818,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3816,14 +3837,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3831,14 +3852,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3846,7 +3867,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -3861,7 +3882,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -3876,7 +3897,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -3891,7 +3912,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -3906,7 +3927,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -3921,7 +3942,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -3938,6 +3959,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3945,12 +3972,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3964,24 +3985,24 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -4004,13 +4025,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -4031,7 +4052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -4046,7 +4067,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -4061,7 +4082,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -4076,14 +4097,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4095,12 +4116,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4110,12 +4131,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4125,12 +4146,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4140,11 +4161,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4155,11 +4176,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4170,19 +4191,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4191,41 +4212,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4236,11 +4257,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4251,11 +4272,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4266,20 +4287,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4289,14 +4310,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4304,14 +4325,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4319,16 +4340,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4338,14 +4359,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4353,14 +4374,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4368,7 +4389,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -4383,7 +4404,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -4398,7 +4419,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -4413,7 +4434,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -4428,7 +4449,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -4443,7 +4464,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -4460,6 +4481,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4467,12 +4494,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4486,24 +4507,24 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -4526,13 +4547,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -4553,7 +4574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -4568,7 +4589,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -4583,7 +4604,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -4598,14 +4619,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4617,12 +4638,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4632,12 +4653,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4647,12 +4668,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4662,11 +4683,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4677,11 +4698,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4692,19 +4713,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4713,41 +4734,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4758,11 +4779,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4773,11 +4794,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4788,20 +4809,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4811,14 +4832,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4826,14 +4847,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4841,16 +4862,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4860,14 +4881,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4875,14 +4896,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4890,7 +4911,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -4905,7 +4926,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -4920,7 +4941,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -4935,7 +4956,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -4950,7 +4971,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -4965,7 +4986,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -4982,6 +5003,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4989,12 +5016,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5004,35 +5025,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B3B8CC-D153-431F-BDAD-4E080E0238A8}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="20.1328125" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.1328125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -5055,13 +5076,13 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-    </row>
-    <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -5082,7 +5103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -5103,7 +5124,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -5118,7 +5139,7 @@
       <c r="J5" s="40"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -5133,14 +5154,14 @@
       <c r="J6" s="40"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="89" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -5152,12 +5173,12 @@
       <c r="J7" s="40"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -5167,12 +5188,12 @@
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -5182,12 +5203,12 @@
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="86"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -5197,11 +5218,11 @@
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -5212,11 +5233,11 @@
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -5227,19 +5248,19 @@
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="89" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="89" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="6"/>
@@ -5248,41 +5269,41 @@
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="85"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="85"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="86"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="94"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -5293,11 +5314,11 @@
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -5308,11 +5329,11 @@
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="95"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -5323,20 +5344,20 @@
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -5346,14 +5367,14 @@
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="79"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -5361,14 +5382,14 @@
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -5376,16 +5397,16 @@
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="77" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="86" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -5395,14 +5416,14 @@
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="73"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="82"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -5410,14 +5431,14 @@
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="74"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="83"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5425,7 +5446,7 @@
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -5440,7 +5461,7 @@
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -5455,7 +5476,7 @@
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -5470,7 +5491,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -5485,7 +5506,7 @@
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -5500,7 +5521,7 @@
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -5517,6 +5538,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5524,12 +5551,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5543,33 +5564,33 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.40625" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="33.7265625" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
-    <col min="5" max="5" width="21.86328125" customWidth="1"/>
-    <col min="6" max="6" width="30.86328125" customWidth="1"/>
-    <col min="8" max="8" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -5592,13 +5613,13 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-    </row>
-    <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -5619,7 +5640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -5634,7 +5655,7 @@
       <c r="J4" s="39"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -5649,7 +5670,7 @@
       <c r="J5" s="40"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -5664,14 +5685,14 @@
       <c r="J6" s="40"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="89" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -5683,12 +5704,12 @@
       <c r="J7" s="40"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -5698,12 +5719,12 @@
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -5713,12 +5734,12 @@
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="86"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -5728,11 +5749,11 @@
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -5743,11 +5764,11 @@
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -5758,19 +5779,19 @@
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="89" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="89" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="6"/>
@@ -5779,41 +5800,41 @@
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="85"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="85"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="86"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="94"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -5824,11 +5845,11 @@
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -5839,11 +5860,11 @@
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="95"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -5854,20 +5875,20 @@
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -5877,14 +5898,14 @@
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="79"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -5892,14 +5913,14 @@
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -5907,16 +5928,16 @@
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="77" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="86" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -5926,14 +5947,14 @@
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="73"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="82"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -5941,14 +5962,14 @@
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="74"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="83"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5956,7 +5977,7 @@
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -5971,7 +5992,7 @@
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -5986,7 +6007,7 @@
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -6001,7 +6022,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -6016,7 +6037,7 @@
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -6031,7 +6052,7 @@
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -6048,6 +6069,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6055,12 +6082,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6074,33 +6095,33 @@
       <selection activeCell="K30" sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.86328125" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -6123,13 +6144,13 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-    </row>
-    <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -6150,7 +6171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -6165,7 +6186,7 @@
       <c r="J4" s="39"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -6180,7 +6201,7 @@
       <c r="J5" s="40"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -6195,14 +6216,14 @@
       <c r="J6" s="40"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="89" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -6214,12 +6235,12 @@
       <c r="J7" s="40"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -6229,12 +6250,12 @@
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -6244,12 +6265,12 @@
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="86"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -6259,11 +6280,11 @@
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -6274,11 +6295,11 @@
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -6289,19 +6310,19 @@
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="89" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="6"/>
@@ -6310,41 +6331,41 @@
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="85"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="85"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="86"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="94"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -6355,11 +6376,11 @@
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -6370,11 +6391,11 @@
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="95"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -6385,20 +6406,20 @@
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -6408,14 +6429,14 @@
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="79"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -6423,14 +6444,14 @@
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -6438,16 +6459,16 @@
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="77" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="86" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -6457,14 +6478,14 @@
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="73"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="82"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -6472,14 +6493,14 @@
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="74"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="83"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -6487,7 +6508,7 @@
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -6502,7 +6523,7 @@
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -6517,7 +6538,7 @@
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -6532,7 +6553,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -6547,7 +6568,7 @@
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -6562,7 +6583,7 @@
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -6579,6 +6600,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6586,12 +6613,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6605,24 +6626,24 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -6645,13 +6666,13 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-    </row>
-    <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -6672,7 +6693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -6687,7 +6708,7 @@
       <c r="J4" s="39"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -6702,7 +6723,7 @@
       <c r="J5" s="40"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -6717,14 +6738,14 @@
       <c r="J6" s="40"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="89" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -6736,12 +6757,12 @@
       <c r="J7" s="40"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -6751,12 +6772,12 @@
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -6766,12 +6787,12 @@
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="86"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -6781,11 +6802,11 @@
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -6796,11 +6817,11 @@
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -6811,19 +6832,19 @@
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="89" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="6"/>
@@ -6832,41 +6853,41 @@
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="85"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="85"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="86"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="94"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -6877,11 +6898,11 @@
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -6892,11 +6913,11 @@
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="95"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -6907,20 +6928,20 @@
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -6930,14 +6951,14 @@
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="79"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -6945,14 +6966,14 @@
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -6960,16 +6981,16 @@
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="77" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="86" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -6979,14 +7000,14 @@
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="73"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="82"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -6994,14 +7015,14 @@
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="74"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="83"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7009,7 +7030,7 @@
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -7024,7 +7045,7 @@
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -7039,7 +7060,7 @@
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -7054,7 +7075,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -7069,7 +7090,7 @@
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -7084,7 +7105,7 @@
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -7101,6 +7122,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7108,12 +7135,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7127,24 +7148,24 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -7167,13 +7188,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -7194,7 +7215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -7209,7 +7230,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -7224,7 +7245,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -7239,14 +7260,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7258,12 +7279,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7273,12 +7294,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7288,12 +7309,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7303,11 +7324,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7318,11 +7339,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7333,19 +7354,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7354,41 +7375,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7399,11 +7420,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7414,11 +7435,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7429,20 +7450,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7452,14 +7473,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7467,14 +7488,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -7482,16 +7503,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -7501,14 +7522,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7516,14 +7537,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7531,7 +7552,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -7546,7 +7567,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -7561,7 +7582,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -7576,7 +7597,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -7591,7 +7612,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -7606,7 +7627,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -7623,6 +7644,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7630,12 +7657,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7649,24 +7670,24 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -7689,13 +7710,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -7716,7 +7737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -7731,7 +7752,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -7746,7 +7767,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -7761,14 +7782,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7780,12 +7801,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7795,12 +7816,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7810,12 +7831,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7825,11 +7846,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7840,11 +7861,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7855,19 +7876,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7876,41 +7897,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7921,11 +7942,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7936,11 +7957,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7951,20 +7972,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7974,14 +7995,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7989,14 +8010,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8004,16 +8025,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8023,14 +8044,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8038,14 +8059,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8053,7 +8074,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -8068,7 +8089,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -8083,7 +8104,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -8098,7 +8119,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -8113,7 +8134,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -8128,7 +8149,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -8145,6 +8166,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8152,12 +8179,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8171,24 +8192,24 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -8211,13 +8232,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -8238,7 +8259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -8253,7 +8274,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -8268,7 +8289,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -8283,14 +8304,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8302,12 +8323,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8317,12 +8338,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8332,12 +8353,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8347,11 +8368,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8362,11 +8383,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8377,19 +8398,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8398,41 +8419,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8443,11 +8464,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8458,11 +8479,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8473,20 +8494,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8496,14 +8517,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8511,14 +8532,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8526,16 +8547,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8545,14 +8566,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8560,14 +8581,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8575,7 +8596,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -8590,7 +8611,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -8605,7 +8626,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -8620,7 +8641,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -8635,7 +8656,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -8650,7 +8671,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -8667,6 +8688,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8674,12 +8701,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8693,24 +8714,24 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -8733,13 +8754,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -8760,7 +8781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -8775,7 +8796,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -8790,7 +8811,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -8805,14 +8826,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="117" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8824,12 +8845,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8839,12 +8860,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="118"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8854,12 +8875,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="122"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8869,11 +8890,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="118"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8884,11 +8905,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="119"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8899,19 +8920,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="123" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="126" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8920,41 +8941,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="127"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="121"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="124"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8965,11 +8986,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="124"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8980,11 +9001,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="125"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8995,20 +9016,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -9018,14 +9039,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="103"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -9033,14 +9054,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="104"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -9048,16 +9069,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="108" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -9067,14 +9088,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="109"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -9082,14 +9103,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="110"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="113"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -9097,7 +9118,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -9112,7 +9133,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -9127,7 +9148,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -9142,7 +9163,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -9157,7 +9178,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -9172,7 +9193,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -9189,6 +9210,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -9196,12 +9223,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/term_1/Assignment_Planner.xlsx
+++ b/term_1/Assignment_Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\UBCO_21-22\term_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7326954E-7AEE-45C9-AA32-4D033C6D6FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8C91EE-869F-48B2-AAF3-AEA47A86A0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
   </bookViews>
@@ -894,6 +894,51 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -938,51 +983,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1937,11 +1937,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -2013,10 +2013,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2032,8 +2032,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2047,8 +2047,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2062,8 +2062,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2077,7 +2077,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2092,7 +2092,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2107,15 +2107,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2128,11 +2128,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2143,11 +2143,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2158,7 +2158,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2173,7 +2173,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2188,7 +2188,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2203,16 +2203,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2226,10 +2226,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2241,10 +2241,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2257,11 +2257,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2276,9 +2276,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2291,9 +2291,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2393,12 +2393,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2406,6 +2400,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2459,11 +2459,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -2535,10 +2535,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2554,8 +2554,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2569,8 +2569,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2584,8 +2584,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2599,7 +2599,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2614,7 +2614,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2629,15 +2629,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2650,11 +2650,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2665,11 +2665,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2680,7 +2680,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2695,7 +2695,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2710,7 +2710,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2725,16 +2725,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2748,10 +2748,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2763,10 +2763,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2779,11 +2779,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2798,9 +2798,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2813,9 +2813,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2915,12 +2915,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2928,6 +2922,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2981,11 +2981,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -3057,10 +3057,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3076,8 +3076,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3091,8 +3091,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3106,8 +3106,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3121,7 +3121,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3136,7 +3136,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3151,15 +3151,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3172,11 +3172,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3187,11 +3187,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3202,7 +3202,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3217,7 +3217,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3232,7 +3232,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3247,16 +3247,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3270,10 +3270,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3285,10 +3285,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3301,11 +3301,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3320,9 +3320,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3335,9 +3335,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3437,12 +3437,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3450,6 +3444,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3503,11 +3503,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -3579,10 +3579,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3598,8 +3598,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3613,8 +3613,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3628,8 +3628,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3643,7 +3643,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3658,7 +3658,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3673,15 +3673,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3694,11 +3694,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3709,11 +3709,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3724,7 +3724,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3739,7 +3739,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3754,7 +3754,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3769,16 +3769,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3792,10 +3792,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3807,10 +3807,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3823,11 +3823,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3842,9 +3842,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3857,9 +3857,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3959,12 +3959,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3972,6 +3966,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4025,11 +4025,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -4101,10 +4101,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4120,8 +4120,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4135,8 +4135,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4150,8 +4150,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4165,7 +4165,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4180,7 +4180,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4195,15 +4195,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4216,11 +4216,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4231,11 +4231,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4246,7 +4246,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4261,7 +4261,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4276,7 +4276,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4291,16 +4291,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4314,10 +4314,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4329,10 +4329,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4345,11 +4345,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4364,9 +4364,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4379,9 +4379,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4481,12 +4481,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4494,6 +4488,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4547,11 +4547,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -4623,10 +4623,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4642,8 +4642,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4657,8 +4657,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4672,8 +4672,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4687,7 +4687,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4702,7 +4702,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4717,15 +4717,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4738,11 +4738,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4753,11 +4753,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4768,7 +4768,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4783,7 +4783,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4798,7 +4798,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4813,16 +4813,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4836,10 +4836,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4851,10 +4851,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4867,11 +4867,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4886,9 +4886,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4901,9 +4901,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5003,12 +5003,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5016,6 +5010,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5538,12 +5538,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5551,6 +5545,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6069,12 +6069,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6082,6 +6076,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6600,12 +6600,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6613,6 +6607,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7122,12 +7122,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7135,6 +7129,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7188,11 +7188,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -7264,10 +7264,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7283,8 +7283,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7298,8 +7298,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7313,8 +7313,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7328,7 +7328,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7343,7 +7343,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7358,15 +7358,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7379,11 +7379,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -7394,11 +7394,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -7409,7 +7409,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7424,7 +7424,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7439,7 +7439,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7454,16 +7454,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7477,10 +7477,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7492,10 +7492,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -7508,11 +7508,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -7527,9 +7527,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7542,9 +7542,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7644,12 +7644,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7657,6 +7651,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7710,11 +7710,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -7786,10 +7786,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7805,8 +7805,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7820,8 +7820,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7835,8 +7835,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7850,7 +7850,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7865,7 +7865,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7880,15 +7880,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7901,11 +7901,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -7916,11 +7916,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -7931,7 +7931,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7946,7 +7946,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7961,7 +7961,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7976,16 +7976,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7999,10 +7999,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8014,10 +8014,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8030,11 +8030,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8049,9 +8049,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8064,9 +8064,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8166,12 +8166,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8179,6 +8173,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8232,11 +8232,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -8308,10 +8308,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8327,8 +8327,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8342,8 +8342,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8357,8 +8357,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8372,7 +8372,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8387,7 +8387,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8402,15 +8402,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8423,11 +8423,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8438,11 +8438,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8453,7 +8453,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8468,7 +8468,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8483,7 +8483,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8498,16 +8498,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8521,10 +8521,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8536,10 +8536,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8552,11 +8552,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8571,9 +8571,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8586,9 +8586,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8688,12 +8688,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8701,6 +8695,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8754,11 +8754,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -8830,10 +8830,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8849,8 +8849,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8864,8 +8864,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8879,8 +8879,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8894,7 +8894,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8909,7 +8909,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8924,15 +8924,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8945,11 +8945,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8960,11 +8960,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8975,7 +8975,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8990,7 +8990,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -9005,7 +9005,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -9020,16 +9020,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -9043,10 +9043,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -9058,10 +9058,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -9074,11 +9074,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -9093,9 +9093,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -9108,9 +9108,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -9210,12 +9210,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -9223,6 +9217,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/term_1/Assignment_Planner.xlsx
+++ b/term_1/Assignment_Planner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\UBCO_21-22\term_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\GitHub\UBCO_21-22\term_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8C91EE-869F-48B2-AAF3-AEA47A86A0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05B1207-473F-4837-953B-1029DD5B2D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
+    <workbookView xWindow="1800" yWindow="1800" windowWidth="14400" windowHeight="7495" activeTab="1" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="38">
   <si>
     <t>Monday</t>
   </si>
@@ -141,6 +141,18 @@
   </si>
   <si>
     <t>09/20-09/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quiz 1 (Love in Excess I) </t>
+  </si>
+  <si>
+    <t>ENGL 379 (in person)</t>
+  </si>
+  <si>
+    <t>ENGL 338 (in Person)- Lowell Poems</t>
+  </si>
+  <si>
+    <t>ENGL 338 (in person) Plath Poems</t>
   </si>
 </sst>
 </file>
@@ -673,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -894,6 +906,51 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -939,50 +996,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,23 +1332,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142951BD-74E4-471E-868A-88909E17C9B2}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="60" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="26.40625" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="68" customWidth="1"/>
+    <col min="6" max="6" width="19.1328125" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" customWidth="1"/>
+    <col min="9" max="9" width="13.40625" style="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -1345,7 +1363,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -1377,7 +1395,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -1401,7 +1419,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="30.25" x14ac:dyDescent="0.9">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -1425,7 +1443,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -1449,7 +1467,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="30.25" x14ac:dyDescent="0.9">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -1473,7 +1491,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="30.25" x14ac:dyDescent="0.9">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
@@ -1501,7 +1519,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
@@ -1519,7 +1537,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
@@ -1534,7 +1552,7 @@
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
@@ -1549,7 +1567,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
@@ -1564,7 +1582,7 @@
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
@@ -1579,7 +1597,7 @@
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
@@ -1600,7 +1618,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
@@ -1615,7 +1633,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
@@ -1630,7 +1648,7 @@
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
@@ -1645,7 +1663,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
@@ -1660,7 +1678,7 @@
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
@@ -1675,7 +1693,7 @@
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
@@ -1698,7 +1716,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
@@ -1713,7 +1731,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
@@ -1728,7 +1746,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
@@ -1747,7 +1765,7 @@
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
@@ -1762,7 +1780,7 @@
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
@@ -1777,7 +1795,7 @@
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -1792,7 +1810,7 @@
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -1807,7 +1825,7 @@
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -1822,7 +1840,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -1837,7 +1855,7 @@
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -1852,7 +1870,7 @@
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -1897,9 +1915,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -1914,7 +1932,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -1937,13 +1955,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -1964,7 +1982,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -1979,7 +1997,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -1994,7 +2012,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -2009,14 +2027,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2028,12 +2046,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2043,12 +2061,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2058,12 +2076,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2073,11 +2091,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2088,11 +2106,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2103,19 +2121,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2124,41 +2142,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2169,11 +2187,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2184,11 +2202,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2199,20 +2217,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2222,14 +2240,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2237,14 +2255,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2252,16 +2270,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2271,14 +2289,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2286,14 +2304,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2301,7 +2319,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -2316,7 +2334,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -2331,7 +2349,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -2346,7 +2364,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -2361,7 +2379,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -2376,7 +2394,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -2393,6 +2411,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2400,12 +2424,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2419,9 +2437,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -2436,7 +2454,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -2459,13 +2477,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -2486,7 +2504,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -2501,7 +2519,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -2516,7 +2534,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -2531,14 +2549,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2550,12 +2568,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2565,12 +2583,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2580,12 +2598,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2595,11 +2613,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2610,11 +2628,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2625,19 +2643,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2646,41 +2664,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2691,11 +2709,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2706,11 +2724,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2721,20 +2739,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2744,14 +2762,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2759,14 +2777,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2774,16 +2792,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2793,14 +2811,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2808,14 +2826,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2823,7 +2841,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -2838,7 +2856,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -2853,7 +2871,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -2868,7 +2886,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -2883,7 +2901,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -2898,7 +2916,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -2915,6 +2933,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2922,12 +2946,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2941,9 +2959,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -2958,7 +2976,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -2981,13 +2999,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -3008,7 +3026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -3023,7 +3041,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -3038,7 +3056,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -3053,14 +3071,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3072,12 +3090,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3087,12 +3105,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3102,12 +3120,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3117,11 +3135,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3132,11 +3150,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3147,19 +3165,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3168,41 +3186,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3213,11 +3231,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3228,11 +3246,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3243,20 +3261,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3266,14 +3284,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3281,14 +3299,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3296,16 +3314,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3315,14 +3333,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3330,14 +3348,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3345,7 +3363,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -3360,7 +3378,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -3375,7 +3393,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -3390,7 +3408,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -3405,7 +3423,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -3420,7 +3438,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -3437,6 +3455,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3444,12 +3468,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3463,9 +3481,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -3480,7 +3498,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -3503,13 +3521,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -3530,7 +3548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -3545,7 +3563,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -3560,7 +3578,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -3575,14 +3593,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3594,12 +3612,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3609,12 +3627,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3624,12 +3642,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3639,11 +3657,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3654,11 +3672,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3669,19 +3687,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3690,41 +3708,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3735,11 +3753,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3750,11 +3768,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3765,20 +3783,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3788,14 +3806,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3803,14 +3821,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3818,16 +3836,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3837,14 +3855,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3852,14 +3870,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3867,7 +3885,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -3882,7 +3900,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -3897,7 +3915,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -3912,7 +3930,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -3927,7 +3945,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -3942,7 +3960,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -3959,6 +3977,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3966,12 +3990,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3985,9 +4003,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -4002,7 +4020,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -4025,13 +4043,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -4052,7 +4070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -4067,7 +4085,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -4082,7 +4100,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -4097,14 +4115,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4116,12 +4134,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4131,12 +4149,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4146,12 +4164,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4161,11 +4179,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4176,11 +4194,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4191,19 +4209,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4212,41 +4230,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4257,11 +4275,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4272,11 +4290,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4287,20 +4305,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4310,14 +4328,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4325,14 +4343,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4340,16 +4358,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4359,14 +4377,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4374,14 +4392,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4389,7 +4407,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -4404,7 +4422,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -4419,7 +4437,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -4434,7 +4452,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -4449,7 +4467,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -4464,7 +4482,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -4481,6 +4499,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4488,12 +4512,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4507,9 +4525,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -4524,7 +4542,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -4547,13 +4565,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -4574,7 +4592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -4589,7 +4607,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -4604,7 +4622,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -4619,14 +4637,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4638,12 +4656,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4653,12 +4671,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4668,12 +4686,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4683,11 +4701,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4698,11 +4716,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4713,19 +4731,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4734,41 +4752,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4779,11 +4797,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4794,11 +4812,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4809,20 +4827,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4832,14 +4850,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4847,14 +4865,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4862,16 +4880,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4881,14 +4899,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4896,14 +4914,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4911,7 +4929,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -4926,7 +4944,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -4941,7 +4959,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -4956,7 +4974,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -4971,7 +4989,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -4986,7 +5004,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -5003,6 +5021,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5010,12 +5034,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5025,20 +5043,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B3B8CC-D153-431F-BDAD-4E080E0238A8}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="77" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.1328125" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" customWidth="1"/>
+    <col min="9" max="9" width="18.86328125" style="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="76" t="s">
         <v>31</v>
       </c>
@@ -5053,7 +5073,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -5082,7 +5102,7 @@
       <c r="J2" s="93"/>
       <c r="K2" s="94"/>
     </row>
-    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="31" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -5093,7 +5113,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="5"/>
       <c r="H3" s="61"/>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="134" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="59" t="s">
@@ -5103,7 +5123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.9">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -5114,7 +5134,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="6"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="135" t="s">
         <v>32</v>
       </c>
       <c r="J4" s="39" t="s">
@@ -5124,7 +5144,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.9">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -5135,11 +5155,17 @@
       <c r="F5" s="3"/>
       <c r="G5" s="6"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="32"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I5" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="69">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -5150,11 +5176,11 @@
       <c r="F6" s="48"/>
       <c r="G6" s="6"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="36"/>
+      <c r="I6" s="65"/>
       <c r="J6" s="40"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
@@ -5169,11 +5195,11 @@
       <c r="F7" s="53"/>
       <c r="G7" s="6"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="36"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="40"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
@@ -5184,11 +5210,11 @@
       <c r="F8" s="53"/>
       <c r="G8" s="6"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="36"/>
+      <c r="I8" s="65"/>
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
@@ -5199,11 +5225,11 @@
       <c r="F9" s="53"/>
       <c r="G9" s="6"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="37"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
@@ -5214,11 +5240,11 @@
       <c r="F10" s="53"/>
       <c r="G10" s="6"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="37"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
@@ -5229,11 +5255,11 @@
       <c r="F11" s="53"/>
       <c r="G11" s="6"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="37"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
@@ -5244,16 +5270,16 @@
       <c r="F12" s="57"/>
       <c r="G12" s="6"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="37"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C13" s="89" t="s">
         <v>21</v>
@@ -5265,11 +5291,11 @@
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="37"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
@@ -5280,11 +5306,11 @@
       <c r="F14" s="90"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="37"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
@@ -5295,11 +5321,11 @@
       <c r="F15" s="91"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="37"/>
+      <c r="I15" s="66"/>
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
@@ -5310,11 +5336,11 @@
       <c r="F16" s="58"/>
       <c r="G16" s="6"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="37"/>
+      <c r="I16" s="66"/>
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
@@ -5325,11 +5351,11 @@
       <c r="F17" s="53"/>
       <c r="G17" s="6"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="37"/>
+      <c r="I17" s="66"/>
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
@@ -5340,22 +5366,22 @@
       <c r="F18" s="53"/>
       <c r="G18" s="6"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="37"/>
+      <c r="I18" s="66"/>
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
       <c r="B19" s="101" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C19" s="83" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="E19" s="83" t="s">
         <v>12</v>
@@ -5363,11 +5389,11 @@
       <c r="F19" s="53"/>
       <c r="G19" s="6"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="37"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
@@ -5378,11 +5404,11 @@
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="37"/>
+      <c r="I20" s="66"/>
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
@@ -5393,11 +5419,11 @@
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="37"/>
+      <c r="I21" s="66"/>
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
@@ -5412,11 +5438,11 @@
       <c r="F22" s="53"/>
       <c r="G22" s="6"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="37"/>
+      <c r="I22" s="66"/>
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
@@ -5427,11 +5453,11 @@
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="37"/>
+      <c r="I23" s="66"/>
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
@@ -5442,11 +5468,11 @@
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="37"/>
+      <c r="I24" s="66"/>
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -5457,11 +5483,11 @@
       <c r="F25" s="53"/>
       <c r="G25" s="6"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="37"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -5472,11 +5498,11 @@
       <c r="F26" s="3"/>
       <c r="G26" s="6"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="37"/>
+      <c r="I26" s="66"/>
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -5487,11 +5513,11 @@
       <c r="F27" s="3"/>
       <c r="G27" s="6"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="37"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -5502,11 +5528,11 @@
       <c r="F28" s="3"/>
       <c r="G28" s="6"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="37"/>
+      <c r="I28" s="66"/>
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -5517,11 +5543,11 @@
       <c r="F29" s="3"/>
       <c r="G29" s="6"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="37"/>
+      <c r="I29" s="66"/>
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -5532,12 +5558,18 @@
       <c r="F30" s="17"/>
       <c r="G30" s="18"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="38"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="42"/>
       <c r="K30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5545,12 +5577,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5564,18 +5590,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.40625" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="33.7265625" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
+    <col min="5" max="5" width="21.86328125" customWidth="1"/>
+    <col min="6" max="6" width="30.86328125" customWidth="1"/>
+    <col min="8" max="8" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="76" t="s">
         <v>33</v>
       </c>
@@ -5590,7 +5616,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -5619,7 +5645,7 @@
       <c r="J2" s="93"/>
       <c r="K2" s="94"/>
     </row>
-    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -5640,7 +5666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -5655,7 +5681,7 @@
       <c r="J4" s="39"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -5670,7 +5696,7 @@
       <c r="J5" s="40"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -5685,7 +5711,7 @@
       <c r="J6" s="40"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
@@ -5704,7 +5730,7 @@
       <c r="J7" s="40"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
@@ -5719,7 +5745,7 @@
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
@@ -5734,7 +5760,7 @@
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
@@ -5749,7 +5775,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
@@ -5764,7 +5790,7 @@
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
@@ -5779,7 +5805,7 @@
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
@@ -5800,7 +5826,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
@@ -5815,7 +5841,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
@@ -5830,7 +5856,7 @@
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
@@ -5845,7 +5871,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
@@ -5860,7 +5886,7 @@
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
@@ -5875,7 +5901,7 @@
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
@@ -5898,7 +5924,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
@@ -5913,7 +5939,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
@@ -5928,7 +5954,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
@@ -5947,7 +5973,7 @@
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
@@ -5962,7 +5988,7 @@
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
@@ -5977,7 +6003,7 @@
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -5992,7 +6018,7 @@
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -6007,7 +6033,7 @@
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -6022,7 +6048,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -6037,7 +6063,7 @@
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -6052,7 +6078,7 @@
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -6069,6 +6095,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6076,12 +6108,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6095,18 +6121,18 @@
       <selection activeCell="K30" sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.86328125" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -6121,7 +6147,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -6150,7 +6176,7 @@
       <c r="J2" s="93"/>
       <c r="K2" s="94"/>
     </row>
-    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -6171,7 +6197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -6186,7 +6212,7 @@
       <c r="J4" s="39"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -6201,7 +6227,7 @@
       <c r="J5" s="40"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -6216,7 +6242,7 @@
       <c r="J6" s="40"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
@@ -6235,7 +6261,7 @@
       <c r="J7" s="40"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
@@ -6250,7 +6276,7 @@
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
@@ -6265,7 +6291,7 @@
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
@@ -6280,7 +6306,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
@@ -6295,7 +6321,7 @@
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
@@ -6310,7 +6336,7 @@
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
@@ -6331,7 +6357,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
@@ -6346,7 +6372,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
@@ -6361,7 +6387,7 @@
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
@@ -6376,7 +6402,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
@@ -6391,7 +6417,7 @@
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
@@ -6406,7 +6432,7 @@
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
@@ -6429,7 +6455,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
@@ -6444,7 +6470,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
@@ -6459,7 +6485,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
@@ -6478,7 +6504,7 @@
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
@@ -6493,7 +6519,7 @@
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
@@ -6508,7 +6534,7 @@
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -6523,7 +6549,7 @@
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -6538,7 +6564,7 @@
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -6553,7 +6579,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -6568,7 +6594,7 @@
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -6583,7 +6609,7 @@
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -6600,6 +6626,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6607,12 +6639,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6626,9 +6652,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -6643,7 +6669,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -6672,7 +6698,7 @@
       <c r="J2" s="93"/>
       <c r="K2" s="94"/>
     </row>
-    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -6693,7 +6719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -6708,7 +6734,7 @@
       <c r="J4" s="39"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -6723,7 +6749,7 @@
       <c r="J5" s="40"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -6738,7 +6764,7 @@
       <c r="J6" s="40"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
@@ -6757,7 +6783,7 @@
       <c r="J7" s="40"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
@@ -6772,7 +6798,7 @@
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
@@ -6787,7 +6813,7 @@
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
@@ -6802,7 +6828,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
@@ -6817,7 +6843,7 @@
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
@@ -6832,7 +6858,7 @@
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
@@ -6853,7 +6879,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
@@ -6868,7 +6894,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
@@ -6883,7 +6909,7 @@
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
@@ -6898,7 +6924,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
@@ -6913,7 +6939,7 @@
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
@@ -6928,7 +6954,7 @@
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
@@ -6951,7 +6977,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
@@ -6966,7 +6992,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
@@ -6981,7 +7007,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
@@ -7000,7 +7026,7 @@
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
@@ -7015,7 +7041,7 @@
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
@@ -7030,7 +7056,7 @@
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -7045,7 +7071,7 @@
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -7060,7 +7086,7 @@
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -7075,7 +7101,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -7090,7 +7116,7 @@
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -7105,7 +7131,7 @@
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -7122,6 +7148,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7129,12 +7161,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7148,9 +7174,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -7165,7 +7191,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -7188,13 +7214,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -7215,7 +7241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -7230,7 +7256,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -7245,7 +7271,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -7260,14 +7286,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7279,12 +7305,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7294,12 +7320,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7309,12 +7335,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7324,11 +7350,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7339,11 +7365,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7354,19 +7380,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7375,41 +7401,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7420,11 +7446,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7435,11 +7461,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7450,20 +7476,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7473,14 +7499,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7488,14 +7514,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -7503,16 +7529,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -7522,14 +7548,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7537,14 +7563,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7552,7 +7578,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -7567,7 +7593,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -7582,7 +7608,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -7597,7 +7623,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -7612,7 +7638,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -7627,7 +7653,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -7644,6 +7670,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7651,12 +7683,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7670,9 +7696,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -7687,7 +7713,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -7710,13 +7736,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -7737,7 +7763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -7752,7 +7778,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -7767,7 +7793,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -7782,14 +7808,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7801,12 +7827,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7816,12 +7842,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7831,12 +7857,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7846,11 +7872,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7861,11 +7887,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7876,19 +7902,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7897,41 +7923,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7942,11 +7968,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7957,11 +7983,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7972,20 +7998,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7995,14 +8021,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8010,14 +8036,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8025,16 +8051,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8044,14 +8070,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8059,14 +8085,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8074,7 +8100,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -8089,7 +8115,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -8104,7 +8130,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -8119,7 +8145,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -8134,7 +8160,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -8149,7 +8175,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -8166,6 +8192,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8173,12 +8205,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8192,9 +8218,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -8209,7 +8235,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -8232,13 +8258,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -8259,7 +8285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -8274,7 +8300,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -8289,7 +8315,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -8304,14 +8330,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8323,12 +8349,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8338,12 +8364,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8353,12 +8379,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8368,11 +8394,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8383,11 +8409,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8398,19 +8424,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8419,41 +8445,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8464,11 +8490,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8479,11 +8505,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8494,20 +8520,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8517,14 +8543,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8532,14 +8558,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8547,16 +8573,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8566,14 +8592,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8581,14 +8607,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8596,7 +8622,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -8611,7 +8637,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -8626,7 +8652,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -8641,7 +8667,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -8656,7 +8682,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -8671,7 +8697,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -8688,6 +8714,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8695,12 +8727,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8714,9 +8740,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -8731,7 +8757,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -8754,13 +8780,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -8781,7 +8807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -8796,7 +8822,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -8811,7 +8837,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -8826,14 +8852,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8845,12 +8871,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8860,12 +8886,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8875,12 +8901,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8890,11 +8916,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8905,11 +8931,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8920,19 +8946,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8941,41 +8967,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8986,11 +9012,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -9001,11 +9027,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -9016,20 +9042,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -9039,14 +9065,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -9054,14 +9080,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -9069,16 +9095,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -9088,14 +9114,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -9103,14 +9129,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -9118,7 +9144,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -9133,7 +9159,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -9148,7 +9174,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -9163,7 +9189,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -9178,7 +9204,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -9193,7 +9219,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -9210,6 +9236,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -9217,12 +9249,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/term_1/Assignment_Planner.xlsx
+++ b/term_1/Assignment_Planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\GitHub\UBCO_21-22\term_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BEBED3-B085-48BE-894C-EC8638DF9927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05B1207-473F-4837-953B-1029DD5B2D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1800" windowWidth="14400" windowHeight="7495" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
+    <workbookView xWindow="1800" yWindow="1800" windowWidth="14400" windowHeight="7495" activeTab="1" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="38">
   <si>
     <t>Monday</t>
   </si>
@@ -142,6 +142,18 @@
   <si>
     <t>09/20-09/26</t>
   </si>
+  <si>
+    <t xml:space="preserve">Quiz 1 (Love in Excess I) </t>
+  </si>
+  <si>
+    <t>ENGL 379 (in person)</t>
+  </si>
+  <si>
+    <t>ENGL 338 (in Person)- Lowell Poems</t>
+  </si>
+  <si>
+    <t>ENGL 338 (in person) Plath Poems</t>
+  </si>
 </sst>
 </file>
 
@@ -192,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,6 +292,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -771,9 +789,6 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -787,6 +802,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,6 +994,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1293,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142951BD-74E4-471E-868A-88909E17C9B2}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A7" zoomScale="60" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1306,23 +1345,23 @@
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="19.1328125" customWidth="1"/>
     <col min="7" max="7" width="12.86328125" customWidth="1"/>
-    <col min="9" max="9" width="13.40625" style="69" customWidth="1"/>
+    <col min="9" max="9" width="13.40625" style="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
@@ -1347,11 +1386,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1391,13 +1430,13 @@
       <c r="F4" s="3"/>
       <c r="G4" s="6"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="63">
+      <c r="K4" s="75">
         <v>44450</v>
       </c>
       <c r="L4" s="1"/>
@@ -1415,13 +1454,13 @@
       <c r="F5" s="3"/>
       <c r="G5" s="6"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="65" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="70">
+      <c r="K5" s="69">
         <v>44456</v>
       </c>
       <c r="L5" s="1"/>
@@ -1439,13 +1478,13 @@
       <c r="F6" s="48"/>
       <c r="G6" s="6"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="65" t="s">
         <v>29</v>
       </c>
       <c r="J6" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="70">
+      <c r="K6" s="69">
         <v>44456</v>
       </c>
       <c r="L6" s="1"/>
@@ -1456,10 +1495,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="89" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -1467,13 +1506,13 @@
       <c r="F7" s="53"/>
       <c r="G7" s="6"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="70">
+      <c r="K7" s="72">
         <v>44449</v>
       </c>
       <c r="L7" s="1"/>
@@ -1484,14 +1523,14 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
       <c r="G8" s="6"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="66"/>
+      <c r="I8" s="65"/>
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
       <c r="L8" s="1"/>
@@ -1502,14 +1541,14 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
       <c r="G9" s="6"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="67"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
@@ -1517,14 +1556,14 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="86"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
       <c r="G10" s="6"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="67"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
@@ -1532,14 +1571,14 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
       <c r="F11" s="53"/>
       <c r="G11" s="6"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="67"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
@@ -1547,14 +1586,14 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
       <c r="F12" s="57"/>
       <c r="G12" s="6"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="67"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
@@ -1562,20 +1601,20 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="89" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="89" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="67"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
@@ -1583,14 +1622,14 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="85"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="85"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="67"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
@@ -1598,14 +1637,14 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="86"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="67"/>
+      <c r="I15" s="66"/>
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
@@ -1613,14 +1652,14 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="94"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
       <c r="F16" s="58"/>
       <c r="G16" s="6"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="67"/>
+      <c r="I16" s="66"/>
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
@@ -1628,14 +1667,14 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
       <c r="F17" s="53"/>
       <c r="G17" s="6"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="67"/>
+      <c r="I17" s="66"/>
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
@@ -1643,14 +1682,14 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="95"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
       <c r="F18" s="53"/>
       <c r="G18" s="6"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="67"/>
+      <c r="I18" s="66"/>
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
@@ -1658,22 +1697,22 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
       <c r="G19" s="6"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="67"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
@@ -1681,14 +1720,14 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="79"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="67"/>
+      <c r="I20" s="66"/>
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
@@ -1696,14 +1735,14 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="67"/>
+      <c r="I21" s="66"/>
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
@@ -1712,17 +1751,17 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="77" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="86" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="6"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="67"/>
+      <c r="I22" s="66"/>
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
@@ -1731,13 +1770,13 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="73"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="82"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="67"/>
+      <c r="I23" s="66"/>
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
@@ -1746,13 +1785,13 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="74"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="83"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="67"/>
+      <c r="I24" s="66"/>
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
@@ -1767,7 +1806,7 @@
       <c r="F25" s="53"/>
       <c r="G25" s="6"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="67"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
@@ -1782,7 +1821,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="6"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="67"/>
+      <c r="I26" s="66"/>
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
@@ -1797,7 +1836,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="6"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="67"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
@@ -1812,7 +1851,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="6"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="67"/>
+      <c r="I28" s="66"/>
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
@@ -1827,7 +1866,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="6"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="67"/>
+      <c r="I29" s="66"/>
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
@@ -1842,7 +1881,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="18"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="68"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="42"/>
       <c r="K30" s="34"/>
     </row>
@@ -1879,19 +1918,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -1916,11 +1955,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -1992,10 +2031,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2011,8 +2050,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="106"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2026,8 +2065,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="106"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2041,8 +2080,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2056,7 +2095,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2071,7 +2110,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="104"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2086,15 +2125,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2107,11 +2146,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="106"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2122,11 +2161,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="107"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2137,7 +2176,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="109"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2152,7 +2191,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="109"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2167,7 +2206,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="110"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2182,16 +2221,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="117" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2205,10 +2244,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="118"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2220,10 +2259,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="119"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2236,11 +2275,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="126" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2255,9 +2294,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="124"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="127"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2270,9 +2309,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="125"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="128"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2401,19 +2440,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -2438,11 +2477,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -2514,10 +2553,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2533,8 +2572,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="106"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2548,8 +2587,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="106"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2563,8 +2602,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2578,7 +2617,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2593,7 +2632,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="104"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2608,15 +2647,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2629,11 +2668,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="106"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2644,11 +2683,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="107"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2659,7 +2698,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="109"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2674,7 +2713,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="109"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2689,7 +2728,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="110"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2704,16 +2743,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="117" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2727,10 +2766,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="118"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2742,10 +2781,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="119"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2758,11 +2797,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="126" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2777,9 +2816,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="124"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="127"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2792,9 +2831,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="125"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="128"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2923,19 +2962,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -2960,11 +2999,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -3036,10 +3075,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3055,8 +3094,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="106"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3070,8 +3109,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="106"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3085,8 +3124,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3100,7 +3139,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3115,7 +3154,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="104"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3130,15 +3169,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3151,11 +3190,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="106"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3166,11 +3205,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="107"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3181,7 +3220,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="109"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3196,7 +3235,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="109"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3211,7 +3250,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="110"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3226,16 +3265,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="117" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3249,10 +3288,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="118"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3264,10 +3303,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="119"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3280,11 +3319,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="126" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3299,9 +3338,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="124"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="127"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3314,9 +3353,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="125"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="128"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3445,19 +3484,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -3482,11 +3521,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -3558,10 +3597,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3577,8 +3616,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="106"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3592,8 +3631,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="106"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3607,8 +3646,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3622,7 +3661,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3637,7 +3676,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="104"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3652,15 +3691,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3673,11 +3712,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="106"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3688,11 +3727,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="107"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3703,7 +3742,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="109"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3718,7 +3757,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="109"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3733,7 +3772,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="110"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3748,16 +3787,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="117" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3771,10 +3810,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="118"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3786,10 +3825,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="119"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3802,11 +3841,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="126" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3821,9 +3860,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="124"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="127"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3836,9 +3875,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="125"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="128"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3967,19 +4006,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -4004,11 +4043,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -4080,10 +4119,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4099,8 +4138,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="106"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4114,8 +4153,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="106"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4129,8 +4168,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4144,7 +4183,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4159,7 +4198,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="104"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4174,15 +4213,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4195,11 +4234,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="106"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4210,11 +4249,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="107"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4225,7 +4264,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="109"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4240,7 +4279,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="109"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4255,7 +4294,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="110"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4270,16 +4309,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="117" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4293,10 +4332,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="118"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4308,10 +4347,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="119"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4324,11 +4363,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="126" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4343,9 +4382,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="124"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="127"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4358,9 +4397,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="125"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="128"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4489,19 +4528,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -4526,11 +4565,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -4602,10 +4641,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4621,8 +4660,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="106"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4636,8 +4675,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="106"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4651,8 +4690,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4666,7 +4705,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4681,7 +4720,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="104"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4696,15 +4735,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4717,11 +4756,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="106"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4732,11 +4771,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="107"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4747,7 +4786,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="109"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4762,7 +4801,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="109"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4777,7 +4816,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="110"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4792,16 +4831,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="117" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4815,10 +4854,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="118"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4830,10 +4869,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="119"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4846,11 +4885,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="126" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4865,9 +4904,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="124"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="127"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4880,9 +4919,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="125"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="128"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5004,33 +5043,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B3B8CC-D153-431F-BDAD-4E080E0238A8}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="77" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="24.1328125" customWidth="1"/>
     <col min="3" max="3" width="20.1328125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="6" max="6" width="17.54296875" customWidth="1"/>
     <col min="8" max="8" width="13.1328125" customWidth="1"/>
+    <col min="9" max="9" width="18.86328125" style="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
@@ -5055,13 +5096,13 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-    </row>
-    <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+    </row>
+    <row r="3" spans="1:11" ht="31" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -5072,7 +5113,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="5"/>
       <c r="H3" s="61"/>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="134" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="59" t="s">
@@ -5082,7 +5123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.9">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -5093,7 +5134,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="6"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="135" t="s">
         <v>32</v>
       </c>
       <c r="J4" s="39" t="s">
@@ -5103,7 +5144,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.9">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -5114,9 +5155,15 @@
       <c r="F5" s="3"/>
       <c r="G5" s="6"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="32"/>
+      <c r="I5" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="69">
+        <v>44455</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A6" s="44">
@@ -5129,7 +5176,7 @@
       <c r="F6" s="48"/>
       <c r="G6" s="6"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="36"/>
+      <c r="I6" s="65"/>
       <c r="J6" s="40"/>
       <c r="K6" s="32"/>
     </row>
@@ -5137,10 +5184,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="89" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -5148,7 +5195,7 @@
       <c r="F7" s="53"/>
       <c r="G7" s="6"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="36"/>
+      <c r="I7" s="65"/>
       <c r="J7" s="40"/>
       <c r="K7" s="32"/>
     </row>
@@ -5156,14 +5203,14 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
       <c r="G8" s="6"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="36"/>
+      <c r="I8" s="65"/>
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
     </row>
@@ -5171,14 +5218,14 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
       <c r="G9" s="6"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="37"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
@@ -5186,14 +5233,14 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="86"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
       <c r="G10" s="6"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="37"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
@@ -5201,14 +5248,14 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
       <c r="F11" s="53"/>
       <c r="G11" s="6"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="37"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
@@ -5216,14 +5263,14 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
       <c r="F12" s="57"/>
       <c r="G12" s="6"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="37"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
@@ -5231,20 +5278,20 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="84" t="s">
+      <c r="B13" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="89" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="89" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="37"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
@@ -5252,14 +5299,14 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="85"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="85"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="37"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
@@ -5267,14 +5314,14 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="86"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="37"/>
+      <c r="I15" s="66"/>
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
@@ -5282,14 +5329,14 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="94"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
       <c r="F16" s="58"/>
       <c r="G16" s="6"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="37"/>
+      <c r="I16" s="66"/>
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
@@ -5297,14 +5344,14 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
       <c r="F17" s="53"/>
       <c r="G17" s="6"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="37"/>
+      <c r="I17" s="66"/>
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
@@ -5312,14 +5359,14 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="95"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
       <c r="F18" s="53"/>
       <c r="G18" s="6"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="37"/>
+      <c r="I18" s="66"/>
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
@@ -5327,22 +5374,22 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="96" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="78" t="s">
+      <c r="B19" s="101" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="75" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="78" t="s">
+      <c r="D19" s="80" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
       <c r="G19" s="6"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="37"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
@@ -5350,14 +5397,14 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="79"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="37"/>
+      <c r="I20" s="66"/>
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
@@ -5365,14 +5412,14 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="37"/>
+      <c r="I21" s="66"/>
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
@@ -5381,17 +5428,17 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="77" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="86" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
       <c r="G22" s="6"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="37"/>
+      <c r="I22" s="66"/>
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
@@ -5400,13 +5447,13 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="73"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="82"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="37"/>
+      <c r="I23" s="66"/>
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
@@ -5415,13 +5462,13 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="74"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="83"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="37"/>
+      <c r="I24" s="66"/>
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
@@ -5436,7 +5483,7 @@
       <c r="F25" s="53"/>
       <c r="G25" s="6"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="37"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
@@ -5451,7 +5498,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="6"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="37"/>
+      <c r="I26" s="66"/>
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
@@ -5466,7 +5513,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="6"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="37"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
@@ -5481,7 +5528,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="6"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="37"/>
+      <c r="I28" s="66"/>
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
@@ -5496,7 +5543,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="6"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="37"/>
+      <c r="I29" s="66"/>
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
@@ -5511,7 +5558,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="18"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="38"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="42"/>
       <c r="K30" s="34"/>
     </row>
@@ -5555,19 +5602,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
@@ -5592,11 +5639,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
@@ -5668,10 +5715,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="89" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -5687,8 +5734,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -5702,8 +5749,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -5717,8 +5764,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="86"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -5732,7 +5779,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -5747,7 +5794,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -5762,15 +5809,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="89" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="89" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="6"/>
@@ -5783,11 +5830,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="85"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="85"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -5798,11 +5845,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="86"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -5813,7 +5860,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="94"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -5828,7 +5875,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -5843,7 +5890,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="95"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -5858,16 +5905,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -5881,10 +5928,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="79"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -5896,10 +5943,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -5912,11 +5959,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="77" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="86" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -5931,9 +5978,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="73"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="82"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -5946,9 +5993,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="74"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="83"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -6086,19 +6133,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
@@ -6123,11 +6170,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
@@ -6199,10 +6246,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="89" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -6218,8 +6265,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -6233,8 +6280,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -6248,8 +6295,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="86"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -6263,7 +6310,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -6278,7 +6325,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -6293,15 +6340,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="89" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="6"/>
@@ -6314,11 +6361,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="85"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="85"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -6329,11 +6376,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="86"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -6344,7 +6391,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="94"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -6359,7 +6406,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -6374,7 +6421,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="95"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -6389,16 +6436,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -6412,10 +6459,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="79"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -6427,10 +6474,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -6443,11 +6490,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="77" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="86" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -6462,9 +6509,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="73"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="82"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -6477,9 +6524,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="74"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="83"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -6608,19 +6655,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
@@ -6645,11 +6692,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
@@ -6721,10 +6768,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="89" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -6740,8 +6787,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="91"/>
-      <c r="C8" s="85"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -6755,8 +6802,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="85"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -6770,8 +6817,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="86"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -6785,7 +6832,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -6800,7 +6847,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="92"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -6815,15 +6862,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="89" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="89" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="6"/>
@@ -6836,11 +6883,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="94"/>
-      <c r="C14" s="85"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="85"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -6851,11 +6898,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="94"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="86"/>
+      <c r="F15" s="91"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -6866,7 +6913,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="94"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -6881,7 +6928,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -6896,7 +6943,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="95"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -6911,16 +6958,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="83" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -6934,10 +6981,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="79"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -6949,10 +6996,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="80"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -6965,11 +7012,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="77" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="86" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -6984,9 +7031,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="73"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="82"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -6999,9 +7046,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="74"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="83"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7130,19 +7177,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -7167,11 +7214,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -7243,10 +7290,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7262,8 +7309,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="106"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7277,8 +7324,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="106"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7292,8 +7339,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7307,7 +7354,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7322,7 +7369,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="104"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7337,15 +7384,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7358,11 +7405,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="106"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -7373,11 +7420,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="107"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -7388,7 +7435,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="109"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7403,7 +7450,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="109"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7418,7 +7465,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="110"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7433,16 +7480,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="117" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7456,10 +7503,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="118"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7471,10 +7518,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="119"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -7487,11 +7534,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="126" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -7506,9 +7553,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="124"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="127"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7521,9 +7568,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="125"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="128"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7652,19 +7699,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -7689,11 +7736,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -7765,10 +7812,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7784,8 +7831,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="106"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7799,8 +7846,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="106"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7814,8 +7861,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7829,7 +7876,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7844,7 +7891,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="104"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7859,15 +7906,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7880,11 +7927,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="106"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -7895,11 +7942,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="107"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -7910,7 +7957,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="109"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7925,7 +7972,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="109"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7940,7 +7987,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="110"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7955,16 +8002,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="117" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7978,10 +8025,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="118"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7993,10 +8040,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="119"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8009,11 +8056,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="126" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8028,9 +8075,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="124"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="127"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8043,9 +8090,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="125"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="128"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8174,19 +8221,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -8211,11 +8258,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -8287,10 +8334,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8306,8 +8353,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="106"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8321,8 +8368,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="106"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8336,8 +8383,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8351,7 +8398,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8366,7 +8413,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="104"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8381,15 +8428,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8402,11 +8449,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="106"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8417,11 +8464,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="107"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8432,7 +8479,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="109"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8447,7 +8494,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="109"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8462,7 +8509,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="110"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8477,16 +8524,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="117" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8500,10 +8547,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="118"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8515,10 +8562,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="119"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8531,11 +8578,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="126" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8550,9 +8597,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="124"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="127"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8565,9 +8612,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="125"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="128"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8696,19 +8743,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -8733,11 +8780,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -8809,10 +8856,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="110" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8828,8 +8875,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="103"/>
-      <c r="C8" s="106"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8843,8 +8890,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="103"/>
-      <c r="C9" s="106"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="111"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8858,8 +8905,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="112"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8873,7 +8920,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="103"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8888,7 +8935,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="104"/>
+      <c r="B12" s="109"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8903,15 +8950,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="111" t="s">
+      <c r="C13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="105" t="s">
+      <c r="F13" s="110" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8924,11 +8971,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="112"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="117"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="106"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8939,11 +8986,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="109"/>
-      <c r="C15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="118"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="107"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8954,7 +9001,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="109"/>
+      <c r="B16" s="114"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8969,7 +9016,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="109"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8984,7 +9031,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="110"/>
+      <c r="B18" s="115"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8999,16 +9046,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="114" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="117" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -9022,10 +9069,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="118"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -9037,10 +9084,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="116"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="122"/>
-      <c r="E21" s="119"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -9053,11 +9100,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="123" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="126" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -9072,9 +9119,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="124"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="127"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -9087,9 +9134,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="125"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="128"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>

--- a/term_1/Assignment_Planner.xlsx
+++ b/term_1/Assignment_Planner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\GitHub\UBCO_21-22\term_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\UBCO_21-22\term_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05B1207-473F-4837-953B-1029DD5B2D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8C91EE-869F-48B2-AAF3-AEA47A86A0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1800" windowWidth="14400" windowHeight="7495" activeTab="1" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="34">
   <si>
     <t>Monday</t>
   </si>
@@ -141,18 +141,6 @@
   </si>
   <si>
     <t>09/20-09/26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quiz 1 (Love in Excess I) </t>
-  </si>
-  <si>
-    <t>ENGL 379 (in person)</t>
-  </si>
-  <si>
-    <t>ENGL 338 (in Person)- Lowell Poems</t>
-  </si>
-  <si>
-    <t>ENGL 338 (in person) Plath Poems</t>
   </si>
 </sst>
 </file>
@@ -685,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,51 +894,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -996,11 +939,50 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,23 +1314,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142951BD-74E4-471E-868A-88909E17C9B2}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="60" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="26.40625" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="19.1328125" customWidth="1"/>
-    <col min="7" max="7" width="12.86328125" customWidth="1"/>
-    <col min="9" max="9" width="13.40625" style="68" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -1363,7 +1345,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -1395,7 +1377,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="3" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -1419,7 +1401,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="30.25" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -1443,7 +1425,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -1467,7 +1449,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="30.25" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -1491,7 +1473,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="30.25" x14ac:dyDescent="0.9">
+    <row r="7" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
@@ -1519,7 +1501,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
@@ -1537,7 +1519,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
@@ -1552,7 +1534,7 @@
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
@@ -1567,7 +1549,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
@@ -1582,7 +1564,7 @@
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
@@ -1597,7 +1579,7 @@
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
@@ -1618,7 +1600,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
@@ -1633,7 +1615,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
@@ -1648,7 +1630,7 @@
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
@@ -1663,7 +1645,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
@@ -1678,7 +1660,7 @@
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
@@ -1693,7 +1675,7 @@
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
@@ -1716,7 +1698,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
@@ -1731,7 +1713,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
@@ -1746,7 +1728,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
@@ -1765,7 +1747,7 @@
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
@@ -1780,7 +1762,7 @@
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
@@ -1795,7 +1777,7 @@
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -1810,7 +1792,7 @@
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -1825,7 +1807,7 @@
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -1840,7 +1822,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -1855,7 +1837,7 @@
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -1870,7 +1852,7 @@
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -1915,9 +1897,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -1932,7 +1914,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -1955,13 +1937,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -1982,7 +1964,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -1997,7 +1979,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -2012,7 +1994,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -2027,14 +2009,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2046,12 +2028,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2061,12 +2043,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2076,12 +2058,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2091,11 +2073,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2106,11 +2088,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2121,19 +2103,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2142,41 +2124,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2187,11 +2169,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2202,11 +2184,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2217,20 +2199,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2240,14 +2222,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2255,14 +2237,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2270,16 +2252,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2289,14 +2271,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2304,14 +2286,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2319,7 +2301,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -2334,7 +2316,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -2349,7 +2331,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -2364,7 +2346,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -2379,7 +2361,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -2394,7 +2376,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -2411,12 +2393,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2424,6 +2400,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2437,9 +2419,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -2454,7 +2436,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -2477,13 +2459,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -2504,7 +2486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -2519,7 +2501,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -2534,7 +2516,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -2549,14 +2531,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2568,12 +2550,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2583,12 +2565,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2598,12 +2580,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2613,11 +2595,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2628,11 +2610,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2643,19 +2625,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2664,41 +2646,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2709,11 +2691,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2724,11 +2706,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2739,20 +2721,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2762,14 +2744,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2777,14 +2759,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2792,16 +2774,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2811,14 +2793,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2826,14 +2808,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2841,7 +2823,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -2856,7 +2838,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -2871,7 +2853,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -2886,7 +2868,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -2901,7 +2883,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -2916,7 +2898,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -2933,12 +2915,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2946,6 +2922,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2959,9 +2941,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -2976,7 +2958,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -2999,13 +2981,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -3026,7 +3008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -3041,7 +3023,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -3056,7 +3038,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -3071,14 +3053,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3090,12 +3072,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3105,12 +3087,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3120,12 +3102,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3135,11 +3117,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3150,11 +3132,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3165,19 +3147,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3186,41 +3168,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3231,11 +3213,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3246,11 +3228,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3261,20 +3243,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3284,14 +3266,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3299,14 +3281,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3314,16 +3296,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3333,14 +3315,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3348,14 +3330,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3363,7 +3345,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -3378,7 +3360,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -3393,7 +3375,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -3408,7 +3390,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -3423,7 +3405,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -3438,7 +3420,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -3455,12 +3437,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3468,6 +3444,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3481,9 +3463,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -3498,7 +3480,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -3521,13 +3503,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -3548,7 +3530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -3563,7 +3545,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -3578,7 +3560,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -3593,14 +3575,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3612,12 +3594,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3627,12 +3609,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3642,12 +3624,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3657,11 +3639,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3672,11 +3654,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3687,19 +3669,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3708,41 +3690,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3753,11 +3735,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3768,11 +3750,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3783,20 +3765,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3806,14 +3788,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3821,14 +3803,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3836,16 +3818,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3855,14 +3837,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3870,14 +3852,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3885,7 +3867,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -3900,7 +3882,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -3915,7 +3897,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -3930,7 +3912,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -3945,7 +3927,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -3960,7 +3942,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -3977,12 +3959,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3990,6 +3966,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4003,9 +3985,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -4020,7 +4002,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -4043,13 +4025,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -4070,7 +4052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -4085,7 +4067,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -4100,7 +4082,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -4115,14 +4097,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4134,12 +4116,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4149,12 +4131,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4164,12 +4146,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4179,11 +4161,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4194,11 +4176,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4209,19 +4191,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4230,41 +4212,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4275,11 +4257,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4290,11 +4272,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4305,20 +4287,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4328,14 +4310,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4343,14 +4325,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4358,16 +4340,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4377,14 +4359,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4392,14 +4374,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4407,7 +4389,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -4422,7 +4404,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -4437,7 +4419,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -4452,7 +4434,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -4467,7 +4449,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -4482,7 +4464,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -4499,12 +4481,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4512,6 +4488,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4525,9 +4507,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -4542,7 +4524,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -4565,13 +4547,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -4592,7 +4574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -4607,7 +4589,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -4622,7 +4604,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -4637,14 +4619,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4656,12 +4638,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4671,12 +4653,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4686,12 +4668,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4701,11 +4683,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4716,11 +4698,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4731,19 +4713,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4752,41 +4734,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4797,11 +4779,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4812,11 +4794,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4827,20 +4809,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4850,14 +4832,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4865,14 +4847,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4880,16 +4862,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4899,14 +4881,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4914,14 +4896,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4929,7 +4911,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -4944,7 +4926,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -4959,7 +4941,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -4974,7 +4956,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -4989,7 +4971,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -5004,7 +4986,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -5021,12 +5003,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5034,6 +5010,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5043,22 +5025,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B3B8CC-D153-431F-BDAD-4E080E0238A8}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="77" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="24.1328125" customWidth="1"/>
-    <col min="3" max="3" width="20.1328125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.1328125" customWidth="1"/>
-    <col min="9" max="9" width="18.86328125" style="68" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>31</v>
       </c>
@@ -5073,7 +5053,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -5102,7 +5082,7 @@
       <c r="J2" s="93"/>
       <c r="K2" s="94"/>
     </row>
-    <row r="3" spans="1:11" ht="31" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -5113,7 +5093,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="5"/>
       <c r="H3" s="61"/>
-      <c r="I3" s="134" t="s">
+      <c r="I3" s="62" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="59" t="s">
@@ -5123,7 +5103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -5134,7 +5114,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="6"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="135" t="s">
+      <c r="I4" s="35" t="s">
         <v>32</v>
       </c>
       <c r="J4" s="39" t="s">
@@ -5144,7 +5124,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -5155,17 +5135,11 @@
       <c r="F5" s="3"/>
       <c r="G5" s="6"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="69">
-        <v>44455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+      <c r="I5" s="36"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -5176,11 +5150,11 @@
       <c r="F6" s="48"/>
       <c r="G6" s="6"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="65"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="40"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
@@ -5195,11 +5169,11 @@
       <c r="F7" s="53"/>
       <c r="G7" s="6"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="65"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="40"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
@@ -5210,11 +5184,11 @@
       <c r="F8" s="53"/>
       <c r="G8" s="6"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="65"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
@@ -5225,11 +5199,11 @@
       <c r="F9" s="53"/>
       <c r="G9" s="6"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="66"/>
+      <c r="I9" s="37"/>
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
@@ -5240,11 +5214,11 @@
       <c r="F10" s="53"/>
       <c r="G10" s="6"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="66"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
@@ -5255,11 +5229,11 @@
       <c r="F11" s="53"/>
       <c r="G11" s="6"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="66"/>
+      <c r="I11" s="37"/>
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
@@ -5270,16 +5244,16 @@
       <c r="F12" s="57"/>
       <c r="G12" s="6"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="66"/>
+      <c r="I12" s="37"/>
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C13" s="89" t="s">
         <v>21</v>
@@ -5291,11 +5265,11 @@
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="66"/>
+      <c r="I13" s="37"/>
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
@@ -5306,11 +5280,11 @@
       <c r="F14" s="90"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="66"/>
+      <c r="I14" s="37"/>
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
@@ -5321,11 +5295,11 @@
       <c r="F15" s="91"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="66"/>
+      <c r="I15" s="37"/>
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
@@ -5336,11 +5310,11 @@
       <c r="F16" s="58"/>
       <c r="G16" s="6"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="66"/>
+      <c r="I16" s="37"/>
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
@@ -5351,11 +5325,11 @@
       <c r="F17" s="53"/>
       <c r="G17" s="6"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="66"/>
+      <c r="I17" s="37"/>
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
@@ -5366,22 +5340,22 @@
       <c r="F18" s="53"/>
       <c r="G18" s="6"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="66"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
       <c r="B19" s="101" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C19" s="83" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E19" s="83" t="s">
         <v>12</v>
@@ -5389,11 +5363,11 @@
       <c r="F19" s="53"/>
       <c r="G19" s="6"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="66"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
@@ -5404,11 +5378,11 @@
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="66"/>
+      <c r="I20" s="37"/>
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
@@ -5419,11 +5393,11 @@
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="66"/>
+      <c r="I21" s="37"/>
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
@@ -5438,11 +5412,11 @@
       <c r="F22" s="53"/>
       <c r="G22" s="6"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="66"/>
+      <c r="I22" s="37"/>
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
@@ -5453,11 +5427,11 @@
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="66"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
@@ -5468,11 +5442,11 @@
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="66"/>
+      <c r="I24" s="37"/>
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -5483,11 +5457,11 @@
       <c r="F25" s="53"/>
       <c r="G25" s="6"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="66"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -5498,11 +5472,11 @@
       <c r="F26" s="3"/>
       <c r="G26" s="6"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="66"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -5513,11 +5487,11 @@
       <c r="F27" s="3"/>
       <c r="G27" s="6"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="66"/>
+      <c r="I27" s="37"/>
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -5528,11 +5502,11 @@
       <c r="F28" s="3"/>
       <c r="G28" s="6"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="66"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -5543,11 +5517,11 @@
       <c r="F29" s="3"/>
       <c r="G29" s="6"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="66"/>
+      <c r="I29" s="37"/>
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -5558,18 +5532,12 @@
       <c r="F30" s="17"/>
       <c r="G30" s="18"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="67"/>
+      <c r="I30" s="38"/>
       <c r="J30" s="42"/>
       <c r="K30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5577,6 +5545,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5590,18 +5564,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.40625" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="33.7265625" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
-    <col min="5" max="5" width="21.86328125" customWidth="1"/>
-    <col min="6" max="6" width="30.86328125" customWidth="1"/>
-    <col min="8" max="8" width="22.54296875" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>33</v>
       </c>
@@ -5616,7 +5590,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -5645,7 +5619,7 @@
       <c r="J2" s="93"/>
       <c r="K2" s="94"/>
     </row>
-    <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -5666,7 +5640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -5681,7 +5655,7 @@
       <c r="J4" s="39"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -5696,7 +5670,7 @@
       <c r="J5" s="40"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -5711,7 +5685,7 @@
       <c r="J6" s="40"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
@@ -5730,7 +5704,7 @@
       <c r="J7" s="40"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
@@ -5745,7 +5719,7 @@
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
@@ -5760,7 +5734,7 @@
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
@@ -5775,7 +5749,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
@@ -5790,7 +5764,7 @@
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
@@ -5805,7 +5779,7 @@
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
@@ -5826,7 +5800,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
@@ -5841,7 +5815,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
@@ -5856,7 +5830,7 @@
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
@@ -5871,7 +5845,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
@@ -5886,7 +5860,7 @@
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
@@ -5901,7 +5875,7 @@
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
@@ -5924,7 +5898,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
@@ -5939,7 +5913,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
@@ -5954,7 +5928,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
@@ -5973,7 +5947,7 @@
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
@@ -5988,7 +5962,7 @@
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
@@ -6003,7 +5977,7 @@
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -6018,7 +5992,7 @@
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -6033,7 +6007,7 @@
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -6048,7 +6022,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -6063,7 +6037,7 @@
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -6078,7 +6052,7 @@
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -6095,12 +6069,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6108,6 +6076,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6121,18 +6095,18 @@
       <selection activeCell="K30" sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19.7265625" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" customWidth="1"/>
-    <col min="6" max="6" width="17.86328125" customWidth="1"/>
-    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -6147,7 +6121,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -6176,7 +6150,7 @@
       <c r="J2" s="93"/>
       <c r="K2" s="94"/>
     </row>
-    <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -6197,7 +6171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -6212,7 +6186,7 @@
       <c r="J4" s="39"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -6227,7 +6201,7 @@
       <c r="J5" s="40"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -6242,7 +6216,7 @@
       <c r="J6" s="40"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
@@ -6261,7 +6235,7 @@
       <c r="J7" s="40"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
@@ -6276,7 +6250,7 @@
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
@@ -6291,7 +6265,7 @@
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
@@ -6306,7 +6280,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
@@ -6321,7 +6295,7 @@
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
@@ -6336,7 +6310,7 @@
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
@@ -6357,7 +6331,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
@@ -6372,7 +6346,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
@@ -6387,7 +6361,7 @@
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
@@ -6402,7 +6376,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
@@ -6417,7 +6391,7 @@
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
@@ -6432,7 +6406,7 @@
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
@@ -6455,7 +6429,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
@@ -6470,7 +6444,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
@@ -6485,7 +6459,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
@@ -6504,7 +6478,7 @@
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
@@ -6519,7 +6493,7 @@
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
@@ -6534,7 +6508,7 @@
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -6549,7 +6523,7 @@
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -6564,7 +6538,7 @@
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -6579,7 +6553,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -6594,7 +6568,7 @@
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -6609,7 +6583,7 @@
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -6626,12 +6600,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6639,6 +6607,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6652,9 +6626,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -6669,7 +6643,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -6698,7 +6672,7 @@
       <c r="J2" s="93"/>
       <c r="K2" s="94"/>
     </row>
-    <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -6719,7 +6693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -6734,7 +6708,7 @@
       <c r="J4" s="39"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -6749,7 +6723,7 @@
       <c r="J5" s="40"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -6764,7 +6738,7 @@
       <c r="J6" s="40"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
@@ -6783,7 +6757,7 @@
       <c r="J7" s="40"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
@@ -6798,7 +6772,7 @@
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
@@ -6813,7 +6787,7 @@
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
@@ -6828,7 +6802,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
@@ -6843,7 +6817,7 @@
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
@@ -6858,7 +6832,7 @@
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
@@ -6879,7 +6853,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
@@ -6894,7 +6868,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
@@ -6909,7 +6883,7 @@
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
@@ -6924,7 +6898,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
@@ -6939,7 +6913,7 @@
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
@@ -6954,7 +6928,7 @@
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
@@ -6977,7 +6951,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
@@ -6992,7 +6966,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
@@ -7007,7 +6981,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
@@ -7026,7 +7000,7 @@
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
@@ -7041,7 +7015,7 @@
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
@@ -7056,7 +7030,7 @@
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -7071,7 +7045,7 @@
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -7086,7 +7060,7 @@
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -7101,7 +7075,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -7116,7 +7090,7 @@
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -7131,7 +7105,7 @@
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -7148,12 +7122,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7161,6 +7129,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7174,9 +7148,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -7191,7 +7165,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -7214,13 +7188,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -7241,7 +7215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -7256,7 +7230,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -7271,7 +7245,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -7286,14 +7260,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7305,12 +7279,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7320,12 +7294,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7335,12 +7309,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7350,11 +7324,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7365,11 +7339,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7380,19 +7354,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7401,41 +7375,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7446,11 +7420,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7461,11 +7435,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7476,20 +7450,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7499,14 +7473,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7514,14 +7488,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -7529,16 +7503,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -7548,14 +7522,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7563,14 +7537,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7578,7 +7552,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -7593,7 +7567,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -7608,7 +7582,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -7623,7 +7597,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -7638,7 +7612,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -7653,7 +7627,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -7670,12 +7644,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7683,6 +7651,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7696,9 +7670,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -7713,7 +7687,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -7736,13 +7710,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -7763,7 +7737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -7778,7 +7752,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -7793,7 +7767,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -7808,14 +7782,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7827,12 +7801,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7842,12 +7816,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7857,12 +7831,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7872,11 +7846,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7887,11 +7861,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7902,19 +7876,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7923,41 +7897,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7968,11 +7942,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7983,11 +7957,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7998,20 +7972,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8021,14 +7995,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8036,14 +8010,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8051,16 +8025,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8070,14 +8044,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8085,14 +8059,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8100,7 +8074,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -8115,7 +8089,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -8130,7 +8104,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -8145,7 +8119,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -8160,7 +8134,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -8175,7 +8149,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -8192,12 +8166,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8205,6 +8173,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8218,9 +8192,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -8235,7 +8209,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -8258,13 +8232,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -8285,7 +8259,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -8300,7 +8274,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -8315,7 +8289,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -8330,14 +8304,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8349,12 +8323,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8364,12 +8338,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8379,12 +8353,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8394,11 +8368,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8409,11 +8383,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8424,19 +8398,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8445,41 +8419,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8490,11 +8464,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8505,11 +8479,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8520,20 +8494,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8543,14 +8517,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8558,14 +8532,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8573,16 +8547,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8592,14 +8566,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8607,14 +8581,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8622,7 +8596,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -8637,7 +8611,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -8652,7 +8626,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -8667,7 +8641,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -8682,7 +8656,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -8697,7 +8671,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -8714,12 +8688,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8727,6 +8695,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8740,9 +8714,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>18</v>
       </c>
@@ -8757,7 +8731,7 @@
       <c r="J1" s="76"/>
       <c r="K1" s="76"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -8780,13 +8754,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="J2" s="120"/>
+      <c r="K2" s="121"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -8807,7 +8781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -8822,7 +8796,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -8837,7 +8811,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -8852,14 +8826,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="125" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8871,12 +8845,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="108"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="126"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8886,12 +8860,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8901,12 +8875,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="112"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8916,11 +8890,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8931,11 +8905,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="109"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8946,19 +8920,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="113" t="s">
+      <c r="B13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="131" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="110" t="s">
+      <c r="F13" s="125" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8967,41 +8941,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="132"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="111"/>
+      <c r="F14" s="126"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="114"/>
-      <c r="C15" s="118"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="112"/>
+      <c r="F15" s="127"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="114"/>
+      <c r="B16" s="129"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -9012,11 +8986,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="114"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -9027,11 +9001,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="115"/>
+      <c r="B18" s="130"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -9042,20 +9016,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="107" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -9065,14 +9039,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -9080,14 +9054,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="106"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -9095,16 +9069,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="113" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="116" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -9114,14 +9088,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="114"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="117"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -9129,14 +9103,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -9144,7 +9118,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -9159,7 +9133,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -9174,7 +9148,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -9189,7 +9163,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -9204,7 +9178,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -9219,7 +9193,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -9236,12 +9210,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -9249,6 +9217,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/term_1/Assignment_Planner.xlsx
+++ b/term_1/Assignment_Planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\UBCO_21-22\term_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8C91EE-869F-48B2-AAF3-AEA47A86A0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BEE665-C247-4F72-8721-C4B836C3220F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +286,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -788,9 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -982,6 +985,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1314,7 +1326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142951BD-74E4-471E-868A-88909E17C9B2}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -1331,19 +1343,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -1368,11 +1380,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1412,13 +1424,13 @@
       <c r="F4" s="3"/>
       <c r="G4" s="6"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="75">
+      <c r="K4" s="74">
         <v>44450</v>
       </c>
       <c r="L4" s="1"/>
@@ -1436,13 +1448,13 @@
       <c r="F5" s="3"/>
       <c r="G5" s="6"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="65" t="s">
+      <c r="I5" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="69">
+      <c r="K5" s="135">
         <v>44456</v>
       </c>
       <c r="L5" s="1"/>
@@ -1460,14 +1472,14 @@
       <c r="F6" s="48"/>
       <c r="G6" s="6"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="133" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="69">
-        <v>44456</v>
+      <c r="K6" s="135">
+        <v>44452</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1477,10 +1489,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -1488,13 +1500,13 @@
       <c r="F7" s="53"/>
       <c r="G7" s="6"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="70" t="s">
+      <c r="I7" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="71" t="s">
+      <c r="J7" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="72">
+      <c r="K7" s="71">
         <v>44449</v>
       </c>
       <c r="L7" s="1"/>
@@ -1505,8 +1517,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -1523,8 +1535,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="90"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -1538,8 +1550,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="91"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -1553,7 +1565,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="96"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -1568,7 +1580,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="97"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -1583,15 +1595,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="88" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="88" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="6"/>
@@ -1604,11 +1616,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="90"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="90"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="66"/>
@@ -1619,11 +1631,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="91"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="66"/>
@@ -1634,7 +1646,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="99"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -1649,7 +1661,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="99"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -1664,7 +1676,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="100"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -1679,16 +1691,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="82" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -1702,10 +1714,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="84"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -1717,10 +1729,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="85"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -1733,11 +1745,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="76" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="85" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -1752,9 +1764,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="78"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="87"/>
+      <c r="E23" s="86"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -1767,9 +1779,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="79"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="88"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -1900,19 +1912,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -1937,11 +1949,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -2013,10 +2025,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="124" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2032,8 +2044,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2047,8 +2059,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2062,8 +2074,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2077,7 +2089,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2092,7 +2104,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2107,15 +2119,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="124" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2128,11 +2140,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2143,11 +2155,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2158,7 +2170,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2173,7 +2185,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2188,7 +2200,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2203,16 +2215,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="106" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2226,10 +2238,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2241,10 +2253,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2257,11 +2269,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="112" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="115" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2276,9 +2288,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2291,9 +2303,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2422,19 +2434,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -2459,11 +2471,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -2535,10 +2547,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="124" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2554,8 +2566,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2569,8 +2581,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2584,8 +2596,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2599,7 +2611,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2614,7 +2626,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2629,15 +2641,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="124" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2650,11 +2662,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2665,11 +2677,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2680,7 +2692,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2695,7 +2707,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2710,7 +2722,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2725,16 +2737,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="106" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2748,10 +2760,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2763,10 +2775,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2779,11 +2791,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="112" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="115" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2798,9 +2810,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2813,9 +2825,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2944,19 +2956,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -2981,11 +2993,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -3057,10 +3069,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="124" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3076,8 +3088,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3091,8 +3103,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3106,8 +3118,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3121,7 +3133,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3136,7 +3148,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3151,15 +3163,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="124" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3172,11 +3184,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3187,11 +3199,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3202,7 +3214,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3217,7 +3229,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3232,7 +3244,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3247,16 +3259,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="106" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3270,10 +3282,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3285,10 +3297,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3301,11 +3313,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="112" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="115" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3320,9 +3332,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3335,9 +3347,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3466,19 +3478,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -3503,11 +3515,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -3579,10 +3591,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="124" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3598,8 +3610,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3613,8 +3625,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3628,8 +3640,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3643,7 +3655,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3658,7 +3670,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3673,15 +3685,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="124" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3694,11 +3706,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3709,11 +3721,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3724,7 +3736,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3739,7 +3751,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3754,7 +3766,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3769,16 +3781,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="106" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3792,10 +3804,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3807,10 +3819,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3823,11 +3835,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="112" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="115" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3842,9 +3854,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3857,9 +3869,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3988,19 +4000,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -4025,11 +4037,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -4101,10 +4113,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="124" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4120,8 +4132,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4135,8 +4147,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4150,8 +4162,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4165,7 +4177,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4180,7 +4192,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4195,15 +4207,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="124" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4216,11 +4228,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4231,11 +4243,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4246,7 +4258,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4261,7 +4273,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4276,7 +4288,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4291,16 +4303,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="106" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4314,10 +4326,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4329,10 +4341,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4345,11 +4357,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="112" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="115" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4364,9 +4376,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4379,9 +4391,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4510,19 +4522,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -4547,11 +4559,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -4623,10 +4635,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="124" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4642,8 +4654,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4657,8 +4669,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4672,8 +4684,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4687,7 +4699,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4702,7 +4714,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4717,15 +4729,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="124" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4738,11 +4750,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4753,11 +4765,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4768,7 +4780,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4783,7 +4795,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4798,7 +4810,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4813,16 +4825,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="106" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4836,10 +4848,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4851,10 +4863,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4867,11 +4879,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="112" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="115" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4886,9 +4898,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4901,9 +4913,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5025,7 +5037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B3B8CC-D153-431F-BDAD-4E080E0238A8}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -5039,19 +5051,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -5076,11 +5088,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -5158,10 +5170,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -5177,8 +5189,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -5192,8 +5204,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="90"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -5207,8 +5219,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="91"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -5222,7 +5234,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="96"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -5237,7 +5249,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="97"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -5252,15 +5264,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="88" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="88" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="6"/>
@@ -5273,11 +5285,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="90"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="90"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -5288,11 +5300,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="91"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -5303,7 +5315,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="99"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -5318,7 +5330,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="99"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -5333,7 +5345,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="100"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -5348,16 +5360,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="82" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -5371,10 +5383,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="84"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -5386,10 +5398,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="85"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -5402,11 +5414,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="76" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="85" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -5421,9 +5433,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="78"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="87"/>
+      <c r="E23" s="86"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -5436,9 +5448,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="79"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="88"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5576,19 +5588,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -5613,11 +5625,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -5689,10 +5701,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -5708,8 +5720,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -5723,8 +5735,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="90"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -5738,8 +5750,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="91"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -5753,7 +5765,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="96"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -5768,7 +5780,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="97"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -5783,15 +5795,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="88" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="88" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="6"/>
@@ -5804,11 +5816,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="90"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="90"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -5819,11 +5831,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="91"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -5834,7 +5846,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="99"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -5849,7 +5861,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="99"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -5864,7 +5876,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="100"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -5879,16 +5891,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="82" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -5902,10 +5914,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="84"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -5917,10 +5929,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="85"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -5933,11 +5945,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="76" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="85" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -5952,9 +5964,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="78"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="87"/>
+      <c r="E23" s="86"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -5967,9 +5979,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="79"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="88"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -6107,19 +6119,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -6144,11 +6156,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -6220,10 +6232,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -6239,8 +6251,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -6254,8 +6266,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="90"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -6269,8 +6281,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="91"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -6284,7 +6296,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="96"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -6299,7 +6311,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="97"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -6314,15 +6326,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="88" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="88" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="6"/>
@@ -6335,11 +6347,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="90"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="90"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -6350,11 +6362,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="91"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -6365,7 +6377,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="99"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -6380,7 +6392,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="99"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -6395,7 +6407,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="100"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -6410,16 +6422,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="82" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -6433,10 +6445,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="84"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -6448,10 +6460,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="85"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -6464,11 +6476,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="76" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="85" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -6483,9 +6495,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="78"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="87"/>
+      <c r="E23" s="86"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -6498,9 +6510,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="79"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="88"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -6629,19 +6641,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -6666,11 +6678,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="94"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -6742,10 +6754,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="88" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -6761,8 +6773,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="90"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="89"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -6776,8 +6788,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="90"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -6791,8 +6803,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="91"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -6806,7 +6818,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="96"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -6821,7 +6833,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="97"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -6836,15 +6848,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="98" t="s">
+      <c r="B13" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="88" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="88" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="6"/>
@@ -6857,11 +6869,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="90"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="90"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -6872,11 +6884,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="99"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="91"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -6887,7 +6899,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="99"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -6902,7 +6914,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="99"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -6917,7 +6929,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="100"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -6932,16 +6944,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="82" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -6955,10 +6967,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="84"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -6970,10 +6982,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="85"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -6986,11 +6998,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="76" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="85" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -7005,9 +7017,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="78"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="87"/>
+      <c r="E23" s="86"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7020,9 +7032,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="79"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="88"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7151,19 +7163,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -7188,11 +7200,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -7264,10 +7276,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="124" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7283,8 +7295,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7298,8 +7310,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7313,8 +7325,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7328,7 +7340,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7343,7 +7355,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7358,15 +7370,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="124" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7379,11 +7391,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -7394,11 +7406,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -7409,7 +7421,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7424,7 +7436,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7439,7 +7451,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7454,16 +7466,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="106" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7477,10 +7489,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7492,10 +7504,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -7508,11 +7520,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="112" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="115" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -7527,9 +7539,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7542,9 +7554,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7673,19 +7685,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -7710,11 +7722,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -7786,10 +7798,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="124" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7805,8 +7817,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7820,8 +7832,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7835,8 +7847,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7850,7 +7862,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7865,7 +7877,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7880,15 +7892,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="124" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7901,11 +7913,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -7916,11 +7928,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -7931,7 +7943,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7946,7 +7958,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7961,7 +7973,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7976,16 +7988,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="106" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7999,10 +8011,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8014,10 +8026,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8030,11 +8042,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="112" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="115" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8049,9 +8061,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8064,9 +8076,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8195,19 +8207,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -8232,11 +8244,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -8308,10 +8320,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="124" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8327,8 +8339,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8342,8 +8354,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8357,8 +8369,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8372,7 +8384,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8387,7 +8399,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8402,15 +8414,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="124" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8423,11 +8435,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8438,11 +8450,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8453,7 +8465,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8468,7 +8480,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8483,7 +8495,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8498,16 +8510,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="106" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8521,10 +8533,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8536,10 +8548,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8552,11 +8564,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="112" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="115" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8571,9 +8583,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8586,9 +8598,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8717,19 +8729,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -8754,11 +8766,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="119" t="s">
+      <c r="I2" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -8830,10 +8842,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="125" t="s">
+      <c r="C7" s="124" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8849,8 +8861,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8864,8 +8876,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="123"/>
-      <c r="C9" s="126"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8879,8 +8891,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="127"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="126"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8894,7 +8906,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="123"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8909,7 +8921,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="124"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8924,15 +8936,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="124" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8945,11 +8957,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="132"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="131"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="126"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8960,11 +8972,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="133"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="132"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="127"/>
+      <c r="F15" s="126"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8975,7 +8987,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="129"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8990,7 +9002,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="129"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -9005,7 +9017,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="130"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -9020,16 +9032,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="106" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -9043,10 +9055,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="108"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="107"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -9058,10 +9070,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="106"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="109"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -9074,11 +9086,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="112" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="116" t="s">
+      <c r="E22" s="115" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -9093,9 +9105,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="114"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="117"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -9108,9 +9120,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="115"/>
+      <c r="C24" s="114"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="118"/>
+      <c r="E24" s="117"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>

--- a/term_1/Assignment_Planner.xlsx
+++ b/term_1/Assignment_Planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\UBCO_21-22\term_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BEE665-C247-4F72-8721-C4B836C3220F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9AA110-6C57-43C9-9552-60ED6548B66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -813,6 +813,15 @@
     <xf numFmtId="16" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -897,51 +906,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -987,14 +951,50 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1326,7 +1326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142951BD-74E4-471E-868A-88909E17C9B2}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -1343,19 +1343,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -1380,11 +1380,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1448,13 +1448,13 @@
       <c r="F5" s="3"/>
       <c r="G5" s="6"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="133" t="s">
+      <c r="I5" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="134" t="s">
+      <c r="J5" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="135">
+      <c r="K5" s="77">
         <v>44456</v>
       </c>
       <c r="L5" s="1"/>
@@ -1472,13 +1472,13 @@
       <c r="F6" s="48"/>
       <c r="G6" s="6"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="133" t="s">
+      <c r="I6" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="134" t="s">
+      <c r="J6" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="135">
+      <c r="K6" s="77">
         <v>44452</v>
       </c>
       <c r="L6" s="1"/>
@@ -1489,10 +1489,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="91" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -1517,8 +1517,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="89"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -1535,8 +1535,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="89"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -1550,8 +1550,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="90"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -1565,7 +1565,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="95"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -1580,7 +1580,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="96"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -1595,15 +1595,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="91" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="91" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="6"/>
@@ -1616,11 +1616,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="89"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="89"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="66"/>
@@ -1631,11 +1631,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="90"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="90"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="66"/>
@@ -1646,7 +1646,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="98"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -1661,7 +1661,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="98"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -1676,7 +1676,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="99"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -1691,16 +1691,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="85" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -1714,10 +1714,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="83"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="86"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -1729,10 +1729,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="84"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="87"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -1745,11 +1745,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="79" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="85" t="s">
+      <c r="E22" s="88" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -1764,9 +1764,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="77"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="86"/>
+      <c r="E23" s="89"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -1779,9 +1779,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="78"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="87"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -1912,19 +1912,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -1949,11 +1949,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="118" t="s">
+      <c r="I2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -2025,10 +2025,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="112" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2044,8 +2044,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="125"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2059,8 +2059,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="125"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2074,8 +2074,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="126"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2089,7 +2089,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="122"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2104,7 +2104,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="123"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2119,15 +2119,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="118" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="124" t="s">
+      <c r="F13" s="112" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2140,11 +2140,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="125"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2155,11 +2155,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="132"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="126"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2170,7 +2170,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2185,7 +2185,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2200,7 +2200,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2215,16 +2215,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="124" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2238,10 +2238,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="107"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2253,10 +2253,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="108"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2269,11 +2269,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="130" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="133" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2288,9 +2288,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="113"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="116"/>
+      <c r="E23" s="134"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2303,9 +2303,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="114"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="117"/>
+      <c r="E24" s="135"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2405,6 +2405,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2412,12 +2418,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2434,19 +2434,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -2471,11 +2471,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="118" t="s">
+      <c r="I2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -2547,10 +2547,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="112" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2566,8 +2566,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="125"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2581,8 +2581,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="125"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2596,8 +2596,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="126"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2611,7 +2611,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="122"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2626,7 +2626,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="123"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2641,15 +2641,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="118" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="124" t="s">
+      <c r="F13" s="112" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2662,11 +2662,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="125"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2677,11 +2677,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="132"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="126"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2692,7 +2692,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2707,7 +2707,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2722,7 +2722,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2737,16 +2737,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="124" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2760,10 +2760,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="107"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2775,10 +2775,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="108"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2791,11 +2791,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="130" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="133" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2810,9 +2810,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="113"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="116"/>
+      <c r="E23" s="134"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2825,9 +2825,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="114"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="117"/>
+      <c r="E24" s="135"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2927,6 +2927,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2934,12 +2940,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2956,19 +2956,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -2993,11 +2993,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="118" t="s">
+      <c r="I2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -3069,10 +3069,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="112" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3088,8 +3088,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="125"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3103,8 +3103,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="125"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3118,8 +3118,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="126"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3133,7 +3133,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="122"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3148,7 +3148,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="123"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3163,15 +3163,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="118" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="124" t="s">
+      <c r="F13" s="112" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3184,11 +3184,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="125"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3199,11 +3199,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="132"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="126"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3214,7 +3214,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3229,7 +3229,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3244,7 +3244,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3259,16 +3259,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="124" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3282,10 +3282,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="107"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3297,10 +3297,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="108"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3313,11 +3313,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="130" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="133" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3332,9 +3332,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="113"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="116"/>
+      <c r="E23" s="134"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3347,9 +3347,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="114"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="117"/>
+      <c r="E24" s="135"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3449,6 +3449,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3456,12 +3462,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3478,19 +3478,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -3515,11 +3515,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="118" t="s">
+      <c r="I2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -3591,10 +3591,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="112" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3610,8 +3610,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="125"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3625,8 +3625,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="125"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3640,8 +3640,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="126"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3655,7 +3655,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="122"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3670,7 +3670,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="123"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3685,15 +3685,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="118" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="124" t="s">
+      <c r="F13" s="112" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3706,11 +3706,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="125"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3721,11 +3721,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="132"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="126"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3736,7 +3736,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3751,7 +3751,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3766,7 +3766,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3781,16 +3781,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="124" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3804,10 +3804,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="107"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3819,10 +3819,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="108"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3835,11 +3835,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="130" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="133" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3854,9 +3854,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="113"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="116"/>
+      <c r="E23" s="134"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3869,9 +3869,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="114"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="117"/>
+      <c r="E24" s="135"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3971,6 +3971,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3978,12 +3984,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4000,19 +4000,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -4037,11 +4037,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="118" t="s">
+      <c r="I2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -4113,10 +4113,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="112" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4132,8 +4132,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="125"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4147,8 +4147,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="125"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4162,8 +4162,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="126"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4177,7 +4177,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="122"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4192,7 +4192,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="123"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4207,15 +4207,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="118" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="124" t="s">
+      <c r="F13" s="112" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4228,11 +4228,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="125"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4243,11 +4243,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="132"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="126"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4258,7 +4258,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4273,7 +4273,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4288,7 +4288,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4303,16 +4303,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="124" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4326,10 +4326,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="107"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4341,10 +4341,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="108"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4357,11 +4357,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="130" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="133" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4376,9 +4376,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="113"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="116"/>
+      <c r="E23" s="134"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4391,9 +4391,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="114"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="117"/>
+      <c r="E24" s="135"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4493,6 +4493,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4500,12 +4506,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4522,19 +4522,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -4559,11 +4559,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="118" t="s">
+      <c r="I2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -4635,10 +4635,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="112" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4654,8 +4654,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="125"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4669,8 +4669,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="125"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4684,8 +4684,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="126"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4699,7 +4699,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="122"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4714,7 +4714,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="123"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4729,15 +4729,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="118" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="124" t="s">
+      <c r="F13" s="112" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4750,11 +4750,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="125"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4765,11 +4765,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="132"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="126"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4780,7 +4780,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4795,7 +4795,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4810,7 +4810,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4825,16 +4825,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="124" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4848,10 +4848,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="107"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4863,10 +4863,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="108"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4879,11 +4879,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="130" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="133" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4898,9 +4898,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="113"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="116"/>
+      <c r="E23" s="134"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4913,9 +4913,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="114"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="117"/>
+      <c r="E24" s="135"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5015,6 +5015,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5022,12 +5028,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5037,7 +5037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B3B8CC-D153-431F-BDAD-4E080E0238A8}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -5051,19 +5051,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -5088,11 +5088,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -5170,10 +5170,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="91" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -5189,8 +5189,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="89"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -5204,8 +5204,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="89"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -5219,8 +5219,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="90"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -5234,7 +5234,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="95"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -5249,7 +5249,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="96"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -5264,15 +5264,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="91" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="91" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="6"/>
@@ -5285,11 +5285,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="89"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="89"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -5300,11 +5300,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="90"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="90"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -5315,7 +5315,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="98"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -5330,7 +5330,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="98"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -5345,7 +5345,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="99"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -5360,16 +5360,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="85" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -5383,10 +5383,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="83"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="86"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -5398,10 +5398,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="84"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="87"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -5414,11 +5414,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="79" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="85" t="s">
+      <c r="E22" s="88" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -5433,9 +5433,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="77"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="86"/>
+      <c r="E23" s="89"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -5448,9 +5448,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="78"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="87"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5550,6 +5550,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5557,12 +5563,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5588,19 +5588,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -5625,11 +5625,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -5701,10 +5701,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="91" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -5720,8 +5720,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="89"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -5735,8 +5735,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="89"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -5750,8 +5750,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="90"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -5765,7 +5765,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="95"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -5780,7 +5780,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="96"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -5795,15 +5795,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="91" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="91" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="6"/>
@@ -5816,11 +5816,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="89"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="89"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -5831,11 +5831,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="90"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="90"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -5846,7 +5846,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="98"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -5861,7 +5861,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="98"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -5876,7 +5876,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="99"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -5891,16 +5891,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="85" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -5914,10 +5914,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="83"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="86"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -5929,10 +5929,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="84"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="87"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -5945,11 +5945,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="79" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="85" t="s">
+      <c r="E22" s="88" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -5964,9 +5964,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="77"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="86"/>
+      <c r="E23" s="89"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -5979,9 +5979,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="78"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="87"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -6081,6 +6081,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6088,12 +6094,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6119,19 +6119,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -6156,11 +6156,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -6232,10 +6232,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="91" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -6251,8 +6251,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="89"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -6266,8 +6266,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="89"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -6281,8 +6281,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="90"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -6296,7 +6296,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="95"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -6311,7 +6311,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="96"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -6326,15 +6326,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="91" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="91" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="6"/>
@@ -6347,11 +6347,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="89"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="89"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -6362,11 +6362,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="90"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="90"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -6377,7 +6377,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="98"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -6392,7 +6392,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="98"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -6407,7 +6407,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="99"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -6422,16 +6422,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="85" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -6445,10 +6445,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="83"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="86"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -6460,10 +6460,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="84"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="87"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -6476,11 +6476,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="79" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="85" t="s">
+      <c r="E22" s="88" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -6495,9 +6495,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="77"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="86"/>
+      <c r="E23" s="89"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -6510,9 +6510,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="78"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="87"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -6612,6 +6612,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6619,12 +6625,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6641,19 +6641,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -6678,11 +6678,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -6754,10 +6754,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="91" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -6773,8 +6773,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="89"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -6788,8 +6788,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="89"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -6803,8 +6803,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="90"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -6818,7 +6818,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="95"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -6833,7 +6833,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="96"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -6848,15 +6848,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="91" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="91" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="6"/>
@@ -6869,11 +6869,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="89"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="89"/>
+      <c r="F14" s="92"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -6884,11 +6884,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="90"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="90"/>
+      <c r="F15" s="93"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -6899,7 +6899,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="98"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -6914,7 +6914,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="98"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -6929,7 +6929,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="99"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -6944,16 +6944,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="82" t="s">
+      <c r="E19" s="85" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -6967,10 +6967,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="83"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="86"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -6982,10 +6982,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="84"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="87"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -6998,11 +6998,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="79" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="85" t="s">
+      <c r="E22" s="88" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -7017,9 +7017,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="77"/>
+      <c r="C23" s="80"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="86"/>
+      <c r="E23" s="89"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7032,9 +7032,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="78"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="87"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7134,6 +7134,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7141,12 +7147,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7163,19 +7163,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -7200,11 +7200,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="118" t="s">
+      <c r="I2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -7276,10 +7276,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="112" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7295,8 +7295,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="125"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7310,8 +7310,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="125"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7325,8 +7325,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="126"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7340,7 +7340,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="122"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7355,7 +7355,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="123"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7370,15 +7370,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="118" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="124" t="s">
+      <c r="F13" s="112" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7391,11 +7391,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="125"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -7406,11 +7406,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="132"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="126"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -7421,7 +7421,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7436,7 +7436,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7451,7 +7451,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7466,16 +7466,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="124" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7489,10 +7489,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="107"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7504,10 +7504,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="108"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -7520,11 +7520,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="130" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="133" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -7539,9 +7539,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="113"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="116"/>
+      <c r="E23" s="134"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7554,9 +7554,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="114"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="117"/>
+      <c r="E24" s="135"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7656,6 +7656,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7663,12 +7669,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7685,19 +7685,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -7722,11 +7722,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="118" t="s">
+      <c r="I2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -7798,10 +7798,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="112" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7817,8 +7817,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="125"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7832,8 +7832,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="125"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7847,8 +7847,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="126"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7862,7 +7862,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="122"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7877,7 +7877,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="123"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7892,15 +7892,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="118" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="124" t="s">
+      <c r="F13" s="112" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7913,11 +7913,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="125"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -7928,11 +7928,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="132"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="126"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -7943,7 +7943,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7958,7 +7958,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7973,7 +7973,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7988,16 +7988,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="124" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8011,10 +8011,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="107"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8026,10 +8026,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="108"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8042,11 +8042,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="130" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="133" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8061,9 +8061,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="113"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="116"/>
+      <c r="E23" s="134"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8076,9 +8076,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="114"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="117"/>
+      <c r="E24" s="135"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8178,6 +8178,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8185,12 +8191,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8207,19 +8207,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -8244,11 +8244,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="118" t="s">
+      <c r="I2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -8320,10 +8320,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="112" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8339,8 +8339,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="125"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8354,8 +8354,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="125"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8369,8 +8369,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="126"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8384,7 +8384,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="122"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8399,7 +8399,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="123"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8414,15 +8414,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="118" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="124" t="s">
+      <c r="F13" s="112" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8435,11 +8435,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="125"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8450,11 +8450,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="132"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="126"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8465,7 +8465,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8480,7 +8480,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8495,7 +8495,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8510,16 +8510,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="124" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8533,10 +8533,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="107"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8548,10 +8548,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="108"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8564,11 +8564,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="130" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="133" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8583,9 +8583,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="113"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="116"/>
+      <c r="E23" s="134"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8598,9 +8598,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="114"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="117"/>
+      <c r="E24" s="135"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8700,6 +8700,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8707,12 +8713,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8729,19 +8729,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -8766,11 +8766,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="118" t="s">
+      <c r="I2" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="108"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -8842,10 +8842,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="124" t="s">
+      <c r="C7" s="112" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8861,8 +8861,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="125"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8876,8 +8876,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="125"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8891,8 +8891,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="126"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="114"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8906,7 +8906,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="122"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8921,7 +8921,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="123"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8936,15 +8936,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="118" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="124" t="s">
+      <c r="F13" s="112" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8957,11 +8957,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="128"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="125"/>
+      <c r="F14" s="113"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8972,11 +8972,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="128"/>
-      <c r="C15" s="132"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="126"/>
+      <c r="F15" s="114"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8987,7 +8987,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="128"/>
+      <c r="B16" s="116"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -9002,7 +9002,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -9017,7 +9017,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="129"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -9032,16 +9032,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="106" t="s">
+      <c r="C19" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="109" t="s">
+      <c r="D19" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="106" t="s">
+      <c r="E19" s="124" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -9055,10 +9055,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="107"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="125"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -9070,10 +9070,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="108"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -9086,11 +9086,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="112" t="s">
+      <c r="C22" s="130" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="115" t="s">
+      <c r="E22" s="133" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -9105,9 +9105,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="113"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="116"/>
+      <c r="E23" s="134"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -9120,9 +9120,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="114"/>
+      <c r="C24" s="132"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="117"/>
+      <c r="E24" s="135"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -9222,6 +9222,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -9229,12 +9235,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/term_1/Assignment_Planner.xlsx
+++ b/term_1/Assignment_Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\UBCO_21-22\term_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9AA110-6C57-43C9-9552-60ED6548B66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A16579E-CBF6-4241-9EDB-7675338BB10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="37">
   <si>
     <t>Monday</t>
   </si>
@@ -141,6 +141,15 @@
   </si>
   <si>
     <t>09/20-09/26</t>
+  </si>
+  <si>
+    <t>Weekly Quiz</t>
+  </si>
+  <si>
+    <t>Read chapters 4-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lab 1 </t>
   </si>
 </sst>
 </file>
@@ -679,7 +688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -994,6 +1003,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1326,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142951BD-74E4-471E-868A-88909E17C9B2}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1497,7 @@
         <v>13</v>
       </c>
       <c r="K6" s="77">
-        <v>44452</v>
+        <v>44455</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -5037,8 +5055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B3B8CC-D153-431F-BDAD-4E080E0238A8}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5048,6 +5066,7 @@
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5094,7 +5113,7 @@
       <c r="J2" s="95"/>
       <c r="K2" s="96"/>
     </row>
-    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -5105,7 +5124,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="5"/>
       <c r="H3" s="61"/>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="137" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="59" t="s">
@@ -5115,7 +5134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -5126,7 +5145,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="6"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="138" t="s">
         <v>32</v>
       </c>
       <c r="J4" s="39" t="s">
@@ -5136,7 +5155,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -5147,9 +5166,15 @@
       <c r="F5" s="3"/>
       <c r="G5" s="6"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="32"/>
+      <c r="I5" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="136">
+        <v>44465</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="44">
@@ -5162,9 +5187,15 @@
       <c r="F6" s="48"/>
       <c r="G6" s="6"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="32"/>
+      <c r="I6" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="136">
+        <v>44459</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44">
@@ -5181,9 +5212,15 @@
       <c r="F7" s="53"/>
       <c r="G7" s="6"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="32"/>
+      <c r="I7" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="136">
+        <v>44459</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="44">
@@ -5196,7 +5233,7 @@
       <c r="F8" s="53"/>
       <c r="G8" s="6"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="36"/>
+      <c r="I8" s="65"/>
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
     </row>
@@ -5211,7 +5248,7 @@
       <c r="F9" s="53"/>
       <c r="G9" s="6"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="37"/>
+      <c r="I9" s="66"/>
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
@@ -5226,7 +5263,7 @@
       <c r="F10" s="53"/>
       <c r="G10" s="6"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="37"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
@@ -5241,7 +5278,7 @@
       <c r="F11" s="53"/>
       <c r="G11" s="6"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="37"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
@@ -5256,7 +5293,7 @@
       <c r="F12" s="57"/>
       <c r="G12" s="6"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="37"/>
+      <c r="I12" s="66"/>
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
@@ -5277,7 +5314,7 @@
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="37"/>
+      <c r="I13" s="66"/>
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
@@ -5292,7 +5329,7 @@
       <c r="F14" s="92"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="37"/>
+      <c r="I14" s="66"/>
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
@@ -5307,7 +5344,7 @@
       <c r="F15" s="93"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="37"/>
+      <c r="I15" s="66"/>
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
@@ -5322,7 +5359,7 @@
       <c r="F16" s="58"/>
       <c r="G16" s="6"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="37"/>
+      <c r="I16" s="66"/>
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
@@ -5337,7 +5374,7 @@
       <c r="F17" s="53"/>
       <c r="G17" s="6"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="37"/>
+      <c r="I17" s="66"/>
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
@@ -5352,7 +5389,7 @@
       <c r="F18" s="53"/>
       <c r="G18" s="6"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="37"/>
+      <c r="I18" s="66"/>
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
@@ -5375,7 +5412,7 @@
       <c r="F19" s="53"/>
       <c r="G19" s="6"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="37"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
@@ -5390,7 +5427,7 @@
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="37"/>
+      <c r="I20" s="66"/>
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
@@ -5405,7 +5442,7 @@
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="37"/>
+      <c r="I21" s="66"/>
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
@@ -5424,7 +5461,7 @@
       <c r="F22" s="53"/>
       <c r="G22" s="6"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="37"/>
+      <c r="I22" s="66"/>
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
@@ -5439,7 +5476,7 @@
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="37"/>
+      <c r="I23" s="66"/>
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
@@ -5454,7 +5491,7 @@
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="37"/>
+      <c r="I24" s="66"/>
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
@@ -5469,7 +5506,7 @@
       <c r="F25" s="53"/>
       <c r="G25" s="6"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="37"/>
+      <c r="I25" s="66"/>
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
@@ -5484,7 +5521,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="6"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="37"/>
+      <c r="I26" s="66"/>
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
@@ -5499,7 +5536,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="6"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="37"/>
+      <c r="I27" s="66"/>
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
@@ -5514,7 +5551,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="6"/>
       <c r="H28" s="15"/>
-      <c r="I28" s="37"/>
+      <c r="I28" s="66"/>
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
@@ -5529,7 +5566,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="6"/>
       <c r="H29" s="15"/>
-      <c r="I29" s="37"/>
+      <c r="I29" s="66"/>
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
@@ -5544,7 +5581,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="18"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="38"/>
+      <c r="I30" s="67"/>
       <c r="J30" s="42"/>
       <c r="K30" s="34"/>
     </row>

--- a/term_1/Assignment_Planner.xlsx
+++ b/term_1/Assignment_Planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\UBCO_21-22\term_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A16579E-CBF6-4241-9EDB-7675338BB10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C782069D-65A9-4CC5-97BD-78EA7DE63B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="39">
   <si>
     <t>Monday</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t xml:space="preserve">Lab 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essay 1 </t>
+  </si>
+  <si>
+    <t>Read Oronooko</t>
   </si>
 </sst>
 </file>
@@ -688,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -831,6 +837,15 @@
     <xf numFmtId="16" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -915,6 +930,51 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -960,60 +1020,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1344,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142951BD-74E4-471E-868A-88909E17C9B2}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,19 +1368,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -1398,11 +1405,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1455,7 +1462,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -1507,10 +1514,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="94" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -1535,8 +1542,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="92"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -1553,8 +1560,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="92"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -1568,8 +1575,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="93"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -1583,7 +1590,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -1598,7 +1605,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="99"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -1613,15 +1620,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="94" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="94" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="6"/>
@@ -1634,11 +1641,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="92"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="92"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="66"/>
@@ -1649,11 +1656,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="93"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="93"/>
+      <c r="F15" s="96"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="66"/>
@@ -1664,7 +1671,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="101"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -1679,7 +1686,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="101"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -1694,7 +1701,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="102"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -1709,16 +1716,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="88" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -1732,10 +1739,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -1747,10 +1754,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="87"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -1763,11 +1770,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="82" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="88" t="s">
+      <c r="E22" s="91" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -1782,9 +1789,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="80"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="89"/>
+      <c r="E23" s="92"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -1797,9 +1804,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="81"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="90"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -1930,19 +1937,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -1967,11 +1974,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -2043,10 +2050,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="130" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2062,8 +2069,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2077,8 +2084,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2092,8 +2099,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2107,7 +2114,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="110"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2122,7 +2129,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="111"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2137,15 +2144,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="136" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2158,11 +2165,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="119"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="113"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2173,11 +2180,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="120"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="114"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2188,7 +2195,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="116"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2203,7 +2210,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="116"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2218,7 +2225,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="117"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2233,16 +2240,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="124" t="s">
+      <c r="E19" s="112" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2256,10 +2263,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="125"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="113"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2271,10 +2278,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="126"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2287,11 +2294,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="118" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="133" t="s">
+      <c r="E22" s="121" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2306,9 +2313,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="131"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="134"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2321,9 +2328,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="132"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="135"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2423,12 +2430,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2436,6 +2437,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2452,19 +2459,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -2489,11 +2496,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -2565,10 +2572,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="130" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2584,8 +2591,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2599,8 +2606,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2614,8 +2621,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2629,7 +2636,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="110"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2644,7 +2651,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="111"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2659,15 +2666,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="136" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2680,11 +2687,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="119"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="113"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2695,11 +2702,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="120"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="114"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2710,7 +2717,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="116"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2725,7 +2732,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="116"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2740,7 +2747,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="117"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2755,16 +2762,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="124" t="s">
+      <c r="E19" s="112" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2778,10 +2785,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="125"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="113"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2793,10 +2800,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="126"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2809,11 +2816,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="118" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="133" t="s">
+      <c r="E22" s="121" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2828,9 +2835,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="131"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="134"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2843,9 +2850,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="132"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="135"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2945,12 +2952,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2958,6 +2959,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2974,19 +2981,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -3011,11 +3018,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -3087,10 +3094,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="130" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3106,8 +3113,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3121,8 +3128,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3136,8 +3143,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3151,7 +3158,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="110"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3166,7 +3173,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="111"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3181,15 +3188,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="136" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3202,11 +3209,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="119"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="113"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3217,11 +3224,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="120"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="114"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3232,7 +3239,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="116"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3247,7 +3254,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="116"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3262,7 +3269,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="117"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3277,16 +3284,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="124" t="s">
+      <c r="E19" s="112" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3300,10 +3307,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="125"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="113"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3315,10 +3322,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="126"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3331,11 +3338,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="118" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="133" t="s">
+      <c r="E22" s="121" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3350,9 +3357,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="131"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="134"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3365,9 +3372,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="132"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="135"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3467,12 +3474,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3480,6 +3481,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3496,19 +3503,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -3533,11 +3540,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -3609,10 +3616,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="130" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3628,8 +3635,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3643,8 +3650,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3658,8 +3665,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3673,7 +3680,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="110"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3688,7 +3695,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="111"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3703,15 +3710,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="136" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3724,11 +3731,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="119"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="113"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3739,11 +3746,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="120"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="114"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3754,7 +3761,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="116"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3769,7 +3776,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="116"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3784,7 +3791,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="117"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3799,16 +3806,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="124" t="s">
+      <c r="E19" s="112" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3822,10 +3829,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="125"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="113"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3837,10 +3844,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="126"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3853,11 +3860,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="118" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="133" t="s">
+      <c r="E22" s="121" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3872,9 +3879,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="131"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="134"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3887,9 +3894,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="132"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="135"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3989,12 +3996,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4002,6 +4003,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4018,19 +4025,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -4055,11 +4062,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -4131,10 +4138,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="130" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4150,8 +4157,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4165,8 +4172,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4180,8 +4187,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4195,7 +4202,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="110"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4210,7 +4217,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="111"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4225,15 +4232,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="136" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4246,11 +4253,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="119"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="113"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4261,11 +4268,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="120"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="114"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4276,7 +4283,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="116"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4291,7 +4298,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="116"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4306,7 +4313,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="117"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4321,16 +4328,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="124" t="s">
+      <c r="E19" s="112" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4344,10 +4351,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="125"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="113"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4359,10 +4366,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="126"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4375,11 +4382,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="118" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="133" t="s">
+      <c r="E22" s="121" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4394,9 +4401,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="131"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="134"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4409,9 +4416,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="132"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="135"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4511,12 +4518,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4524,6 +4525,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4540,19 +4547,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -4577,11 +4584,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -4653,10 +4660,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="130" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4672,8 +4679,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4687,8 +4694,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4702,8 +4709,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4717,7 +4724,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="110"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4732,7 +4739,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="111"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4747,15 +4754,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="136" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4768,11 +4775,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="119"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="113"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4783,11 +4790,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="120"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="114"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4798,7 +4805,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="116"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4813,7 +4820,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="116"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4828,7 +4835,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="117"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4843,16 +4850,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="124" t="s">
+      <c r="E19" s="112" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4866,10 +4873,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="125"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="113"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4881,10 +4888,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="126"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4897,11 +4904,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="118" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="133" t="s">
+      <c r="E22" s="121" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4916,9 +4923,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="131"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="134"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4931,9 +4938,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="132"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="135"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5033,12 +5040,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5046,6 +5047,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5055,8 +5062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B3B8CC-D153-431F-BDAD-4E080E0238A8}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5070,19 +5077,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -5107,11 +5114,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
     </row>
     <row r="3" spans="1:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -5124,7 +5131,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="5"/>
       <c r="H3" s="61"/>
-      <c r="I3" s="137" t="s">
+      <c r="I3" s="79" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="59" t="s">
@@ -5145,7 +5152,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="6"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="138" t="s">
+      <c r="I4" s="80" t="s">
         <v>32</v>
       </c>
       <c r="J4" s="39" t="s">
@@ -5172,7 +5179,7 @@
       <c r="J5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="136">
+      <c r="K5" s="78">
         <v>44465</v>
       </c>
     </row>
@@ -5193,7 +5200,7 @@
       <c r="J6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="136">
+      <c r="K6" s="78">
         <v>44459</v>
       </c>
     </row>
@@ -5201,10 +5208,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="94" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -5218,7 +5225,7 @@
       <c r="J7" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="136">
+      <c r="K7" s="78">
         <v>44459</v>
       </c>
     </row>
@@ -5226,38 +5233,50 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="92"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
       <c r="G8" s="6"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="32"/>
+      <c r="I8" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="78">
+        <v>44476</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="92"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
       <c r="G9" s="6"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="33"/>
+      <c r="I9" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="139">
+        <v>44463</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="93"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -5271,7 +5290,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -5286,7 +5305,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="99"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -5301,15 +5320,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="94" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="94" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="6"/>
@@ -5322,11 +5341,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="92"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="92"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="66"/>
@@ -5337,11 +5356,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="93"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="93"/>
+      <c r="F15" s="96"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="66"/>
@@ -5352,7 +5371,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="101"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -5367,7 +5386,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="101"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -5382,7 +5401,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="102"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -5397,16 +5416,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="88" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -5420,10 +5439,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -5435,10 +5454,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="87"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -5451,11 +5470,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="82" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="88" t="s">
+      <c r="E22" s="91" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -5470,9 +5489,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="80"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="89"/>
+      <c r="E23" s="92"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -5485,9 +5504,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="81"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="90"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5587,12 +5606,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5600,6 +5613,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5609,8 +5628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA0B4C7-190D-4FFA-B756-DE77B8DDC8AE}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5625,19 +5644,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -5662,11 +5681,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -5738,10 +5757,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="94" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -5757,8 +5776,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="92"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -5772,8 +5791,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="92"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -5787,8 +5806,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="93"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -5802,7 +5821,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -5817,7 +5836,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="99"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -5832,15 +5851,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="94" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="94" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="6"/>
@@ -5853,11 +5872,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="92"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="92"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -5868,11 +5887,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="93"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="93"/>
+      <c r="F15" s="96"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -5883,7 +5902,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="101"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -5898,7 +5917,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="101"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -5913,7 +5932,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="102"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -5928,16 +5947,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="88" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -5951,10 +5970,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -5966,10 +5985,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="87"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -5982,11 +6001,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="82" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="88" t="s">
+      <c r="E22" s="91" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -6001,9 +6020,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="80"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="89"/>
+      <c r="E23" s="92"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -6016,9 +6035,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="81"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="90"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -6118,12 +6137,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6131,6 +6144,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6156,19 +6175,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -6193,11 +6212,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -6269,10 +6288,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="94" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -6288,8 +6307,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="92"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -6303,8 +6322,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="92"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -6318,8 +6337,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="93"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -6333,7 +6352,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -6348,7 +6367,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="99"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -6363,15 +6382,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="94" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="94" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="6"/>
@@ -6384,11 +6403,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="92"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="92"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -6399,11 +6418,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="93"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="93"/>
+      <c r="F15" s="96"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -6414,7 +6433,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="101"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -6429,7 +6448,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="101"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -6444,7 +6463,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="102"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -6459,16 +6478,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="88" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -6482,10 +6501,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -6497,10 +6516,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="87"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -6513,11 +6532,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="82" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="88" t="s">
+      <c r="E22" s="91" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -6532,9 +6551,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="80"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="89"/>
+      <c r="E23" s="92"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -6547,9 +6566,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="81"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="90"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -6649,12 +6668,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6662,6 +6675,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6678,19 +6697,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -6715,11 +6734,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="99"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -6791,10 +6810,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="94" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -6810,8 +6829,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="92"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -6825,8 +6844,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="98"/>
-      <c r="C9" s="92"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -6840,8 +6859,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="93"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -6855,7 +6874,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="98"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -6870,7 +6889,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="99"/>
+      <c r="B12" s="102"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -6885,15 +6904,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="94" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="91" t="s">
+      <c r="F13" s="94" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="6"/>
@@ -6906,11 +6925,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="92"/>
+      <c r="B14" s="104"/>
+      <c r="C14" s="95"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="92"/>
+      <c r="F14" s="95"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -6921,11 +6940,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="93"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="93"/>
+      <c r="F15" s="96"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -6936,7 +6955,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="101"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -6951,7 +6970,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="101"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -6966,7 +6985,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="102"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -6981,16 +7000,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="103" t="s">
+      <c r="B19" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="88" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -7004,10 +7023,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="86"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7019,10 +7038,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="87"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="90"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -7035,11 +7054,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="82" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="88" t="s">
+      <c r="E22" s="91" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -7054,9 +7073,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="80"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="89"/>
+      <c r="E23" s="92"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7069,9 +7088,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="81"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="90"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7171,12 +7190,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7184,6 +7197,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7200,19 +7219,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -7237,11 +7256,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -7313,10 +7332,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="130" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7332,8 +7351,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7347,8 +7366,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7362,8 +7381,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7377,7 +7396,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="110"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7392,7 +7411,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="111"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7407,15 +7426,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="136" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7428,11 +7447,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="119"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="113"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -7443,11 +7462,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="120"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="114"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -7458,7 +7477,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="116"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7473,7 +7492,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="116"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7488,7 +7507,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="117"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7503,16 +7522,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="124" t="s">
+      <c r="E19" s="112" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7526,10 +7545,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="125"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="113"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7541,10 +7560,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="126"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -7557,11 +7576,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="118" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="133" t="s">
+      <c r="E22" s="121" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -7576,9 +7595,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="131"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="134"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7591,9 +7610,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="132"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="135"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7693,12 +7712,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7706,6 +7719,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7722,19 +7741,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -7759,11 +7778,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -7835,10 +7854,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="130" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7854,8 +7873,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7869,8 +7888,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7884,8 +7903,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7899,7 +7918,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="110"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7914,7 +7933,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="111"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7929,15 +7948,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="136" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7950,11 +7969,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="119"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="113"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -7965,11 +7984,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="120"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="114"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -7980,7 +7999,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="116"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7995,7 +8014,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="116"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8010,7 +8029,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="117"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8025,16 +8044,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="124" t="s">
+      <c r="E19" s="112" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8048,10 +8067,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="125"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="113"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8063,10 +8082,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="126"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8079,11 +8098,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="118" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="133" t="s">
+      <c r="E22" s="121" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8098,9 +8117,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="131"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="134"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8113,9 +8132,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="132"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="135"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8215,12 +8234,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8228,6 +8241,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8244,19 +8263,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -8281,11 +8300,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -8357,10 +8376,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="130" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8376,8 +8395,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8391,8 +8410,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8406,8 +8425,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8421,7 +8440,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="110"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8436,7 +8455,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="111"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8451,15 +8470,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="136" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8472,11 +8491,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="119"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="113"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8487,11 +8506,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="120"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="114"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8502,7 +8521,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="116"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8517,7 +8536,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="116"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8532,7 +8551,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="117"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8547,16 +8566,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="124" t="s">
+      <c r="E19" s="112" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8570,10 +8589,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="125"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="113"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8585,10 +8604,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="126"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8601,11 +8620,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="118" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="133" t="s">
+      <c r="E22" s="121" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8620,9 +8639,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="131"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="134"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8635,9 +8654,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="132"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="135"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8737,12 +8756,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8750,6 +8763,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8766,19 +8785,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -8803,11 +8822,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="107"/>
-      <c r="K2" s="108"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="126"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -8879,10 +8898,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="109" t="s">
+      <c r="B7" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="112" t="s">
+      <c r="C7" s="130" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8898,8 +8917,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="131"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8913,8 +8932,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8928,8 +8947,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="114"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="132"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8943,7 +8962,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="110"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8958,7 +8977,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="111"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8973,15 +8992,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="136" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="130" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8994,11 +9013,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="116"/>
-      <c r="C14" s="119"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="113"/>
+      <c r="F14" s="131"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -9009,11 +9028,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="116"/>
-      <c r="C15" s="120"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="114"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -9024,7 +9043,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="116"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -9039,7 +9058,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="116"/>
+      <c r="B17" s="134"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -9054,7 +9073,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="117"/>
+      <c r="B18" s="135"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -9069,16 +9088,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="124" t="s">
+      <c r="C19" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="127" t="s">
+      <c r="D19" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="124" t="s">
+      <c r="E19" s="112" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -9092,10 +9111,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="125"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="113"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -9107,10 +9126,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="126"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -9123,11 +9142,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="118" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="133" t="s">
+      <c r="E22" s="121" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -9142,9 +9161,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="131"/>
+      <c r="C23" s="119"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="134"/>
+      <c r="E23" s="122"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -9157,9 +9176,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="132"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="135"/>
+      <c r="E24" s="123"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -9259,12 +9278,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -9272,6 +9285,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/term_1/Assignment_Planner.xlsx
+++ b/term_1/Assignment_Planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\UBCO_21-22\term_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C782069D-65A9-4CC5-97BD-78EA7DE63B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404F87EB-B7B9-4AB6-ABA2-8AD3DB5F6D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
+    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="44">
   <si>
     <t>Monday</t>
   </si>
@@ -156,6 +156,21 @@
   </si>
   <si>
     <t>Read Oronooko</t>
+  </si>
+  <si>
+    <t>Read Love in Excess</t>
+  </si>
+  <si>
+    <t>Compile COSC NOTES &amp; work on COSC 419 A1</t>
+  </si>
+  <si>
+    <t>Work on COSC 328 Lab 1</t>
+  </si>
+  <si>
+    <t>Finish COSC 419 A1</t>
+  </si>
+  <si>
+    <t>Read</t>
   </si>
 </sst>
 </file>
@@ -311,7 +326,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -690,11 +705,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -846,6 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -930,6 +970,51 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,52 +1060,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1368,19 +1425,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -1405,11 +1462,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1514,10 +1571,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="95" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -1542,8 +1599,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="95"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -1560,8 +1617,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="95"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -1575,8 +1632,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="96"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -1590,7 +1647,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="101"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -1605,7 +1662,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -1620,15 +1677,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="95" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="94" t="s">
+      <c r="F13" s="95" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="6"/>
@@ -1641,11 +1698,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="95"/>
+      <c r="F14" s="96"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="66"/>
@@ -1656,11 +1713,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="96"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="96"/>
+      <c r="F15" s="97"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="66"/>
@@ -1671,7 +1728,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="104"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -1686,7 +1743,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="104"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -1701,7 +1758,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="105"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -1716,16 +1773,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="89" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -1739,10 +1796,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="89"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -1754,10 +1811,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="90"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -1770,11 +1827,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="83" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -1789,9 +1846,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="83"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="92"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -1804,9 +1861,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="84"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="93"/>
+      <c r="E24" s="94"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -1937,19 +1994,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -1974,11 +2031,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="126"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -2050,10 +2107,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="116" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2069,8 +2126,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="131"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2084,8 +2141,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="131"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2099,8 +2156,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2114,7 +2171,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2129,7 +2186,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="129"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2144,15 +2201,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="130" t="s">
+      <c r="F13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2165,11 +2222,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="137"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="131"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2180,11 +2237,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="138"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="132"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2195,7 +2252,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="134"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2210,7 +2267,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="134"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2225,7 +2282,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="135"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2240,16 +2297,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="128" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2263,10 +2320,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="113"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="129"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2278,10 +2335,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="114"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="130"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2294,11 +2351,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="134" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="121" t="s">
+      <c r="E22" s="137" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2313,9 +2370,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="119"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="138"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2328,9 +2385,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="120"/>
+      <c r="C24" s="136"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="123"/>
+      <c r="E24" s="139"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2430,6 +2487,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2437,12 +2500,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2459,19 +2516,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -2496,11 +2553,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="126"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -2572,10 +2629,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="116" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2591,8 +2648,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="131"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2606,8 +2663,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="131"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2621,8 +2678,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2636,7 +2693,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2651,7 +2708,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="129"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2666,15 +2723,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="130" t="s">
+      <c r="F13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2687,11 +2744,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="137"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="131"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2702,11 +2759,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="138"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="132"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2717,7 +2774,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="134"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2732,7 +2789,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="134"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2747,7 +2804,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="135"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2762,16 +2819,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="128" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2785,10 +2842,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="113"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="129"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2800,10 +2857,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="114"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="130"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2816,11 +2873,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="134" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="121" t="s">
+      <c r="E22" s="137" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2835,9 +2892,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="119"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="138"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2850,9 +2907,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="120"/>
+      <c r="C24" s="136"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="123"/>
+      <c r="E24" s="139"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2952,6 +3009,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2959,12 +3022,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2981,19 +3038,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -3018,11 +3075,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="126"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -3094,10 +3151,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="116" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3113,8 +3170,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="131"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3128,8 +3185,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="131"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3143,8 +3200,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3158,7 +3215,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3173,7 +3230,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="129"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3188,15 +3245,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="130" t="s">
+      <c r="F13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3209,11 +3266,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="137"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="131"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3224,11 +3281,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="138"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="132"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3239,7 +3296,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="134"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3254,7 +3311,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="134"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3269,7 +3326,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="135"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3284,16 +3341,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="128" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3307,10 +3364,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="113"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="129"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3322,10 +3379,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="114"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="130"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3338,11 +3395,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="134" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="121" t="s">
+      <c r="E22" s="137" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3357,9 +3414,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="119"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="138"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3372,9 +3429,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="120"/>
+      <c r="C24" s="136"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="123"/>
+      <c r="E24" s="139"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3474,6 +3531,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3481,12 +3544,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3503,19 +3560,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -3540,11 +3597,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="126"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -3616,10 +3673,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="116" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3635,8 +3692,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="131"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3650,8 +3707,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="131"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3665,8 +3722,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3680,7 +3737,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3695,7 +3752,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="129"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3710,15 +3767,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="130" t="s">
+      <c r="F13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3731,11 +3788,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="137"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="131"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3746,11 +3803,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="138"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="132"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3761,7 +3818,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="134"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3776,7 +3833,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="134"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3791,7 +3848,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="135"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3806,16 +3863,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="128" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3829,10 +3886,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="113"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="129"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3844,10 +3901,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="114"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="130"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3860,11 +3917,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="134" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="121" t="s">
+      <c r="E22" s="137" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3879,9 +3936,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="119"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="138"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3894,9 +3951,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="120"/>
+      <c r="C24" s="136"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="123"/>
+      <c r="E24" s="139"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3996,6 +4053,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4003,12 +4066,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4025,19 +4082,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -4062,11 +4119,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="126"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -4138,10 +4195,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="116" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4157,8 +4214,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="131"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4172,8 +4229,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="131"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4187,8 +4244,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4202,7 +4259,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4217,7 +4274,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="129"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4232,15 +4289,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="130" t="s">
+      <c r="F13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4253,11 +4310,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="137"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="131"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4268,11 +4325,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="138"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="132"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4283,7 +4340,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="134"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4298,7 +4355,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="134"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4313,7 +4370,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="135"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4328,16 +4385,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="128" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4351,10 +4408,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="113"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="129"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4366,10 +4423,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="114"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="130"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4382,11 +4439,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="134" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="121" t="s">
+      <c r="E22" s="137" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4401,9 +4458,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="119"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="138"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4416,9 +4473,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="120"/>
+      <c r="C24" s="136"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="123"/>
+      <c r="E24" s="139"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4518,6 +4575,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4525,12 +4588,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4547,19 +4604,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -4584,11 +4641,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="126"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -4660,10 +4717,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="116" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4679,8 +4736,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="131"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4694,8 +4751,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="131"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4709,8 +4766,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4724,7 +4781,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4739,7 +4796,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="129"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4754,15 +4811,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="130" t="s">
+      <c r="F13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4775,11 +4832,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="137"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="131"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4790,11 +4847,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="138"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="132"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4805,7 +4862,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="134"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4820,7 +4877,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="134"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4835,7 +4892,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="135"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4850,16 +4907,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="128" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4873,10 +4930,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="113"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="129"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4888,10 +4945,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="114"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="130"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4904,11 +4961,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="134" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="121" t="s">
+      <c r="E22" s="137" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4923,9 +4980,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="119"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="138"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4938,9 +4995,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="120"/>
+      <c r="C24" s="136"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="123"/>
+      <c r="E24" s="139"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5040,6 +5097,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5047,12 +5110,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5062,8 +5119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B3B8CC-D153-431F-BDAD-4E080E0238A8}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5071,25 +5128,26 @@
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" style="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -5114,11 +5172,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
     </row>
     <row r="3" spans="1:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -5208,24 +5266,28 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="95" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="53"/>
+      <c r="E7" s="143" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="140" t="s">
+        <v>43</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="78">
+      <c r="K7" s="77">
         <v>44459</v>
       </c>
     </row>
@@ -5233,11 +5295,11 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="95"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="53"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="141"/>
       <c r="G8" s="6"/>
       <c r="H8" s="15"/>
       <c r="I8" s="65" t="s">
@@ -5254,11 +5316,11 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="95"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="53"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="141"/>
       <c r="G9" s="6"/>
       <c r="H9" s="15"/>
       <c r="I9" s="66" t="s">
@@ -5267,7 +5329,7 @@
       <c r="J9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="139">
+      <c r="K9" s="81">
         <v>44463</v>
       </c>
     </row>
@@ -5275,11 +5337,11 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="96"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
-      <c r="F10" s="53"/>
+      <c r="F10" s="141"/>
       <c r="G10" s="6"/>
       <c r="H10" s="15"/>
       <c r="I10" s="66"/>
@@ -5290,11 +5352,15 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="101"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="55"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="53"/>
+      <c r="D11" s="140" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="142"/>
       <c r="G11" s="6"/>
       <c r="H11" s="15"/>
       <c r="I11" s="66"/>
@@ -5305,10 +5371,10 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="144"/>
       <c r="F12" s="57"/>
       <c r="G12" s="6"/>
       <c r="H12" s="15"/>
@@ -5320,15 +5386,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="94" t="s">
+      <c r="D13" s="142"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="95" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="6"/>
@@ -5341,11 +5407,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="95"/>
+      <c r="F14" s="96"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="66"/>
@@ -5356,11 +5422,15 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="96"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="143" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="97"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="66"/>
@@ -5371,10 +5441,10 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="104"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="55"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
+      <c r="D16" s="141"/>
+      <c r="E16" s="144"/>
       <c r="F16" s="58"/>
       <c r="G16" s="6"/>
       <c r="H16" s="15"/>
@@ -5386,10 +5456,10 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="104"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="54"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="145"/>
       <c r="F17" s="53"/>
       <c r="G17" s="6"/>
       <c r="H17" s="15"/>
@@ -5401,7 +5471,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="105"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -5416,16 +5486,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="89" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -5439,10 +5509,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="89"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -5454,10 +5524,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="90"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -5470,11 +5540,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="83" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -5489,9 +5559,11 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="92"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="140" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="93"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -5504,9 +5576,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="93"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="141"/>
+      <c r="E24" s="94"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5520,7 +5592,7 @@
       </c>
       <c r="B25" s="53"/>
       <c r="C25" s="55"/>
-      <c r="D25" s="53"/>
+      <c r="D25" s="142"/>
       <c r="E25" s="55"/>
       <c r="F25" s="53"/>
       <c r="G25" s="6"/>
@@ -5605,7 +5677,14 @@
       <c r="K30" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="20">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5613,12 +5692,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F7:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5628,7 +5707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA0B4C7-190D-4FFA-B756-DE77B8DDC8AE}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B19" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -5644,19 +5723,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -5681,11 +5760,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -5757,10 +5836,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="95" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -5776,8 +5855,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="95"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -5791,8 +5870,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="95"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -5806,8 +5885,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="96"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -5821,7 +5900,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="101"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -5836,7 +5915,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -5851,15 +5930,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="95" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="94" t="s">
+      <c r="F13" s="95" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="6"/>
@@ -5872,11 +5951,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="95"/>
+      <c r="F14" s="96"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -5887,11 +5966,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="96"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="96"/>
+      <c r="F15" s="97"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -5902,7 +5981,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="104"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -5917,7 +5996,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="104"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -5932,7 +6011,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="105"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -5947,16 +6026,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="89" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -5970,10 +6049,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="89"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -5985,10 +6064,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="90"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -6001,11 +6080,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="83" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -6020,9 +6099,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="83"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="92"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -6035,9 +6114,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="84"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="93"/>
+      <c r="E24" s="94"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -6137,6 +6216,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6144,12 +6229,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6175,19 +6254,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -6212,11 +6291,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -6288,10 +6367,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="95" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -6307,8 +6386,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="95"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -6322,8 +6401,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="95"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -6337,8 +6416,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="96"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -6352,7 +6431,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="101"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -6367,7 +6446,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -6382,15 +6461,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="95" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="94" t="s">
+      <c r="F13" s="95" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="6"/>
@@ -6403,11 +6482,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="95"/>
+      <c r="F14" s="96"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -6418,11 +6497,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="96"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="96"/>
+      <c r="F15" s="97"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -6433,7 +6512,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="104"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -6448,7 +6527,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="104"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -6463,7 +6542,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="105"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -6478,16 +6557,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="89" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -6501,10 +6580,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="89"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -6516,10 +6595,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="90"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -6532,11 +6611,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="83" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -6551,9 +6630,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="83"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="92"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -6566,9 +6645,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="84"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="93"/>
+      <c r="E24" s="94"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -6668,6 +6747,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6675,12 +6760,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6697,19 +6776,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
@@ -6734,11 +6813,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="98"/>
-      <c r="K2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="100"/>
     </row>
     <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="43">
@@ -6810,10 +6889,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="94" t="s">
+      <c r="C7" s="95" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -6829,8 +6908,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="95"/>
+      <c r="B8" s="102"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -6844,8 +6923,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="101"/>
-      <c r="C9" s="95"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -6859,8 +6938,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="96"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="97"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -6874,7 +6953,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="101"/>
+      <c r="B11" s="102"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -6889,7 +6968,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="102"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -6904,15 +6983,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="94" t="s">
+      <c r="C13" s="95" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="94" t="s">
+      <c r="F13" s="95" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="6"/>
@@ -6925,11 +7004,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="95"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="95"/>
+      <c r="F14" s="96"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -6940,11 +7019,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="96"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="96"/>
+      <c r="F15" s="97"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -6955,7 +7034,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="104"/>
+      <c r="B16" s="105"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -6970,7 +7049,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="104"/>
+      <c r="B17" s="105"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -6985,7 +7064,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="105"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -7000,16 +7079,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="106" t="s">
+      <c r="B19" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="85" t="s">
+      <c r="D19" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="89" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -7023,10 +7102,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="107"/>
-      <c r="C20" s="89"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="89"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="90"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7038,10 +7117,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="108"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="90"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -7054,11 +7133,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="83" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="91" t="s">
+      <c r="E22" s="92" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -7073,9 +7152,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="83"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="92"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7088,9 +7167,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="84"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="93"/>
+      <c r="E24" s="94"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7190,6 +7269,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7197,12 +7282,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7219,19 +7298,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -7256,11 +7335,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="126"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -7332,10 +7411,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="116" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7351,8 +7430,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="131"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7366,8 +7445,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="131"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7381,8 +7460,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7396,7 +7475,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7411,7 +7490,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="129"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7426,15 +7505,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="130" t="s">
+      <c r="F13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7447,11 +7526,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="137"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="131"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -7462,11 +7541,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="138"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="132"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -7477,7 +7556,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="134"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7492,7 +7571,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="134"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7507,7 +7586,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="135"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7522,16 +7601,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="128" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7545,10 +7624,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="113"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="129"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7560,10 +7639,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="114"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="130"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -7576,11 +7655,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="134" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="121" t="s">
+      <c r="E22" s="137" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -7595,9 +7674,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="119"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="138"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7610,9 +7689,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="120"/>
+      <c r="C24" s="136"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="123"/>
+      <c r="E24" s="139"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7712,6 +7791,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7719,12 +7804,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7741,19 +7820,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -7778,11 +7857,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="126"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -7854,10 +7933,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="116" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7873,8 +7952,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="131"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7888,8 +7967,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="131"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7903,8 +7982,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7918,7 +7997,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7933,7 +8012,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="129"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7948,15 +8027,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="130" t="s">
+      <c r="F13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7969,11 +8048,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="137"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="131"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -7984,11 +8063,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="138"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="132"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -7999,7 +8078,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="134"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8014,7 +8093,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="134"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8029,7 +8108,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="135"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8044,16 +8123,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="128" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8067,10 +8146,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="113"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="129"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8082,10 +8161,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="114"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="130"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8098,11 +8177,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="134" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="121" t="s">
+      <c r="E22" s="137" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8117,9 +8196,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="119"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="138"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8132,9 +8211,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="120"/>
+      <c r="C24" s="136"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="123"/>
+      <c r="E24" s="139"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8234,6 +8313,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8241,12 +8326,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8263,19 +8342,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -8300,11 +8379,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="126"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -8376,10 +8455,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="116" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8395,8 +8474,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="131"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8410,8 +8489,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="131"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8425,8 +8504,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8440,7 +8519,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8455,7 +8534,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="129"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8470,15 +8549,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="130" t="s">
+      <c r="F13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8491,11 +8570,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="137"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="131"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8506,11 +8585,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="138"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="132"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8521,7 +8600,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="134"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8536,7 +8615,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="134"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8551,7 +8630,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="135"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8566,16 +8645,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="128" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8589,10 +8668,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="113"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="129"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8604,10 +8683,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="114"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="130"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8620,11 +8699,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="134" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="121" t="s">
+      <c r="E22" s="137" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8639,9 +8718,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="119"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="138"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8654,9 +8733,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="120"/>
+      <c r="C24" s="136"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="123"/>
+      <c r="E24" s="139"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8756,6 +8835,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8763,12 +8848,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8785,19 +8864,19 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
@@ -8822,11 +8901,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="125"/>
-      <c r="K2" s="126"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -8898,10 +8977,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B7" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="116" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8917,8 +8996,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="128"/>
-      <c r="C8" s="131"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8932,8 +9011,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="128"/>
-      <c r="C9" s="131"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8947,8 +9026,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="132"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="118"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8962,7 +9041,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="128"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8977,7 +9056,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="129"/>
+      <c r="B12" s="115"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8992,15 +9071,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="130" t="s">
+      <c r="F13" s="116" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -9013,11 +9092,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="134"/>
-      <c r="C14" s="137"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="131"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -9028,11 +9107,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="138"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="124"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="132"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -9043,7 +9122,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="134"/>
+      <c r="B16" s="120"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -9058,7 +9137,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="134"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -9073,7 +9152,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="135"/>
+      <c r="B18" s="121"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -9088,16 +9167,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="109" t="s">
+      <c r="B19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="112" t="s">
+      <c r="C19" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="112" t="s">
+      <c r="E19" s="128" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -9111,10 +9190,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="110"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="113"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="132"/>
+      <c r="E20" s="129"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -9126,10 +9205,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="111"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="114"/>
+      <c r="B21" s="127"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="130"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -9142,11 +9221,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="118" t="s">
+      <c r="C22" s="134" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="121" t="s">
+      <c r="E22" s="137" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -9161,9 +9240,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="119"/>
+      <c r="C23" s="135"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="122"/>
+      <c r="E23" s="138"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -9176,9 +9255,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="120"/>
+      <c r="C24" s="136"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="123"/>
+      <c r="E24" s="139"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -9278,6 +9357,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -9285,12 +9370,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/term_1/Assignment_Planner.xlsx
+++ b/term_1/Assignment_Planner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\UBCO_21-22\term_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404F87EB-B7B9-4AB6-ABA2-8AD3DB5F6D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8FAFA2-6B2F-463A-86A1-44584B8A13F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="43">
   <si>
     <t>Monday</t>
   </si>
@@ -161,16 +161,13 @@
     <t>Read Love in Excess</t>
   </si>
   <si>
-    <t>Compile COSC NOTES &amp; work on COSC 419 A1</t>
-  </si>
-  <si>
-    <t>Work on COSC 328 Lab 1</t>
-  </si>
-  <si>
     <t>Finish COSC 419 A1</t>
   </si>
   <si>
     <t>Read</t>
+  </si>
+  <si>
+    <t>Work on COSC 419 A1</t>
   </si>
 </sst>
 </file>
@@ -733,7 +730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -970,6 +967,69 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1015,68 +1075,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,7 +1412,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="I6" sqref="I6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,13 +1557,13 @@
       <c r="F6" s="48"/>
       <c r="G6" s="6"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="77">
+      <c r="K6" s="71">
         <v>44455</v>
       </c>
       <c r="L6" s="1"/>
@@ -2031,11 +2034,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -2107,10 +2110,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2126,8 +2129,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2141,8 +2144,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2156,8 +2159,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2171,7 +2174,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2186,7 +2189,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2201,15 +2204,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2222,11 +2225,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2237,11 +2240,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2252,7 +2255,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2267,7 +2270,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2282,7 +2285,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2297,16 +2300,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2320,10 +2323,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2335,10 +2338,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2351,11 +2354,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2370,9 +2373,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2385,9 +2388,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2487,12 +2490,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2500,6 +2497,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2553,11 +2556,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -2629,10 +2632,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2648,8 +2651,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2663,8 +2666,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2678,8 +2681,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2693,7 +2696,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2708,7 +2711,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2723,15 +2726,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2744,11 +2747,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2759,11 +2762,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2774,7 +2777,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2789,7 +2792,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2804,7 +2807,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2819,16 +2822,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2842,10 +2845,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2857,10 +2860,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2873,11 +2876,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2892,9 +2895,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2907,9 +2910,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3009,12 +3012,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3022,6 +3019,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3075,11 +3078,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -3151,10 +3154,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3170,8 +3173,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3185,8 +3188,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3200,8 +3203,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3215,7 +3218,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3230,7 +3233,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3245,15 +3248,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3266,11 +3269,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3281,11 +3284,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3296,7 +3299,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3311,7 +3314,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3326,7 +3329,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3341,16 +3344,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3364,10 +3367,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3379,10 +3382,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3395,11 +3398,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3414,9 +3417,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3429,9 +3432,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3531,12 +3534,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3544,6 +3541,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3597,11 +3600,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -3673,10 +3676,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3692,8 +3695,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3707,8 +3710,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3722,8 +3725,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3737,7 +3740,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3752,7 +3755,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3767,15 +3770,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3788,11 +3791,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3803,11 +3806,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3818,7 +3821,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3833,7 +3836,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3848,7 +3851,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3863,16 +3866,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3886,10 +3889,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3901,10 +3904,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3917,11 +3920,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3936,9 +3939,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3951,9 +3954,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4053,12 +4056,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4066,6 +4063,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4119,11 +4122,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -4195,10 +4198,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4214,8 +4217,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4229,8 +4232,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4244,8 +4247,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4259,7 +4262,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4274,7 +4277,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4289,15 +4292,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4310,11 +4313,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4325,11 +4328,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4340,7 +4343,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4355,7 +4358,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4370,7 +4373,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4385,16 +4388,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4408,10 +4411,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4423,10 +4426,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4439,11 +4442,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4458,9 +4461,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4473,9 +4476,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4575,12 +4578,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4588,6 +4585,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4641,11 +4644,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -4717,10 +4720,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4736,8 +4739,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4751,8 +4754,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4766,8 +4769,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4781,7 +4784,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4796,7 +4799,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4811,15 +4814,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4832,11 +4835,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4847,11 +4850,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4862,7 +4865,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4877,7 +4880,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4892,7 +4895,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4907,16 +4910,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4930,10 +4933,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4945,10 +4948,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4961,11 +4964,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4980,9 +4983,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4995,9 +4998,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5097,12 +5100,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5110,6 +5107,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5119,8 +5122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B3B8CC-D153-431F-BDAD-4E080E0238A8}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5129,6 +5132,7 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="17.85546875" style="68" customWidth="1"/>
@@ -5273,11 +5277,11 @@
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
-      <c r="E7" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="140" t="s">
-        <v>43</v>
+      <c r="E7" s="113" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="110" t="s">
+        <v>41</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="15"/>
@@ -5298,8 +5302,8 @@
       <c r="B8" s="102"/>
       <c r="C8" s="96"/>
       <c r="D8" s="53"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="141"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="111"/>
       <c r="G8" s="6"/>
       <c r="H8" s="15"/>
       <c r="I8" s="65" t="s">
@@ -5319,8 +5323,8 @@
       <c r="B9" s="102"/>
       <c r="C9" s="96"/>
       <c r="D9" s="53"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="141"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="6"/>
       <c r="H9" s="15"/>
       <c r="I9" s="66" t="s">
@@ -5341,26 +5345,26 @@
       <c r="C10" s="97"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
-      <c r="F10" s="141"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="6"/>
       <c r="H10" s="15"/>
       <c r="I10" s="66"/>
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
       <c r="B11" s="102"/>
       <c r="C11" s="55"/>
-      <c r="D11" s="140" t="s">
+      <c r="D11" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="143" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="142"/>
+      <c r="E11" s="113" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="112"/>
       <c r="G11" s="6"/>
       <c r="H11" s="15"/>
       <c r="I11" s="66"/>
@@ -5373,8 +5377,8 @@
       </c>
       <c r="B12" s="103"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="144"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="57"/>
       <c r="G12" s="6"/>
       <c r="H12" s="15"/>
@@ -5392,8 +5396,8 @@
       <c r="C13" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="145"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="115"/>
       <c r="F13" s="95" t="s">
         <v>22</v>
       </c>
@@ -5409,7 +5413,7 @@
       </c>
       <c r="B14" s="105"/>
       <c r="C14" s="96"/>
-      <c r="D14" s="53"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="54"/>
       <c r="F14" s="96"/>
       <c r="G14" s="6"/>
@@ -5418,17 +5422,15 @@
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
       <c r="B15" s="105"/>
       <c r="C15" s="97"/>
-      <c r="D15" s="140" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="143" t="s">
-        <v>43</v>
+      <c r="D15" s="111"/>
+      <c r="E15" s="113" t="s">
+        <v>41</v>
       </c>
       <c r="F15" s="97"/>
       <c r="G15" s="6"/>
@@ -5443,8 +5445,8 @@
       </c>
       <c r="B16" s="105"/>
       <c r="C16" s="55"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="144"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="114"/>
       <c r="F16" s="58"/>
       <c r="G16" s="6"/>
       <c r="H16" s="15"/>
@@ -5458,8 +5460,8 @@
       </c>
       <c r="B17" s="105"/>
       <c r="C17" s="54"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="145"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="115"/>
       <c r="F17" s="53"/>
       <c r="G17" s="6"/>
       <c r="H17" s="15"/>
@@ -5560,8 +5562,8 @@
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="84"/>
-      <c r="D23" s="140" t="s">
-        <v>41</v>
+      <c r="D23" s="110" t="s">
+        <v>42</v>
       </c>
       <c r="E23" s="93"/>
       <c r="F23" s="53"/>
@@ -5577,7 +5579,7 @@
       </c>
       <c r="B24" s="53"/>
       <c r="C24" s="85"/>
-      <c r="D24" s="141"/>
+      <c r="D24" s="111"/>
       <c r="E24" s="94"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
@@ -5592,7 +5594,7 @@
       </c>
       <c r="B25" s="53"/>
       <c r="C25" s="55"/>
-      <c r="D25" s="142"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="55"/>
       <c r="F25" s="53"/>
       <c r="G25" s="6"/>
@@ -5677,7 +5679,19 @@
       <c r="K30" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B7:B12"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="D11:D15"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="D19:D21"/>
@@ -5685,19 +5699,6 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="E22:E24"/>
     <mergeCell ref="D23:D25"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F7:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6216,12 +6217,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6229,6 +6224,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6747,12 +6748,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6760,6 +6755,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7269,12 +7270,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7282,6 +7277,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7335,11 +7336,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -7411,10 +7412,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7430,8 +7431,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7445,8 +7446,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7460,8 +7461,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7475,7 +7476,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7490,7 +7491,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7505,15 +7506,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7526,11 +7527,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -7541,11 +7542,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -7556,7 +7557,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7571,7 +7572,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7586,7 +7587,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7601,16 +7602,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7624,10 +7625,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7639,10 +7640,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -7655,11 +7656,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -7674,9 +7675,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7689,9 +7690,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7791,12 +7792,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7804,6 +7799,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7857,11 +7858,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -7933,10 +7934,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7952,8 +7953,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7967,8 +7968,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7982,8 +7983,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7997,7 +7998,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8012,7 +8013,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8027,15 +8028,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8048,11 +8049,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8063,11 +8064,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8078,7 +8079,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8093,7 +8094,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8108,7 +8109,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8123,16 +8124,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8146,10 +8147,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8161,10 +8162,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8177,11 +8178,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8196,9 +8197,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8211,9 +8212,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8313,12 +8314,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8326,6 +8321,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8379,11 +8380,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -8455,10 +8456,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8474,8 +8475,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8489,8 +8490,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8504,8 +8505,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8519,7 +8520,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8534,7 +8535,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8549,15 +8550,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8570,11 +8571,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8585,11 +8586,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8600,7 +8601,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8615,7 +8616,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8630,7 +8631,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8645,16 +8646,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8668,10 +8669,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8683,10 +8684,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8699,11 +8700,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8718,9 +8719,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8733,9 +8734,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8835,12 +8836,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8848,6 +8843,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8901,11 +8902,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
@@ -8977,10 +8978,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8996,8 +8997,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -9011,8 +9012,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -9026,8 +9027,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -9041,7 +9042,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -9056,7 +9057,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -9071,15 +9072,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -9092,11 +9093,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -9107,11 +9108,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -9122,7 +9123,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -9137,7 +9138,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -9152,7 +9153,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -9167,16 +9168,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -9190,10 +9191,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -9205,10 +9206,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -9221,11 +9222,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -9240,9 +9241,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -9255,9 +9256,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -9357,12 +9358,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -9370,6 +9365,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/term_1/Assignment_Planner.xlsx
+++ b/term_1/Assignment_Planner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\UBCO_21-22\term_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\GitHub\UBCO_21-22\term_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404F87EB-B7B9-4AB6-ABA2-8AD3DB5F6D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEE5987-B189-47EF-BC9D-08FC20CE33D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
+    <workbookView xWindow="1800" yWindow="1800" windowWidth="14400" windowHeight="7495" activeTab="1" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="45">
   <si>
     <t>Monday</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Read</t>
+  </si>
+  <si>
+    <t>Quiz 1</t>
   </si>
 </sst>
 </file>
@@ -970,6 +973,69 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1014,69 +1080,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1412,19 +1415,19 @@
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="26.40625" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="68" customWidth="1"/>
+    <col min="6" max="6" width="19.1328125" customWidth="1"/>
+    <col min="7" max="7" width="12.86328125" customWidth="1"/>
+    <col min="9" max="9" width="13.40625" style="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
@@ -1439,7 +1442,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -1471,7 +1474,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -1495,7 +1498,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="30.25" x14ac:dyDescent="0.9">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -1519,7 +1522,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="40.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -1543,7 +1546,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="30.25" x14ac:dyDescent="0.9">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -1567,7 +1570,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="30.25" x14ac:dyDescent="0.9">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
@@ -1595,7 +1598,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
@@ -1613,7 +1616,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
@@ -1628,7 +1631,7 @@
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
@@ -1643,7 +1646,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
@@ -1658,7 +1661,7 @@
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
@@ -1673,7 +1676,7 @@
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
@@ -1694,7 +1697,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
@@ -1709,7 +1712,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
@@ -1724,7 +1727,7 @@
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
@@ -1739,7 +1742,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
@@ -1754,7 +1757,7 @@
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
@@ -1769,7 +1772,7 @@
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
@@ -1792,7 +1795,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
@@ -1807,7 +1810,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
@@ -1822,7 +1825,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
@@ -1841,7 +1844,7 @@
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
@@ -1856,7 +1859,7 @@
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
@@ -1871,7 +1874,7 @@
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -1886,7 +1889,7 @@
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -1901,7 +1904,7 @@
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -1916,7 +1919,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -1931,7 +1934,7 @@
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -1946,7 +1949,7 @@
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -1991,9 +1994,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
@@ -2008,7 +2011,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -2031,13 +2034,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -2058,7 +2061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -2073,7 +2076,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -2088,7 +2091,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -2103,14 +2106,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2122,12 +2125,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2137,12 +2140,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2152,12 +2155,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2167,11 +2170,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2182,11 +2185,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2197,19 +2200,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2218,41 +2221,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2263,11 +2266,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2278,11 +2281,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2293,20 +2296,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2316,14 +2319,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2331,14 +2334,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2346,16 +2349,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2365,14 +2368,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2380,14 +2383,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2395,7 +2398,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -2410,7 +2413,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -2425,7 +2428,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -2440,7 +2443,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -2455,7 +2458,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -2470,7 +2473,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -2487,12 +2490,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2500,6 +2497,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2513,9 +2516,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
@@ -2530,7 +2533,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -2553,13 +2556,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -2595,7 +2598,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -2610,7 +2613,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -2625,14 +2628,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2644,12 +2647,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2659,12 +2662,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2674,12 +2677,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2689,11 +2692,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2704,11 +2707,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2719,19 +2722,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2740,41 +2743,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2785,11 +2788,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2800,11 +2803,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2815,20 +2818,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2838,14 +2841,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2853,14 +2856,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2868,16 +2871,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2887,14 +2890,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2902,14 +2905,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2917,7 +2920,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -2932,7 +2935,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -2947,7 +2950,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -2962,7 +2965,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -2977,7 +2980,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -2992,7 +2995,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -3009,12 +3012,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3022,6 +3019,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3035,9 +3038,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
@@ -3052,7 +3055,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -3075,13 +3078,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -3117,7 +3120,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -3132,7 +3135,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -3147,14 +3150,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3166,12 +3169,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3181,12 +3184,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3196,12 +3199,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3211,11 +3214,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3226,11 +3229,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3241,19 +3244,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3262,41 +3265,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3307,11 +3310,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3322,11 +3325,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3337,20 +3340,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3360,14 +3363,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3375,14 +3378,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3390,16 +3393,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3409,14 +3412,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3424,14 +3427,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3439,7 +3442,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -3454,7 +3457,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -3469,7 +3472,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -3484,7 +3487,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -3499,7 +3502,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -3514,7 +3517,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -3531,12 +3534,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3544,6 +3541,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3557,9 +3560,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
@@ -3574,7 +3577,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -3597,13 +3600,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -3639,7 +3642,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -3654,7 +3657,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -3669,14 +3672,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3688,12 +3691,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3703,12 +3706,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3718,12 +3721,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3733,11 +3736,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3748,11 +3751,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3763,19 +3766,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3784,41 +3787,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3829,11 +3832,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3844,11 +3847,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3859,20 +3862,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3882,14 +3885,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3897,14 +3900,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3912,16 +3915,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3931,14 +3934,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3946,14 +3949,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3961,7 +3964,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -3976,7 +3979,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -3991,7 +3994,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -4006,7 +4009,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -4021,7 +4024,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -4036,7 +4039,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -4053,12 +4056,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4066,6 +4063,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4079,9 +4082,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
@@ -4096,7 +4099,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -4119,13 +4122,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -4146,7 +4149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -4161,7 +4164,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -4176,7 +4179,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -4191,14 +4194,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4210,12 +4213,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4225,12 +4228,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4240,12 +4243,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4255,11 +4258,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4270,11 +4273,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4285,19 +4288,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4306,41 +4309,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4351,11 +4354,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4366,11 +4369,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4381,20 +4384,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4404,14 +4407,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4419,14 +4422,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4434,16 +4437,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4453,14 +4456,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4468,14 +4471,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4483,7 +4486,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -4498,7 +4501,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -4513,7 +4516,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -4528,7 +4531,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -4543,7 +4546,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -4558,7 +4561,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -4575,12 +4578,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4588,6 +4585,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4601,9 +4604,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
@@ -4618,7 +4621,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -4641,13 +4644,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -4668,7 +4671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -4683,7 +4686,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -4698,7 +4701,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -4713,14 +4716,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4732,12 +4735,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4747,12 +4750,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4762,12 +4765,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4777,11 +4780,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4792,11 +4795,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4807,19 +4810,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4828,41 +4831,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4873,11 +4876,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4888,11 +4891,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4903,20 +4906,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4926,14 +4929,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4941,14 +4944,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4956,16 +4959,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4975,14 +4978,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4990,14 +4993,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5005,7 +5008,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -5020,7 +5023,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -5035,7 +5038,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -5050,7 +5053,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -5065,7 +5068,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -5080,7 +5083,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -5097,12 +5100,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5110,6 +5107,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5119,22 +5122,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B3B8CC-D153-431F-BDAD-4E080E0238A8}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="68" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" customWidth="1"/>
+    <col min="9" max="9" width="17.86328125" style="68" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="82" t="s">
         <v>31</v>
       </c>
@@ -5149,7 +5152,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -5178,7 +5181,7 @@
       <c r="J2" s="99"/>
       <c r="K2" s="100"/>
     </row>
-    <row r="3" spans="1:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -5199,7 +5202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -5220,7 +5223,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -5241,7 +5244,7 @@
         <v>44465</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -5262,7 +5265,7 @@
         <v>44459</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
@@ -5273,10 +5276,10 @@
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
-      <c r="E7" s="143" t="s">
+      <c r="E7" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="140" t="s">
+      <c r="F7" s="110" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="6"/>
@@ -5291,15 +5294,15 @@
         <v>44459</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
       <c r="B8" s="102"/>
       <c r="C8" s="96"/>
       <c r="D8" s="53"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="141"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="111"/>
       <c r="G8" s="6"/>
       <c r="H8" s="15"/>
       <c r="I8" s="65" t="s">
@@ -5312,15 +5315,15 @@
         <v>44476</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
       <c r="B9" s="102"/>
       <c r="C9" s="96"/>
       <c r="D9" s="53"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="141"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="6"/>
       <c r="H9" s="15"/>
       <c r="I9" s="66" t="s">
@@ -5333,7 +5336,7 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
@@ -5341,40 +5344,46 @@
       <c r="C10" s="97"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
-      <c r="F10" s="141"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="6"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="33"/>
-    </row>
-    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="I10" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="81">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
       <c r="B11" s="102"/>
       <c r="C11" s="55"/>
-      <c r="D11" s="140" t="s">
+      <c r="D11" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="143" t="s">
+      <c r="E11" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="142"/>
+      <c r="F11" s="112"/>
       <c r="G11" s="6"/>
       <c r="H11" s="15"/>
       <c r="I11" s="66"/>
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
       <c r="B12" s="103"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="144"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="57"/>
       <c r="G12" s="6"/>
       <c r="H12" s="15"/>
@@ -5382,7 +5391,7 @@
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
@@ -5392,8 +5401,8 @@
       <c r="C13" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="142"/>
-      <c r="E13" s="145"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="115"/>
       <c r="F13" s="95" t="s">
         <v>22</v>
       </c>
@@ -5403,7 +5412,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
@@ -5418,16 +5427,16 @@
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
       <c r="B15" s="105"/>
       <c r="C15" s="97"/>
-      <c r="D15" s="140" t="s">
+      <c r="D15" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="143" t="s">
+      <c r="E15" s="113" t="s">
         <v>43</v>
       </c>
       <c r="F15" s="97"/>
@@ -5437,14 +5446,14 @@
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
       <c r="B16" s="105"/>
       <c r="C16" s="55"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="144"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="114"/>
       <c r="F16" s="58"/>
       <c r="G16" s="6"/>
       <c r="H16" s="15"/>
@@ -5452,14 +5461,14 @@
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
       <c r="B17" s="105"/>
       <c r="C17" s="54"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="145"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="115"/>
       <c r="F17" s="53"/>
       <c r="G17" s="6"/>
       <c r="H17" s="15"/>
@@ -5467,7 +5476,7 @@
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
@@ -5482,7 +5491,7 @@
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
@@ -5505,7 +5514,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
@@ -5520,7 +5529,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
@@ -5535,7 +5544,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
@@ -5554,13 +5563,13 @@
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
       <c r="C23" s="84"/>
-      <c r="D23" s="140" t="s">
+      <c r="D23" s="110" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="93"/>
@@ -5571,13 +5580,13 @@
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
       <c r="C24" s="85"/>
-      <c r="D24" s="141"/>
+      <c r="D24" s="111"/>
       <c r="E24" s="94"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
@@ -5586,13 +5595,13 @@
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
       <c r="B25" s="53"/>
       <c r="C25" s="55"/>
-      <c r="D25" s="142"/>
+      <c r="D25" s="112"/>
       <c r="E25" s="55"/>
       <c r="F25" s="53"/>
       <c r="G25" s="6"/>
@@ -5601,7 +5610,7 @@
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -5616,7 +5625,7 @@
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -5631,7 +5640,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -5646,7 +5655,7 @@
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -5661,7 +5670,7 @@
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -5678,13 +5687,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5698,6 +5700,13 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="F7:F11"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5711,18 +5720,18 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.40625" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="33.7265625" customWidth="1"/>
+    <col min="4" max="4" width="22.54296875" customWidth="1"/>
+    <col min="5" max="5" width="21.86328125" customWidth="1"/>
+    <col min="6" max="6" width="30.86328125" customWidth="1"/>
+    <col min="8" max="8" width="22.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="82" t="s">
         <v>33</v>
       </c>
@@ -5737,7 +5746,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -5766,7 +5775,7 @@
       <c r="J2" s="99"/>
       <c r="K2" s="100"/>
     </row>
-    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -5787,7 +5796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -5802,7 +5811,7 @@
       <c r="J4" s="39"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -5817,7 +5826,7 @@
       <c r="J5" s="40"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -5832,7 +5841,7 @@
       <c r="J6" s="40"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
@@ -5851,7 +5860,7 @@
       <c r="J7" s="40"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
@@ -5866,7 +5875,7 @@
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
@@ -5881,7 +5890,7 @@
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
@@ -5896,7 +5905,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
@@ -5911,7 +5920,7 @@
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
@@ -5926,7 +5935,7 @@
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
@@ -5947,7 +5956,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
@@ -5962,7 +5971,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
@@ -5977,7 +5986,7 @@
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
@@ -5992,7 +6001,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
@@ -6007,7 +6016,7 @@
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
@@ -6022,7 +6031,7 @@
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
@@ -6045,7 +6054,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
@@ -6060,7 +6069,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
@@ -6075,7 +6084,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
@@ -6094,7 +6103,7 @@
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
@@ -6109,7 +6118,7 @@
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
@@ -6124,7 +6133,7 @@
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -6139,7 +6148,7 @@
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -6154,7 +6163,7 @@
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -6169,7 +6178,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -6184,7 +6193,7 @@
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -6199,7 +6208,7 @@
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -6216,12 +6225,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6229,6 +6232,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6242,18 +6251,18 @@
       <selection activeCell="K30" sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.86328125" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
@@ -6268,7 +6277,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -6297,7 +6306,7 @@
       <c r="J2" s="99"/>
       <c r="K2" s="100"/>
     </row>
-    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -6318,7 +6327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -6333,7 +6342,7 @@
       <c r="J4" s="39"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -6348,7 +6357,7 @@
       <c r="J5" s="40"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -6363,7 +6372,7 @@
       <c r="J6" s="40"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
@@ -6382,7 +6391,7 @@
       <c r="J7" s="40"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
@@ -6397,7 +6406,7 @@
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
@@ -6412,7 +6421,7 @@
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
@@ -6427,7 +6436,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
@@ -6442,7 +6451,7 @@
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
@@ -6457,7 +6466,7 @@
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
@@ -6478,7 +6487,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
@@ -6493,7 +6502,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
@@ -6508,7 +6517,7 @@
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
@@ -6523,7 +6532,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
@@ -6538,7 +6547,7 @@
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
@@ -6553,7 +6562,7 @@
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
@@ -6576,7 +6585,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
@@ -6591,7 +6600,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
@@ -6606,7 +6615,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
@@ -6625,7 +6634,7 @@
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
@@ -6640,7 +6649,7 @@
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
@@ -6655,7 +6664,7 @@
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -6670,7 +6679,7 @@
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -6685,7 +6694,7 @@
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -6700,7 +6709,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -6715,7 +6724,7 @@
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -6730,7 +6739,7 @@
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -6747,12 +6756,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6760,6 +6763,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6773,9 +6782,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
@@ -6790,7 +6799,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
       <c r="B2" s="50" t="s">
         <v>0</v>
@@ -6819,7 +6828,7 @@
       <c r="J2" s="99"/>
       <c r="K2" s="100"/>
     </row>
-    <row r="3" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -6840,7 +6849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A4" s="44">
         <v>0.27083333333333331</v>
       </c>
@@ -6855,7 +6864,7 @@
       <c r="J4" s="39"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -6870,7 +6879,7 @@
       <c r="J5" s="40"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A6" s="44">
         <v>0.3125</v>
       </c>
@@ -6885,7 +6894,7 @@
       <c r="J6" s="40"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
@@ -6904,7 +6913,7 @@
       <c r="J7" s="40"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
@@ -6919,7 +6928,7 @@
       <c r="J8" s="40"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
@@ -6934,7 +6943,7 @@
       <c r="J9" s="41"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
@@ -6949,7 +6958,7 @@
       <c r="J10" s="41"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
@@ -6964,7 +6973,7 @@
       <c r="J11" s="41"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
@@ -6979,7 +6988,7 @@
       <c r="J12" s="41"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
@@ -7000,7 +7009,7 @@
       <c r="J13" s="41"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
@@ -7015,7 +7024,7 @@
       <c r="J14" s="41"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
@@ -7030,7 +7039,7 @@
       <c r="J15" s="41"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
@@ -7045,7 +7054,7 @@
       <c r="J16" s="41"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
@@ -7060,7 +7069,7 @@
       <c r="J17" s="41"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
@@ -7075,7 +7084,7 @@
       <c r="J18" s="41"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
@@ -7098,7 +7107,7 @@
       <c r="J19" s="41"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
@@ -7113,7 +7122,7 @@
       <c r="J20" s="41"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
@@ -7128,7 +7137,7 @@
       <c r="J21" s="41"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A22" s="44">
         <v>0.64583333333333304</v>
       </c>
@@ -7147,7 +7156,7 @@
       <c r="J22" s="41"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A23" s="44">
         <v>0.66666666666666596</v>
       </c>
@@ -7162,7 +7171,7 @@
       <c r="J23" s="41"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A24" s="44">
         <v>0.6875</v>
       </c>
@@ -7177,7 +7186,7 @@
       <c r="J24" s="41"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A25" s="44">
         <v>0.70833333333333304</v>
       </c>
@@ -7192,7 +7201,7 @@
       <c r="J25" s="41"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A26" s="44">
         <v>0.72916666666666596</v>
       </c>
@@ -7207,7 +7216,7 @@
       <c r="J26" s="41"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A27" s="44">
         <v>0.75</v>
       </c>
@@ -7222,7 +7231,7 @@
       <c r="J27" s="41"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A28" s="44">
         <v>0.77083333333333304</v>
       </c>
@@ -7237,7 +7246,7 @@
       <c r="J28" s="41"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A29" s="44">
         <v>0.79166666666666596</v>
       </c>
@@ -7252,7 +7261,7 @@
       <c r="J29" s="41"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A30" s="45">
         <v>0.8125</v>
       </c>
@@ -7269,12 +7278,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7282,6 +7285,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7295,9 +7304,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
@@ -7312,7 +7321,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -7335,13 +7344,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -7362,7 +7371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -7377,7 +7386,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -7392,7 +7401,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -7407,14 +7416,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7426,12 +7435,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7441,12 +7450,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7456,12 +7465,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7471,11 +7480,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7486,11 +7495,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7501,19 +7510,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7522,41 +7531,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7567,11 +7576,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7582,11 +7591,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7597,20 +7606,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7620,14 +7629,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7635,14 +7644,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -7650,16 +7659,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -7669,14 +7678,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7684,14 +7693,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7699,7 +7708,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -7714,7 +7723,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -7729,7 +7738,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -7744,7 +7753,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -7759,7 +7768,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -7774,7 +7783,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -7791,12 +7800,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7804,6 +7807,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7817,9 +7826,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
@@ -7834,7 +7843,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -7857,13 +7866,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -7884,7 +7893,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -7899,7 +7908,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -7914,7 +7923,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -7929,14 +7938,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7948,12 +7957,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7963,12 +7972,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7978,12 +7987,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7993,11 +8002,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8008,11 +8017,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8023,19 +8032,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8044,41 +8053,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8089,11 +8098,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8104,11 +8113,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8119,20 +8128,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8142,14 +8151,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8157,14 +8166,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8172,16 +8181,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8191,14 +8200,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8206,14 +8215,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8221,7 +8230,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -8236,7 +8245,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -8251,7 +8260,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -8266,7 +8275,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -8281,7 +8290,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -8296,7 +8305,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -8313,12 +8322,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8326,6 +8329,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8339,9 +8348,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
@@ -8356,7 +8365,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -8379,13 +8388,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -8406,7 +8415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -8421,7 +8430,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -8436,7 +8445,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -8451,14 +8460,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8470,12 +8479,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8485,12 +8494,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8500,12 +8509,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8515,11 +8524,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8530,11 +8539,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8545,19 +8554,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8566,41 +8575,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8611,11 +8620,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8626,11 +8635,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8641,20 +8650,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8664,14 +8673,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8679,14 +8688,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8694,16 +8703,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8713,14 +8722,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8728,14 +8737,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8743,7 +8752,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -8758,7 +8767,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -8773,7 +8782,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -8788,7 +8797,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -8803,7 +8812,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -8818,7 +8827,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -8835,12 +8844,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8848,6 +8851,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8861,9 +8870,9 @@
       <selection sqref="A1:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A1" s="82" t="s">
         <v>18</v>
       </c>
@@ -8878,7 +8887,7 @@
       <c r="J1" s="82"/>
       <c r="K1" s="82"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -8901,13 +8910,13 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="110" t="s">
+      <c r="I2" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="112"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
         <v>0.25</v>
       </c>
@@ -8928,7 +8937,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" s="14">
         <v>0.27083333333333331</v>
       </c>
@@ -8943,7 +8952,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" s="14">
         <v>0.29166666666666702</v>
       </c>
@@ -8958,7 +8967,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="32"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" s="14">
         <v>0.3125</v>
       </c>
@@ -8973,14 +8982,14 @@
       <c r="J6" s="27"/>
       <c r="K6" s="32"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="137" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8992,12 +9001,12 @@
       <c r="J7" s="27"/>
       <c r="K7" s="32"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="138"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -9007,12 +9016,12 @@
       <c r="J8" s="27"/>
       <c r="K8" s="32"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="138"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -9022,12 +9031,12 @@
       <c r="J9" s="28"/>
       <c r="K9" s="33"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="118"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -9037,11 +9046,11 @@
       <c r="J10" s="28"/>
       <c r="K10" s="33"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="114"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -9052,11 +9061,11 @@
       <c r="J11" s="28"/>
       <c r="K11" s="33"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="115"/>
+      <c r="B12" s="136"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -9067,19 +9076,19 @@
       <c r="J12" s="28"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="143" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="137" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -9088,41 +9097,41 @@
       <c r="J13" s="28"/>
       <c r="K13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="120"/>
-      <c r="C14" s="123"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="144"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="117"/>
+      <c r="F14" s="138"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
       <c r="J14" s="28"/>
       <c r="K14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="120"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="145"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="118"/>
+      <c r="F15" s="139"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
       <c r="J15" s="28"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="120"/>
+      <c r="B16" s="141"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -9133,11 +9142,11 @@
       <c r="J16" s="28"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="120"/>
+      <c r="B17" s="141"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -9148,11 +9157,11 @@
       <c r="J17" s="28"/>
       <c r="K17" s="33"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="121"/>
+      <c r="B18" s="142"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -9163,20 +9172,20 @@
       <c r="J18" s="28"/>
       <c r="K18" s="33"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="125" t="s">
+      <c r="B19" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="128" t="s">
+      <c r="C19" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="128" t="s">
+      <c r="E19" s="119" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -9186,14 +9195,14 @@
       <c r="J19" s="28"/>
       <c r="K19" s="33"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="129"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="120"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -9201,14 +9210,14 @@
       <c r="J20" s="28"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="127"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="130"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="121"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -9216,16 +9225,16 @@
       <c r="J21" s="28"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" s="14">
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="137" t="s">
+      <c r="E22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -9235,14 +9244,14 @@
       <c r="J22" s="28"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" s="14">
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="135"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="138"/>
+      <c r="E23" s="129"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -9250,14 +9259,14 @@
       <c r="J23" s="28"/>
       <c r="K23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" s="14">
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="136"/>
+      <c r="C24" s="127"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="139"/>
+      <c r="E24" s="130"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -9265,7 +9274,7 @@
       <c r="J24" s="28"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" s="14">
         <v>0.70833333333333304</v>
       </c>
@@ -9280,7 +9289,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" s="14">
         <v>0.72916666666666596</v>
       </c>
@@ -9295,7 +9304,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" s="14">
         <v>0.75</v>
       </c>
@@ -9310,7 +9319,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" s="14">
         <v>0.77083333333333304</v>
       </c>
@@ -9325,7 +9334,7 @@
       <c r="J28" s="28"/>
       <c r="K28" s="33"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" s="14">
         <v>0.79166666666666596</v>
       </c>
@@ -9340,7 +9349,7 @@
       <c r="J29" s="28"/>
       <c r="K29" s="33"/>
     </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A30" s="16">
         <v>0.8125</v>
       </c>
@@ -9357,12 +9366,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -9370,6 +9373,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/term_1/Assignment_Planner.xlsx
+++ b/term_1/Assignment_Planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\GitHub\UBCO_21-22\term_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEE5987-B189-47EF-BC9D-08FC20CE33D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CD25A9-A676-4FB9-A6C6-A8EB5ACCA5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1800" windowWidth="14400" windowHeight="7495" activeTab="1" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" activeTab="1" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -736,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -991,6 +991,51 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1036,51 +1081,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1412,7 +1417,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1557,13 +1562,13 @@
       <c r="F6" s="48"/>
       <c r="G6" s="6"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="75" t="s">
+      <c r="I6" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="77">
+      <c r="K6" s="71">
         <v>44455</v>
       </c>
       <c r="L6" s="1"/>
@@ -2034,11 +2039,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="133"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -2110,10 +2115,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="122" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2129,8 +2134,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="138"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2144,8 +2149,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="138"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2159,8 +2164,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="139"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2174,7 +2179,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="135"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2189,7 +2194,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="136"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2204,15 +2209,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="128" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2225,11 +2230,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="144"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="138"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2240,11 +2245,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="145"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="139"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2255,7 +2260,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="141"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2270,7 +2275,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="141"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2285,7 +2290,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="142"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2300,16 +2305,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="134" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2323,10 +2328,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="120"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="135"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2338,10 +2343,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="121"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="136"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2354,11 +2359,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="140" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="128" t="s">
+      <c r="E22" s="143" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2373,9 +2378,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="126"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="129"/>
+      <c r="E23" s="144"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2388,9 +2393,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="127"/>
+      <c r="C24" s="142"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="130"/>
+      <c r="E24" s="145"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2490,6 +2495,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2497,12 +2508,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2556,11 +2561,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="133"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -2632,10 +2637,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="122" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2651,8 +2656,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="138"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2666,8 +2671,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="138"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2681,8 +2686,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="139"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2696,7 +2701,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="135"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2711,7 +2716,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="136"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2726,15 +2731,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="128" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2747,11 +2752,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="144"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="138"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2762,11 +2767,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="145"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="139"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2777,7 +2782,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="141"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2792,7 +2797,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="141"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2807,7 +2812,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="142"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2822,16 +2827,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="134" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2845,10 +2850,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="120"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="135"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2860,10 +2865,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="121"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="136"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2876,11 +2881,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="140" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="128" t="s">
+      <c r="E22" s="143" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2895,9 +2900,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="126"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="129"/>
+      <c r="E23" s="144"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2910,9 +2915,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="127"/>
+      <c r="C24" s="142"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="130"/>
+      <c r="E24" s="145"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3012,6 +3017,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3019,12 +3030,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3078,11 +3083,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="133"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -3154,10 +3159,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="122" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3173,8 +3178,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="138"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3188,8 +3193,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="138"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3203,8 +3208,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="139"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3218,7 +3223,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="135"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3233,7 +3238,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="136"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3248,15 +3253,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="128" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3269,11 +3274,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="144"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="138"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3284,11 +3289,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="145"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="139"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3299,7 +3304,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="141"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3314,7 +3319,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="141"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3329,7 +3334,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="142"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3344,16 +3349,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="134" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3367,10 +3372,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="120"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="135"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3382,10 +3387,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="121"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="136"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3398,11 +3403,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="140" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="128" t="s">
+      <c r="E22" s="143" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3417,9 +3422,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="126"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="129"/>
+      <c r="E23" s="144"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3432,9 +3437,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="127"/>
+      <c r="C24" s="142"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="130"/>
+      <c r="E24" s="145"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3534,6 +3539,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3541,12 +3552,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3600,11 +3605,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="133"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -3676,10 +3681,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="122" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3695,8 +3700,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="138"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3710,8 +3715,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="138"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3725,8 +3730,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="139"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3740,7 +3745,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="135"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3755,7 +3760,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="136"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3770,15 +3775,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="128" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3791,11 +3796,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="144"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="138"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3806,11 +3811,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="145"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="139"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3821,7 +3826,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="141"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3836,7 +3841,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="141"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3851,7 +3856,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="142"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3866,16 +3871,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="134" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3889,10 +3894,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="120"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="135"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3904,10 +3909,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="121"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="136"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3920,11 +3925,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="140" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="128" t="s">
+      <c r="E22" s="143" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3939,9 +3944,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="126"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="129"/>
+      <c r="E23" s="144"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3954,9 +3959,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="127"/>
+      <c r="C24" s="142"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="130"/>
+      <c r="E24" s="145"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4056,6 +4061,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4063,12 +4074,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4122,11 +4127,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="133"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -4198,10 +4203,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="122" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4217,8 +4222,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="138"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4232,8 +4237,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="138"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4247,8 +4252,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="139"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4262,7 +4267,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="135"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4277,7 +4282,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="136"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4292,15 +4297,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="128" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4313,11 +4318,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="144"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="138"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4328,11 +4333,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="145"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="139"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4343,7 +4348,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="141"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4358,7 +4363,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="141"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4373,7 +4378,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="142"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4388,16 +4393,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="134" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4411,10 +4416,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="120"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="135"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4426,10 +4431,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="121"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="136"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4442,11 +4447,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="140" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="128" t="s">
+      <c r="E22" s="143" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4461,9 +4466,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="126"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="129"/>
+      <c r="E23" s="144"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4476,9 +4481,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="127"/>
+      <c r="C24" s="142"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="130"/>
+      <c r="E24" s="145"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4578,6 +4583,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4585,12 +4596,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4644,11 +4649,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="133"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -4720,10 +4725,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="122" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4739,8 +4744,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="138"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4754,8 +4759,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="138"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4769,8 +4774,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="139"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4784,7 +4789,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="135"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4799,7 +4804,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="136"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4814,15 +4819,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="128" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4835,11 +4840,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="144"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="138"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4850,11 +4855,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="145"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="139"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4865,7 +4870,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="141"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4880,7 +4885,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="141"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4895,7 +4900,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="142"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4910,16 +4915,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="134" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4933,10 +4938,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="120"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="135"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4948,10 +4953,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="121"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="136"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4964,11 +4969,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="140" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="128" t="s">
+      <c r="E22" s="143" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4983,9 +4988,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="126"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="129"/>
+      <c r="E23" s="144"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4998,9 +5003,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="127"/>
+      <c r="C24" s="142"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="130"/>
+      <c r="E24" s="145"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5100,6 +5105,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5107,12 +5118,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5122,8 +5127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B3B8CC-D153-431F-BDAD-4E080E0238A8}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5347,13 +5352,13 @@
       <c r="F10" s="111"/>
       <c r="G10" s="6"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="41" t="s">
+      <c r="J10" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="81">
+      <c r="K10" s="148">
         <v>44455</v>
       </c>
     </row>
@@ -5687,6 +5692,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5700,13 +5712,6 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="F7:F11"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6225,6 +6230,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6232,12 +6243,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6756,6 +6761,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6763,12 +6774,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7278,6 +7283,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7285,12 +7296,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7344,11 +7349,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="133"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -7420,10 +7425,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="122" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7439,8 +7444,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="138"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7454,8 +7459,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="138"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7469,8 +7474,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="139"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7484,7 +7489,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="135"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7499,7 +7504,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="136"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7514,15 +7519,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="128" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7535,11 +7540,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="144"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="138"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -7550,11 +7555,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="145"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="139"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -7565,7 +7570,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="141"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7580,7 +7585,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="141"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7595,7 +7600,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="142"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7610,16 +7615,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="134" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7633,10 +7638,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="120"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="135"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7648,10 +7653,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="121"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="136"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -7664,11 +7669,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="140" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="128" t="s">
+      <c r="E22" s="143" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -7683,9 +7688,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="126"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="129"/>
+      <c r="E23" s="144"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7698,9 +7703,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="127"/>
+      <c r="C24" s="142"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="130"/>
+      <c r="E24" s="145"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7800,6 +7805,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7807,12 +7818,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7866,11 +7871,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="133"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -7942,10 +7947,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="122" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7961,8 +7966,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="138"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7976,8 +7981,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="138"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7991,8 +7996,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="139"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8006,7 +8011,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="135"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8021,7 +8026,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="136"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8036,15 +8041,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="128" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8057,11 +8062,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="144"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="138"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8072,11 +8077,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="145"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="139"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8087,7 +8092,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="141"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8102,7 +8107,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="141"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8117,7 +8122,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="142"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8132,16 +8137,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="134" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8155,10 +8160,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="120"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="135"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8170,10 +8175,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="121"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="136"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8186,11 +8191,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="140" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="128" t="s">
+      <c r="E22" s="143" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8205,9 +8210,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="126"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="129"/>
+      <c r="E23" s="144"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8220,9 +8225,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="127"/>
+      <c r="C24" s="142"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="130"/>
+      <c r="E24" s="145"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8322,6 +8327,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8329,12 +8340,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8388,11 +8393,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="133"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -8464,10 +8469,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="122" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8483,8 +8488,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="138"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8498,8 +8503,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="138"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8513,8 +8518,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="139"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8528,7 +8533,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="135"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8543,7 +8548,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="136"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8558,15 +8563,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="128" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8579,11 +8584,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="144"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="138"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8594,11 +8599,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="145"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="139"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8609,7 +8614,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="141"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8624,7 +8629,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="141"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8639,7 +8644,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="142"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8654,16 +8659,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="134" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8677,10 +8682,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="120"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="135"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8692,10 +8697,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="121"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="136"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8708,11 +8713,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="140" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="128" t="s">
+      <c r="E22" s="143" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8727,9 +8732,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="126"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="129"/>
+      <c r="E23" s="144"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8742,9 +8747,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="127"/>
+      <c r="C24" s="142"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="130"/>
+      <c r="E24" s="145"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8844,6 +8849,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8851,12 +8862,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8910,11 +8915,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="131" t="s">
+      <c r="I2" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="133"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -8986,10 +8991,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="122" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -9005,8 +9010,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="138"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -9020,8 +9025,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="138"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -9035,8 +9040,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="135"/>
-      <c r="C10" s="139"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="124"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -9050,7 +9055,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="135"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -9065,7 +9070,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="136"/>
+      <c r="B12" s="121"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -9080,15 +9085,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="143" t="s">
+      <c r="C13" s="128" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="137" t="s">
+      <c r="F13" s="122" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -9101,11 +9106,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="141"/>
-      <c r="C14" s="144"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="129"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="138"/>
+      <c r="F14" s="123"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -9116,11 +9121,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="145"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="139"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -9131,7 +9136,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="141"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -9146,7 +9151,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="141"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -9161,7 +9166,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="142"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -9176,16 +9181,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="119" t="s">
+      <c r="C19" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="134" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -9199,10 +9204,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="120"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="138"/>
+      <c r="E20" s="135"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -9214,10 +9219,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="118"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="121"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="136"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -9230,11 +9235,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="125" t="s">
+      <c r="C22" s="140" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="128" t="s">
+      <c r="E22" s="143" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -9249,9 +9254,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="126"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="129"/>
+      <c r="E23" s="144"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -9264,9 +9269,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="127"/>
+      <c r="C24" s="142"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="130"/>
+      <c r="E24" s="145"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -9366,6 +9371,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -9373,12 +9384,6 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/term_1/Assignment_Planner.xlsx
+++ b/term_1/Assignment_Planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\GitHub\UBCO_21-22\term_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CD25A9-A676-4FB9-A6C6-A8EB5ACCA5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15826714-DE43-41B1-B126-A9A064B4F331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" activeTab="1" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -889,6 +889,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -991,6 +996,51 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1036,56 +1086,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1416,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142951BD-74E4-471E-868A-88909E17C9B2}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1433,19 +1433,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
@@ -1470,11 +1470,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1538,13 +1538,13 @@
       <c r="F5" s="3"/>
       <c r="G5" s="6"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="75" t="s">
+      <c r="I5" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="71">
         <v>44456</v>
       </c>
       <c r="L5" s="1"/>
@@ -1579,10 +1579,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="98" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -1607,8 +1607,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="96"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -1625,8 +1625,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="96"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="99"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -1640,8 +1640,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -1655,7 +1655,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="102"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -1670,7 +1670,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="103"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -1685,15 +1685,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="98" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="98" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="6"/>
@@ -1706,11 +1706,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="96"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="66"/>
@@ -1721,11 +1721,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="97"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="97"/>
+      <c r="F15" s="100"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="66"/>
@@ -1736,7 +1736,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -1751,7 +1751,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="105"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -1766,7 +1766,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="106"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -1781,16 +1781,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="92" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -1804,10 +1804,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="90"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -1819,10 +1819,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="91"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="94"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -1835,11 +1835,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="86" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="92" t="s">
+      <c r="E22" s="95" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -1854,9 +1854,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="84"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="93"/>
+      <c r="E23" s="96"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -1869,9 +1869,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="85"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="94"/>
+      <c r="E24" s="97"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2002,19 +2002,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -2039,11 +2039,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -2115,10 +2115,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="140" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2134,8 +2134,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="123"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2149,8 +2149,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="123"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2164,8 +2164,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="124"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2179,7 +2179,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="120"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2194,7 +2194,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="121"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2209,15 +2209,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="146" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="140" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2230,11 +2230,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="123"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2245,11 +2245,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="130"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="124"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2260,7 +2260,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="126"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2275,7 +2275,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="126"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2290,7 +2290,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="127"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2305,16 +2305,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2328,10 +2328,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="135"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2343,10 +2343,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="136"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2359,11 +2359,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2378,9 +2378,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="141"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="144"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2393,9 +2393,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="142"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="145"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2495,12 +2495,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -2508,6 +2502,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2524,19 +2524,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -2561,11 +2561,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -2637,10 +2637,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="140" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2656,8 +2656,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="123"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2671,8 +2671,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="123"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2686,8 +2686,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="124"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2701,7 +2701,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="120"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2716,7 +2716,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="121"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2731,15 +2731,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="146" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="140" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2752,11 +2752,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="123"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2767,11 +2767,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="130"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="124"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2782,7 +2782,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="126"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2797,7 +2797,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="126"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2812,7 +2812,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="127"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2827,16 +2827,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2850,10 +2850,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="135"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2865,10 +2865,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="136"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2881,11 +2881,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2900,9 +2900,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="141"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="144"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2915,9 +2915,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="142"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="145"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3017,12 +3017,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3030,6 +3024,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3046,19 +3046,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -3083,11 +3083,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -3159,10 +3159,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="140" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3178,8 +3178,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="123"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3193,8 +3193,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="123"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3208,8 +3208,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="124"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3223,7 +3223,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="120"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3238,7 +3238,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="121"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3253,15 +3253,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="146" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="140" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3274,11 +3274,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="123"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3289,11 +3289,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="130"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="124"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3304,7 +3304,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="126"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3319,7 +3319,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="126"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3334,7 +3334,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="127"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3349,16 +3349,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3372,10 +3372,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="135"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3387,10 +3387,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="136"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3403,11 +3403,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3422,9 +3422,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="141"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="144"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3437,9 +3437,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="142"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="145"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3539,12 +3539,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -3552,6 +3546,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3568,19 +3568,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -3605,11 +3605,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -3681,10 +3681,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="140" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3700,8 +3700,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="123"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3715,8 +3715,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="123"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3730,8 +3730,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="124"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3745,7 +3745,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="120"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3760,7 +3760,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="121"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3775,15 +3775,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="146" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="140" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3796,11 +3796,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="123"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3811,11 +3811,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="130"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="124"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3826,7 +3826,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="126"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3841,7 +3841,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="126"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3856,7 +3856,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="127"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3871,16 +3871,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3894,10 +3894,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="135"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3909,10 +3909,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="136"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3925,11 +3925,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3944,9 +3944,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="141"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="144"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3959,9 +3959,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="142"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="145"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4061,12 +4061,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4074,6 +4068,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4090,19 +4090,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -4127,11 +4127,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -4203,10 +4203,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="140" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4222,8 +4222,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="123"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4237,8 +4237,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="123"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4252,8 +4252,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="124"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4267,7 +4267,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="120"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4282,7 +4282,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="121"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4297,15 +4297,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="146" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="140" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4318,11 +4318,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="123"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4333,11 +4333,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="130"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="124"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4348,7 +4348,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="126"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4363,7 +4363,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="126"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4378,7 +4378,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="127"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4393,16 +4393,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4416,10 +4416,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="135"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4431,10 +4431,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="136"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4447,11 +4447,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4466,9 +4466,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="141"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="144"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4481,9 +4481,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="142"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="145"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4583,12 +4583,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -4596,6 +4590,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4612,19 +4612,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -4649,11 +4649,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -4725,10 +4725,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="140" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4744,8 +4744,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="123"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4759,8 +4759,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="123"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4774,8 +4774,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="124"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4789,7 +4789,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="120"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4804,7 +4804,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="121"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4819,15 +4819,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="146" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="140" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4840,11 +4840,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="123"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4855,11 +4855,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="130"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="124"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4870,7 +4870,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="126"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4885,7 +4885,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="126"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4900,7 +4900,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="127"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4915,16 +4915,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4938,10 +4938,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="135"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4953,10 +4953,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="136"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4969,11 +4969,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4988,9 +4988,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="141"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="144"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -5003,9 +5003,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="142"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="145"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5105,12 +5105,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5118,6 +5112,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5127,8 +5127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B3B8CC-D153-431F-BDAD-4E080E0238A8}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5143,19 +5143,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
@@ -5180,11 +5180,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
@@ -5274,17 +5274,17 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="98" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
-      <c r="E7" s="113" t="s">
+      <c r="E7" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="113" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="6"/>
@@ -5303,11 +5303,11 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="96"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="53"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="111"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="114"/>
       <c r="G8" s="6"/>
       <c r="H8" s="15"/>
       <c r="I8" s="65" t="s">
@@ -5324,11 +5324,11 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="96"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="99"/>
       <c r="D9" s="53"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="111"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="114"/>
       <c r="G9" s="6"/>
       <c r="H9" s="15"/>
       <c r="I9" s="66" t="s">
@@ -5345,20 +5345,20 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
-      <c r="F10" s="111"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="6"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="146" t="s">
+      <c r="I10" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="147" t="s">
+      <c r="J10" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="148">
+      <c r="K10" s="84">
         <v>44455</v>
       </c>
     </row>
@@ -5366,15 +5366,15 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="102"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="55"/>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="113" t="s">
+      <c r="E11" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="112"/>
+      <c r="F11" s="115"/>
       <c r="G11" s="6"/>
       <c r="H11" s="15"/>
       <c r="I11" s="66"/>
@@ -5385,10 +5385,10 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="103"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="57"/>
       <c r="G12" s="6"/>
       <c r="H12" s="15"/>
@@ -5400,15 +5400,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="95" t="s">
+      <c r="D13" s="115"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="98" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="6"/>
@@ -5421,11 +5421,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="96"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="66"/>
@@ -5436,15 +5436,15 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="110" t="s">
+      <c r="B15" s="108"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="113" t="s">
+      <c r="E15" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="97"/>
+      <c r="F15" s="100"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="66"/>
@@ -5455,10 +5455,10 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="55"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="114"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="117"/>
       <c r="F16" s="58"/>
       <c r="G16" s="6"/>
       <c r="H16" s="15"/>
@@ -5470,10 +5470,10 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="105"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="54"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="118"/>
       <c r="F17" s="53"/>
       <c r="G17" s="6"/>
       <c r="H17" s="15"/>
@@ -5485,7 +5485,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="106"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -5500,16 +5500,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="92" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -5523,10 +5523,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="90"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -5538,10 +5538,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="91"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="94"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -5554,11 +5554,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="86" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="92" t="s">
+      <c r="E22" s="95" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -5573,11 +5573,11 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="110" t="s">
+      <c r="C23" s="87"/>
+      <c r="D23" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="93"/>
+      <c r="E23" s="96"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -5590,9 +5590,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="94"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="97"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5606,7 +5606,7 @@
       </c>
       <c r="B25" s="53"/>
       <c r="C25" s="55"/>
-      <c r="D25" s="112"/>
+      <c r="D25" s="115"/>
       <c r="E25" s="55"/>
       <c r="F25" s="53"/>
       <c r="G25" s="6"/>
@@ -5692,13 +5692,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -5712,6 +5705,13 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E15:E17"/>
     <mergeCell ref="F7:F11"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="D23:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5737,19 +5737,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
@@ -5774,11 +5774,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
@@ -5850,10 +5850,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="98" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -5869,8 +5869,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="96"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -5884,8 +5884,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="96"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="99"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -5899,8 +5899,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -5914,7 +5914,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="102"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -5929,7 +5929,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="103"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -5944,15 +5944,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="98" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="98" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="6"/>
@@ -5965,11 +5965,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="96"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -5980,11 +5980,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="97"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="97"/>
+      <c r="F15" s="100"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -5995,7 +5995,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -6010,7 +6010,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="105"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -6025,7 +6025,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="106"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -6040,16 +6040,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="92" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -6063,10 +6063,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="90"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -6078,10 +6078,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="91"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="94"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -6094,11 +6094,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="86" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="92" t="s">
+      <c r="E22" s="95" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -6113,9 +6113,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="84"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="93"/>
+      <c r="E23" s="96"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -6128,9 +6128,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="85"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="94"/>
+      <c r="E24" s="97"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -6230,12 +6230,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6243,6 +6237,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6268,19 +6268,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
@@ -6305,11 +6305,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
@@ -6381,10 +6381,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="98" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -6400,8 +6400,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="96"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -6415,8 +6415,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="96"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="99"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -6430,8 +6430,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -6445,7 +6445,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="102"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -6460,7 +6460,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="103"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -6475,15 +6475,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="98" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="98" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="6"/>
@@ -6496,11 +6496,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="96"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -6511,11 +6511,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="97"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="97"/>
+      <c r="F15" s="100"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -6526,7 +6526,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -6541,7 +6541,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="105"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -6556,7 +6556,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="106"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -6571,16 +6571,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="92" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -6594,10 +6594,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="90"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -6609,10 +6609,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="91"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="94"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -6625,11 +6625,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="86" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="92" t="s">
+      <c r="E22" s="95" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -6644,9 +6644,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="84"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="93"/>
+      <c r="E23" s="96"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -6659,9 +6659,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="85"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="94"/>
+      <c r="E24" s="97"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -6761,12 +6761,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -6774,6 +6768,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6790,19 +6790,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
@@ -6827,11 +6827,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="98" t="s">
+      <c r="I2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="100"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
@@ -6903,10 +6903,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="98" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -6922,8 +6922,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="96"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="99"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -6937,8 +6937,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="96"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="99"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -6952,8 +6952,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="97"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="100"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -6967,7 +6967,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="102"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -6982,7 +6982,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="103"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -6997,15 +6997,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="95" t="s">
+      <c r="C13" s="98" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="95" t="s">
+      <c r="F13" s="98" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="6"/>
@@ -7018,11 +7018,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="96"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="99"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="96"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="37"/>
@@ -7033,11 +7033,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="97"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="97"/>
+      <c r="F15" s="100"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="37"/>
@@ -7048,7 +7048,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="105"/>
+      <c r="B16" s="108"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -7063,7 +7063,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="105"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -7078,7 +7078,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="106"/>
+      <c r="B18" s="109"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -7093,16 +7093,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="89" t="s">
+      <c r="E19" s="92" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -7116,10 +7116,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="90"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7131,10 +7131,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="91"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="94"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -7147,11 +7147,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="83" t="s">
+      <c r="C22" s="86" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="92" t="s">
+      <c r="E22" s="95" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -7166,9 +7166,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="84"/>
+      <c r="C23" s="87"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="93"/>
+      <c r="E23" s="96"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7181,9 +7181,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="85"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="94"/>
+      <c r="E24" s="97"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7283,12 +7283,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7296,6 +7290,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7312,19 +7312,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -7349,11 +7349,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -7425,10 +7425,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="140" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7444,8 +7444,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="123"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7459,8 +7459,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="123"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7474,8 +7474,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="124"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -7489,7 +7489,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="120"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -7504,7 +7504,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="121"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -7519,15 +7519,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="146" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="140" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -7540,11 +7540,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="123"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -7555,11 +7555,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="130"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="124"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -7570,7 +7570,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="126"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -7585,7 +7585,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="126"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -7600,7 +7600,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="127"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -7615,16 +7615,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -7638,10 +7638,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="135"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -7653,10 +7653,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="136"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -7669,11 +7669,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -7688,9 +7688,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="141"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="144"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -7703,9 +7703,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="142"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="145"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -7805,12 +7805,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -7818,6 +7812,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7834,19 +7834,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -7871,11 +7871,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -7947,10 +7947,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="140" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -7966,8 +7966,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="123"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -7981,8 +7981,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="123"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -7996,8 +7996,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="124"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8011,7 +8011,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="120"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8026,7 +8026,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="121"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8041,15 +8041,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="146" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="140" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8062,11 +8062,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="123"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8077,11 +8077,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="130"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="124"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8092,7 +8092,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="126"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8107,7 +8107,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="126"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8122,7 +8122,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="127"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8137,16 +8137,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8160,10 +8160,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="135"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8175,10 +8175,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="136"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8191,11 +8191,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8210,9 +8210,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="141"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="144"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8225,9 +8225,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="142"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="145"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8327,12 +8327,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8340,6 +8334,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8356,19 +8356,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -8393,11 +8393,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -8469,10 +8469,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="140" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -8488,8 +8488,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="123"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -8503,8 +8503,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="123"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -8518,8 +8518,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="124"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -8533,7 +8533,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="120"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -8548,7 +8548,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="121"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -8563,15 +8563,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="146" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="140" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -8584,11 +8584,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="123"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -8599,11 +8599,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="130"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="124"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -8614,7 +8614,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="126"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -8629,7 +8629,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="126"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -8644,7 +8644,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="127"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -8659,16 +8659,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -8682,10 +8682,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="135"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -8697,10 +8697,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="136"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -8713,11 +8713,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -8732,9 +8732,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="141"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="144"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -8747,9 +8747,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="142"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="145"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -8849,12 +8849,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -8862,6 +8856,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8878,19 +8878,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -8915,11 +8915,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="117"/>
-      <c r="K2" s="118"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="136"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -8991,10 +8991,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="140" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -9010,8 +9010,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="120"/>
-      <c r="C8" s="123"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -9025,8 +9025,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="120"/>
-      <c r="C9" s="123"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="141"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -9040,8 +9040,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="120"/>
-      <c r="C10" s="124"/>
+      <c r="B10" s="138"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -9055,7 +9055,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="120"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -9070,7 +9070,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="121"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -9085,15 +9085,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="143" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="146" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="122" t="s">
+      <c r="F13" s="140" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -9106,11 +9106,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="129"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="147"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="123"/>
+      <c r="F14" s="141"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -9121,11 +9121,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="130"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="148"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="124"/>
+      <c r="F15" s="142"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -9136,7 +9136,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="126"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -9151,7 +9151,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="126"/>
+      <c r="B17" s="144"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -9166,7 +9166,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="127"/>
+      <c r="B18" s="145"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -9181,16 +9181,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="131" t="s">
+      <c r="B19" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="134" t="s">
+      <c r="C19" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="137" t="s">
+      <c r="D19" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="134" t="s">
+      <c r="E19" s="122" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -9204,10 +9204,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="135"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="135"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="123"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -9219,10 +9219,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="133"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="136"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="124"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -9235,11 +9235,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="140" t="s">
+      <c r="C22" s="128" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="131" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -9254,9 +9254,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="141"/>
+      <c r="C23" s="129"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="144"/>
+      <c r="E23" s="132"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -9269,9 +9269,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="142"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="145"/>
+      <c r="E24" s="133"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -9371,12 +9371,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B7:B12"/>
@@ -9384,6 +9378,12 @@
     <mergeCell ref="B13:B18"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="F13:F15"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/term_1/Assignment_Planner.xlsx
+++ b/term_1/Assignment_Planner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thewi\Documents\GitHub\UBCO_21-22\term_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15826714-DE43-41B1-B126-A9A064B4F331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033DA323-4045-45FE-B51D-0A3404F1A722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
+    <workbookView xWindow="2445" yWindow="1990" windowWidth="14400" windowHeight="7495" activeTab="1" xr2:uid="{A664FF4E-0A93-43A8-BA8C-0E92C5698EC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="51">
   <si>
     <t>Monday</t>
   </si>
@@ -175,6 +175,24 @@
   <si>
     <t>Quiz 1</t>
   </si>
+  <si>
+    <t>Lab 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical Engagement </t>
+  </si>
+  <si>
+    <t>ENGL 370</t>
+  </si>
+  <si>
+    <t>09/27-10/03</t>
+  </si>
+  <si>
+    <t>10/4-10/10</t>
+  </si>
+  <si>
+    <t>ENGL 379 Critical Engagement Assignment Due</t>
+  </si>
 </sst>
 </file>
 
@@ -225,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,12 +340,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="30">
     <border>
@@ -736,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -870,15 +882,6 @@
     <xf numFmtId="16" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="17" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="14" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -894,6 +897,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="16" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -994,6 +1018,27 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,7 +1461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142951BD-74E4-471E-868A-88909E17C9B2}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I5" sqref="I5:K5"/>
     </sheetView>
   </sheetViews>
@@ -1433,19 +1478,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:14" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
@@ -1470,11 +1515,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="107"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -1579,10 +1624,10 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="102" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
@@ -1607,8 +1652,8 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="99"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="53"/>
       <c r="E8" s="54"/>
       <c r="F8" s="53"/>
@@ -1625,8 +1670,8 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="99"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="103"/>
       <c r="D9" s="53"/>
       <c r="E9" s="54"/>
       <c r="F9" s="53"/>
@@ -1640,8 +1685,8 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="100"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
       <c r="F10" s="53"/>
@@ -1655,7 +1700,7 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="105"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="55"/>
       <c r="D11" s="53"/>
       <c r="E11" s="54"/>
@@ -1670,7 +1715,7 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="106"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="56"/>
       <c r="D12" s="53"/>
       <c r="E12" s="54"/>
@@ -1685,15 +1730,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="102" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="102" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="6"/>
@@ -1706,11 +1751,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="99"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="99"/>
+      <c r="F14" s="103"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="66"/>
@@ -1721,11 +1766,11 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="100"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="104"/>
       <c r="D15" s="53"/>
       <c r="E15" s="54"/>
-      <c r="F15" s="100"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="66"/>
@@ -1736,7 +1781,7 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="108"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="55"/>
       <c r="D16" s="53"/>
       <c r="E16" s="54"/>
@@ -1751,7 +1796,7 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="108"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="54"/>
       <c r="D17" s="53"/>
       <c r="E17" s="54"/>
@@ -1766,7 +1811,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="109"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -1781,16 +1826,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="92" t="s">
+      <c r="E19" s="96" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -1804,10 +1849,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="93"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="97"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -1819,10 +1864,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="94"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="98"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -1835,11 +1880,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="90" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="95" t="s">
+      <c r="E22" s="99" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -1854,9 +1899,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="87"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="53"/>
-      <c r="E23" s="96"/>
+      <c r="E23" s="100"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -1869,9 +1914,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="88"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="53"/>
-      <c r="E24" s="97"/>
+      <c r="E24" s="101"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2002,19 +2047,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -2039,11 +2084,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="134" t="s">
+      <c r="I2" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="147"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -2115,10 +2160,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="151" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2134,8 +2179,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="141"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="152"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2149,8 +2194,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="138"/>
-      <c r="C9" s="141"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="152"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2164,8 +2209,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="142"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="153"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2179,7 +2224,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="138"/>
+      <c r="B11" s="149"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2194,7 +2239,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="139"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2209,15 +2254,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="157" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="140" t="s">
+      <c r="F13" s="151" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2230,11 +2275,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="147"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="158"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="141"/>
+      <c r="F14" s="152"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2245,11 +2290,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="148"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="159"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="142"/>
+      <c r="F15" s="153"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2260,7 +2305,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="144"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2275,7 +2320,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="144"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2290,7 +2335,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="145"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2305,16 +2350,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="133" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2328,10 +2373,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="134"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2343,10 +2388,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="135"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2359,11 +2404,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="139" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="142" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2378,9 +2423,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="140"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="143"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2393,9 +2438,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="141"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="144"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -2524,19 +2569,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -2561,11 +2606,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="134" t="s">
+      <c r="I2" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="147"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -2637,10 +2682,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="151" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -2656,8 +2701,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="141"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="152"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -2671,8 +2716,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="138"/>
-      <c r="C9" s="141"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="152"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -2686,8 +2731,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="142"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="153"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -2701,7 +2746,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="138"/>
+      <c r="B11" s="149"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -2716,7 +2761,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="139"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -2731,15 +2776,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="157" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="140" t="s">
+      <c r="F13" s="151" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -2752,11 +2797,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="147"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="158"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="141"/>
+      <c r="F14" s="152"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -2767,11 +2812,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="148"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="159"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="142"/>
+      <c r="F15" s="153"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -2782,7 +2827,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="144"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -2797,7 +2842,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="144"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -2812,7 +2857,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="145"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -2827,16 +2872,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="133" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -2850,10 +2895,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="134"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -2865,10 +2910,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="135"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -2881,11 +2926,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="139" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="142" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -2900,9 +2945,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="140"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="143"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -2915,9 +2960,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="141"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="144"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3046,19 +3091,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -3083,11 +3128,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="134" t="s">
+      <c r="I2" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="147"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -3159,10 +3204,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="151" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3178,8 +3223,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="141"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="152"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3193,8 +3238,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="138"/>
-      <c r="C9" s="141"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="152"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3208,8 +3253,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="142"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="153"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3223,7 +3268,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="138"/>
+      <c r="B11" s="149"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3238,7 +3283,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="139"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3253,15 +3298,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="157" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="140" t="s">
+      <c r="F13" s="151" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3274,11 +3319,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="147"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="158"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="141"/>
+      <c r="F14" s="152"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3289,11 +3334,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="148"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="159"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="142"/>
+      <c r="F15" s="153"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3304,7 +3349,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="144"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3319,7 +3364,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="144"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3334,7 +3379,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="145"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3349,16 +3394,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="133" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3372,10 +3417,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="134"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3387,10 +3432,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="135"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3403,11 +3448,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="139" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="142" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3422,9 +3467,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="140"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="143"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3437,9 +3482,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="141"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="144"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -3568,19 +3613,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -3605,11 +3650,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="134" t="s">
+      <c r="I2" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="147"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -3681,10 +3726,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="151" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -3700,8 +3745,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="141"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="152"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -3715,8 +3760,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="138"/>
-      <c r="C9" s="141"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="152"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -3730,8 +3775,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="142"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="153"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -3745,7 +3790,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="138"/>
+      <c r="B11" s="149"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -3760,7 +3805,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="139"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -3775,15 +3820,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="157" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="140" t="s">
+      <c r="F13" s="151" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -3796,11 +3841,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="147"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="158"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="141"/>
+      <c r="F14" s="152"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -3811,11 +3856,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="148"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="159"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="142"/>
+      <c r="F15" s="153"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -3826,7 +3871,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="144"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -3841,7 +3886,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="144"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -3856,7 +3901,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="145"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -3871,16 +3916,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="133" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -3894,10 +3939,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="134"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -3909,10 +3954,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="135"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -3925,11 +3970,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="139" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="142" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -3944,9 +3989,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="140"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="143"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -3959,9 +4004,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="141"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="144"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4090,19 +4135,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -4127,11 +4172,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="134" t="s">
+      <c r="I2" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="147"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -4203,10 +4248,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="151" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4222,8 +4267,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="141"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="152"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4237,8 +4282,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="138"/>
-      <c r="C9" s="141"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="152"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4252,8 +4297,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="142"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="153"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4267,7 +4312,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="138"/>
+      <c r="B11" s="149"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4282,7 +4327,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="139"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4297,15 +4342,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="157" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="140" t="s">
+      <c r="F13" s="151" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4318,11 +4363,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="147"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="158"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="141"/>
+      <c r="F14" s="152"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4333,11 +4378,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="148"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="159"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="142"/>
+      <c r="F15" s="153"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4348,7 +4393,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="144"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4363,7 +4408,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="144"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4378,7 +4423,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="145"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4393,16 +4438,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="133" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4416,10 +4461,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="134"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4431,10 +4476,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="135"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4447,11 +4492,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="139" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="142" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4466,9 +4511,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="140"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="143"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -4481,9 +4526,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="141"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="144"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -4612,19 +4657,19 @@
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
@@ -4649,11 +4694,11 @@
       <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="134" t="s">
+      <c r="I2" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="147"/>
     </row>
     <row r="3" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
       <c r="A3" s="12">
@@ -4725,10 +4770,10 @@
       <c r="A7" s="14">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="137" t="s">
+      <c r="B7" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="140" t="s">
+      <c r="C7" s="151" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="3"/>
@@ -4744,8 +4789,8 @@
       <c r="A8" s="14">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="138"/>
-      <c r="C8" s="141"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="152"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="3"/>
@@ -4759,8 +4804,8 @@
       <c r="A9" s="14">
         <v>0.375</v>
       </c>
-      <c r="B9" s="138"/>
-      <c r="C9" s="141"/>
+      <c r="B9" s="149"/>
+      <c r="C9" s="152"/>
       <c r="D9" s="3"/>
       <c r="E9" s="6"/>
       <c r="F9" s="3"/>
@@ -4774,8 +4819,8 @@
       <c r="A10" s="14">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="138"/>
-      <c r="C10" s="142"/>
+      <c r="B10" s="149"/>
+      <c r="C10" s="153"/>
       <c r="D10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="3"/>
@@ -4789,7 +4834,7 @@
       <c r="A11" s="14">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="138"/>
+      <c r="B11" s="149"/>
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="6"/>
@@ -4804,7 +4849,7 @@
       <c r="A12" s="14">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="139"/>
+      <c r="B12" s="150"/>
       <c r="C12" s="7"/>
       <c r="D12" s="3"/>
       <c r="E12" s="6"/>
@@ -4819,15 +4864,15 @@
       <c r="A13" s="14">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="143" t="s">
+      <c r="B13" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="157" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="140" t="s">
+      <c r="F13" s="151" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="6"/>
@@ -4840,11 +4885,11 @@
       <c r="A14" s="14">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="147"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="158"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="141"/>
+      <c r="F14" s="152"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23"/>
@@ -4855,11 +4900,11 @@
       <c r="A15" s="14">
         <v>0.5</v>
       </c>
-      <c r="B15" s="144"/>
-      <c r="C15" s="148"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="159"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="142"/>
+      <c r="F15" s="153"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="23"/>
@@ -4870,7 +4915,7 @@
       <c r="A16" s="14">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="144"/>
+      <c r="B16" s="155"/>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
       <c r="E16" s="6"/>
@@ -4885,7 +4930,7 @@
       <c r="A17" s="14">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="144"/>
+      <c r="B17" s="155"/>
       <c r="C17" s="6"/>
       <c r="D17" s="3"/>
       <c r="E17" s="6"/>
@@ -4900,7 +4945,7 @@
       <c r="A18" s="14">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="145"/>
+      <c r="B18" s="156"/>
       <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="7"/>
@@ -4915,16 +4960,16 @@
       <c r="A19" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="122" t="s">
+      <c r="C19" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="122" t="s">
+      <c r="E19" s="133" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="3"/>
@@ -4938,10 +4983,10 @@
       <c r="A20" s="14">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="126"/>
-      <c r="E20" s="123"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="134"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -4953,10 +4998,10 @@
       <c r="A21" s="14">
         <v>0.625</v>
       </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="124"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="135"/>
+      <c r="D21" s="138"/>
+      <c r="E21" s="135"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -4969,11 +5014,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="128" t="s">
+      <c r="C22" s="139" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="142" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="3"/>
@@ -4988,9 +5033,9 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="129"/>
+      <c r="C23" s="140"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="132"/>
+      <c r="E23" s="143"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -5003,9 +5048,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="130"/>
+      <c r="C24" s="141"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="133"/>
+      <c r="E24" s="144"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5127,8 +5172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B3B8CC-D153-431F-BDAD-4E080E0238A8}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F15"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5143,19 +5188,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
@@ -5180,11 +5225,11 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="107"/>
     </row>
     <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
@@ -5197,7 +5242,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="5"/>
       <c r="H3" s="61"/>
-      <c r="I3" s="79" t="s">
+      <c r="I3" s="76" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="59" t="s">
@@ -5218,7 +5263,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="6"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="80" t="s">
+      <c r="I4" s="77" t="s">
         <v>32</v>
       </c>
       <c r="J4" s="39" t="s">
@@ -5245,7 +5290,7 @@
       <c r="J5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="78">
+      <c r="K5" s="75">
         <v>44465</v>
       </c>
     </row>
@@ -5266,7 +5311,7 @@
       <c r="J6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="78">
+      <c r="K6" s="75">
         <v>44459</v>
       </c>
     </row>
@@ -5274,28 +5319,28 @@
       <c r="A7" s="44">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="98" t="s">
+      <c r="C7" s="102" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="53"/>
-      <c r="E7" s="116" t="s">
+      <c r="E7" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="113" t="s">
+      <c r="F7" s="117" t="s">
         <v>43</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="75" t="s">
+      <c r="I7" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="76" t="s">
+      <c r="J7" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="77">
+      <c r="K7" s="71">
         <v>44459</v>
       </c>
     </row>
@@ -5303,11 +5348,11 @@
       <c r="A8" s="44">
         <v>0.35416666666666702</v>
       </c>
-      <c r="B8" s="105"/>
-      <c r="C8" s="99"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="53"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="114"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="118"/>
       <c r="G8" s="6"/>
       <c r="H8" s="15"/>
       <c r="I8" s="65" t="s">
@@ -5316,7 +5361,7 @@
       <c r="J8" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="78">
+      <c r="K8" s="75">
         <v>44476</v>
       </c>
     </row>
@@ -5324,11 +5369,11 @@
       <c r="A9" s="44">
         <v>0.375</v>
       </c>
-      <c r="B9" s="105"/>
-      <c r="C9" s="99"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="103"/>
       <c r="D9" s="53"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="114"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="118"/>
       <c r="G9" s="6"/>
       <c r="H9" s="15"/>
       <c r="I9" s="66" t="s">
@@ -5337,7 +5382,7 @@
       <c r="J9" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="81">
+      <c r="K9" s="78">
         <v>44463</v>
       </c>
     </row>
@@ -5345,20 +5390,20 @@
       <c r="A10" s="44">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="100"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="53"/>
       <c r="E10" s="54"/>
-      <c r="F10" s="114"/>
+      <c r="F10" s="118"/>
       <c r="G10" s="6"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="82" t="s">
+      <c r="I10" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="83" t="s">
+      <c r="J10" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="84">
+      <c r="K10" s="81">
         <v>44455</v>
       </c>
     </row>
@@ -5366,15 +5411,15 @@
       <c r="A11" s="44">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B11" s="105"/>
+      <c r="B11" s="109"/>
       <c r="C11" s="55"/>
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="116" t="s">
+      <c r="E11" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="115"/>
+      <c r="F11" s="119"/>
       <c r="G11" s="6"/>
       <c r="H11" s="15"/>
       <c r="I11" s="66"/>
@@ -5385,10 +5430,10 @@
       <c r="A12" s="44">
         <v>0.4375</v>
       </c>
-      <c r="B12" s="106"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="56"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="117"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="121"/>
       <c r="F12" s="57"/>
       <c r="G12" s="6"/>
       <c r="H12" s="15"/>
@@ -5400,15 +5445,15 @@
       <c r="A13" s="44">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="98" t="s">
+      <c r="D13" s="119"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="102" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="6"/>
@@ -5421,11 +5466,11 @@
       <c r="A14" s="44">
         <v>0.47916666666666602</v>
       </c>
-      <c r="B14" s="108"/>
-      <c r="C14" s="99"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="53"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="99"/>
+      <c r="F14" s="103"/>
       <c r="G14" s="6"/>
       <c r="H14" s="15"/>
       <c r="I14" s="66"/>
@@ -5436,15 +5481,15 @@
       <c r="A15" s="44">
         <v>0.5</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="113" t="s">
+      <c r="B15" s="112"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="116" t="s">
+      <c r="E15" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="100"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="6"/>
       <c r="H15" s="15"/>
       <c r="I15" s="66"/>
@@ -5455,10 +5500,10 @@
       <c r="A16" s="44">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B16" s="108"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="55"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="117"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="121"/>
       <c r="F16" s="58"/>
       <c r="G16" s="6"/>
       <c r="H16" s="15"/>
@@ -5470,10 +5515,10 @@
       <c r="A17" s="44">
         <v>0.54166666666666596</v>
       </c>
-      <c r="B17" s="108"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="54"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="118"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="122"/>
       <c r="F17" s="53"/>
       <c r="G17" s="6"/>
       <c r="H17" s="15"/>
@@ -5485,7 +5530,7 @@
       <c r="A18" s="44">
         <v>0.5625</v>
       </c>
-      <c r="B18" s="109"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
       <c r="E18" s="56"/>
@@ -5500,16 +5545,16 @@
       <c r="A19" s="44">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="92" t="s">
+      <c r="E19" s="96" t="s">
         <v>12</v>
       </c>
       <c r="F19" s="53"/>
@@ -5523,10 +5568,10 @@
       <c r="A20" s="44">
         <v>0.60416666666666596</v>
       </c>
-      <c r="B20" s="111"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="93"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="97"/>
       <c r="F20" s="53"/>
       <c r="G20" s="6"/>
       <c r="H20" s="15"/>
@@ -5538,10 +5583,10 @@
       <c r="A21" s="44">
         <v>0.625</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="94"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="98"/>
       <c r="F21" s="53"/>
       <c r="G21" s="6"/>
       <c r="H21" s="15"/>
@@ -5554,11 +5599,11 @@
         <v>0.64583333333333304</v>
       </c>
       <c r="B22" s="58"/>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="90" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="58"/>
-      <c r="E22" s="95" t="s">
+      <c r="E22" s="99" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="53"/>
@@ -5573,11 +5618,11 @@
         <v>0.66666666666666596</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="113" t="s">
+      <c r="C23" s="91"/>
+      <c r="D23" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="96"/>
+      <c r="E23" s="100"/>
       <c r="F23" s="53"/>
       <c r="G23" s="6"/>
       <c r="H23" s="15"/>
@@ -5590,9 +5635,9 @@
         <v>0.6875</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="97"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="101"/>
       <c r="F24" s="53"/>
       <c r="G24" s="6"/>
       <c r="H24" s="15"/>
@@ -5606,7 +5651,7 @@
       </c>
       <c r="B25" s="53"/>
       <c r="C25" s="55"/>
-      <c r="D25" s="115"/>
+      <c r="D25" s="119"/>
       <c r="E25" s="55"/>
       <c r="F25" s="53"/>
       <c r="G25" s="6"/>
@@ -5721,8 +5766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA0B4C7-190D-4FFA-B756-DE77B8DDC8AE}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="E11" zoomScale="66" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5734,22 +5779,23 @@
     <col min="5" max="5" width="21.86328125" customWidth="1"/>
     <col min="6" max="6" width="30.86328125" customWidth="1"/>
     <col min="8" max="8" width="22.54296875" customWidth="1"/>
+    <col min="9" max="9" width="13.6796875" style="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A2" s="8"/>
@@ -5774,13 +5820,13 @@
       <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="101" t="s">
+      <c r="I2" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="102"/>
-      <c r="K2" s="103"/>
-    </row>
-    <row r="3" spans="1:11" ht="19.25" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="J2" s="106"/>
+      <c r="K2" s="107"/>
+    </row>
+    <row r="3" spans="1:11" ht="31" thickBot="1" x14ac:dyDescent="1.05">
       <c r="A3" s="43">
         <v>0.25</v>
       </c>
@@ -5791,7 +5837,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="5"/>
       <c r="H3" s="61"/>
-      <c r="I3" s="62" t="s">
+      <c r="I3" s="76" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="59" t="s">
@@ -5812,11 +5858,17 @@
       <c r="F4" s="3"/>
       <c r="G4" s="6"/>
       <c r="H4" s="15"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="31"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.5" x14ac:dyDescent="0.9">
+      <c r="I4" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="63">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.9">
       <c r="A5" s="44">
         <v>0.29166666666666702</v>
       </c>
@@ -5827,9 +5879,15 @@
       <c r="F5" s="3"/>
       <c r="G5" s="6"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="32"/>
+      <c r="I5" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="75">
+        <v>44473</v>
+      </c